--- a/help/54_COVID_19_new.xlsx
+++ b/help/54_COVID_19_new.xlsx
@@ -33,9 +33,10 @@
     <sheet name="Партия 9" sheetId="30" state="hidden" r:id="rId19"/>
     <sheet name="Партия 10" sheetId="31" state="hidden" r:id="rId20"/>
     <sheet name="Должники" sheetId="7" r:id="rId21"/>
+    <sheet name="Для_МГ" sheetId="32" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">Должники!$A$2:$Q$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">Должники!$A$2:$Q$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Партия 1'!$A$2:$G$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Партия 10'!$A$2:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Партия 2'!$A$2:$G$2</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="180">
   <si>
     <t>№ п/п</t>
   </si>
@@ -575,12 +576,30 @@
   <si>
     <t>Дата отчета</t>
   </si>
+  <si>
+    <t>Партия</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городской противотуберкулезный диспансер"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Психоневрологический дом ребенка №6"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ ГЦОРЗП "Ювента"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ Детский туберкулезный санаторий "Дружба"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -690,8 +709,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,8 +763,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -862,13 +904,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -996,6 +1150,48 @@
     <xf numFmtId="14" fontId="14" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,20 +1204,1387 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="204">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1123,6 +2686,46 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -4055,6 +5658,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист10"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4073,6 +5677,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист11"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4091,6 +5696,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист12"/>
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7733,6 +9339,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист13"/>
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11347,6 +12954,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист14"/>
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14961,10 +16569,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G133"/>
+  <sheetPr codeName="Лист15"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="12.75"/>
@@ -15025,19 +16634,19 @@
         <v>84</v>
       </c>
       <c r="C3" s="21" t="e">
-        <f>C7+C9+C19+C25+C29+C37+C41+C45+C47+C49+C51+C61+C65+C68+C70+C73+C79+C83+C4</f>
+        <f>C6+C9+C18+C22+C26+C33+C38+C42+C44+C46+C50+C56+C61+C64+C66+C69+C75+C79+C4</f>
         <v>#N/A</v>
       </c>
       <c r="D3" s="21" t="e">
-        <f>D7+D9+D19+D25+D29+D37+D41+D45+D47+D49+D51+D61+D65+D68+D70+D73+D79+D83+D4</f>
+        <f t="shared" ref="D3:F3" si="0">D6+D9+D18+D22+D26+D33+D38+D42+D44+D46+D50+D56+D61+D64+D66+D69+D75+D79+D4</f>
         <v>#N/A</v>
       </c>
       <c r="E3" s="21" t="e">
-        <f>E7+E9+E19+E25+E29+E37+E41+E45+E47+E49+E51+E61+E65+E68+E70+E73+E79+E83+E4</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="F3" s="21" t="e">
-        <f>F7+F9+F19+F25+F29+F37+F41+F45+F47+F49+F51+F61+F65+F68+F70+F73+F79+F83+F4</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15047,19 +16656,19 @@
         <v>85</v>
       </c>
       <c r="C4" s="22" t="e">
-        <f>SUM(C5:C6)</f>
+        <f>SUM(C5:C5)</f>
         <v>#N/A</v>
       </c>
       <c r="D4" s="22" t="e">
-        <f>SUM(D5:D6)</f>
+        <f>SUM(D5:D5)</f>
         <v>#N/A</v>
       </c>
       <c r="E4" s="22" t="e">
-        <f>SUM(E5:E6)</f>
+        <f>SUM(E5:E5)</f>
         <v>#N/A</v>
       </c>
       <c r="F4" s="22" t="e">
-        <f>SUM(F5:F6)</f>
+        <f>SUM(F5:F5)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15068,7 +16677,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="e">
         <f>VLOOKUP($B5,'part 05'!$D:$J, 3, 0)</f>
@@ -15092,61 +16701,61 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="24">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="26" t="e">
+        <f t="shared" ref="C6:E6" si="1">SUM(C7:C8)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="26" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="26" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="26" t="e">
+        <f>SUM(F7:F8)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="38" t="e">
-        <f>VLOOKUP($B6,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="26" t="e">
-        <f>SUM(C8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="26" t="e">
-        <f>SUM(D8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="26" t="e">
-        <f>SUM(E8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="26" t="e">
-        <f>SUM(F8)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1">
+      <c r="B7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="e">
+        <f>VLOOKUP($B7,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="10" t="e">
+        <f>VLOOKUP($B7,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="10" t="e">
+        <f>VLOOKUP($B7,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="10" t="e">
+        <f>VLOOKUP($B7,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="38" t="e">
+        <f>VLOOKUP($B7,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="24">
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C8" s="10" t="e">
         <f>VLOOKUP($B8,'part 05'!$D:$J, 3, 0)</f>
@@ -15175,19 +16784,19 @@
         <v>87</v>
       </c>
       <c r="C9" s="22" t="e">
-        <f>SUM(C10:C18)</f>
+        <f>SUM(C10:C17)</f>
         <v>#N/A</v>
       </c>
       <c r="D9" s="22" t="e">
-        <f>SUM(D10:D18)</f>
+        <f>SUM(D10:D17)</f>
         <v>#N/A</v>
       </c>
       <c r="E9" s="22" t="e">
-        <f>SUM(E10:E18)</f>
+        <f>SUM(E10:E17)</f>
         <v>#N/A</v>
       </c>
       <c r="F9" s="22" t="e">
-        <f>SUM(F10:F18)</f>
+        <f>SUM(F10:F17)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15195,7 +16804,7 @@
       <c r="A10" s="24">
         <v>4</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="10" t="e">
@@ -15223,7 +16832,7 @@
       <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="53" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="10" t="e">
@@ -15251,7 +16860,7 @@
       <c r="A12" s="24">
         <v>6</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="53" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="10" t="e">
@@ -15279,7 +16888,7 @@
       <c r="A13" s="24">
         <v>7</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="53" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="10" t="e">
@@ -15307,8 +16916,8 @@
       <c r="A14" s="24">
         <v>8</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>116</v>
+      <c r="B14" s="53" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="10" t="e">
         <f>VLOOKUP($B14,'part 05'!$D:$J, 3, 0)</f>
@@ -15335,8 +16944,8 @@
       <c r="A15" s="24">
         <v>9</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>117</v>
+      <c r="B15" s="53" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="10" t="e">
         <f>VLOOKUP($B15,'part 05'!$D:$J, 3, 0)</f>
@@ -15363,7 +16972,7 @@
       <c r="A16" s="24">
         <v>10</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="53" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="10" t="e">
@@ -15391,8 +17000,8 @@
       <c r="A17" s="24">
         <v>11</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>119</v>
+      <c r="B17" s="53" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="10" t="e">
         <f>VLOOKUP($B17,'part 05'!$D:$J, 3, 0)</f>
@@ -15415,53 +17024,53 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="24">
+    <row r="18" spans="1:7" ht="18" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="22" t="e">
+        <f>SUM(C19:C21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="22" t="e">
+        <f>SUM(D19:D21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="22" t="e">
+        <f>SUM(E19:E21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="22" t="e">
+        <f>SUM(F19:F21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1">
+      <c r="A19" s="24">
         <v>12</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="38" t="e">
-        <f>VLOOKUP($B18,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="22" t="e">
-        <f>SUM(C20:C24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="22" t="e">
-        <f>SUM(D20:D24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="22" t="e">
-        <f>SUM(E20:E24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" s="22" t="e">
-        <f>SUM(F20:F24)</f>
+      <c r="B19" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="10" t="e">
+        <f>VLOOKUP($B19,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="10" t="e">
+        <f>VLOOKUP($B19,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="10" t="e">
+        <f>VLOOKUP($B19,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="10" t="e">
+        <f>VLOOKUP($B19,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="38" t="e">
+        <f>VLOOKUP($B19,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15470,7 +17079,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C20" s="10" t="e">
         <f>VLOOKUP($B20,'part 05'!$D:$J, 3, 0)</f>
@@ -15498,7 +17107,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="C21" s="10" t="e">
         <f>VLOOKUP($B21,'part 05'!$D:$J, 3, 0)</f>
@@ -15521,40 +17130,34 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
-      <c r="A22" s="24">
-        <v>15</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="38" t="e">
-        <f>VLOOKUP($B22,'part 01'!$D:$K, 8, 0)</f>
+    <row r="22" spans="1:7" ht="18" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="22" t="e">
+        <f>SUM(C23:C25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="22" t="e">
+        <f>SUM(D23:D25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="22" t="e">
+        <f>SUM(E23:E25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="22" t="e">
+        <f>SUM(F23:F25)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C23" s="10" t="e">
         <f>VLOOKUP($B23,'part 05'!$D:$J, 3, 0)</f>
@@ -15579,10 +17182,10 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C24" s="10" t="e">
         <f>VLOOKUP($B24,'part 05'!$D:$J, 3, 0)</f>
@@ -15605,62 +17208,62 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="22" t="e">
-        <f>SUM(C26+C27+C28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="22" t="e">
-        <f>SUM(D26:D28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="22" t="e">
-        <f>SUM(E26:E28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F25" s="22" t="e">
-        <f>SUM(F26:F28)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
-      <c r="A26" s="24">
-        <v>18</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" s="38" t="e">
-        <f>VLOOKUP($B26,'part 01'!$D:$K, 8, 0)</f>
+    <row r="25" spans="1:7" ht="15" customHeight="1">
+      <c r="A25" s="24">
+        <v>17</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="10" t="e">
+        <f>VLOOKUP($B25,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="10" t="e">
+        <f>VLOOKUP($B25,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="10" t="e">
+        <f>VLOOKUP($B25,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="10" t="e">
+        <f>VLOOKUP($B25,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="38" t="e">
+        <f>VLOOKUP($B25,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="26" t="e">
+        <f>SUM(C27:C32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="26" t="e">
+        <f>SUM(D27:D32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="26" t="e">
+        <f>SUM(E27:E32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F26" s="26" t="e">
+        <f>SUM(F27:F32)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="24">
-        <v>19</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>63</v>
       </c>
       <c r="C27" s="10" t="e">
         <f>VLOOKUP($B27,'part 05'!$D:$J, 3, 0)</f>
@@ -15685,10 +17288,10 @@
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" s="24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" s="10" t="e">
         <f>VLOOKUP($B28,'part 05'!$D:$J, 3, 0)</f>
@@ -15711,25 +17314,31 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="26" t="e">
-        <f>SUM(C30+C31+C32+C33+C34+C35+C36)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D29" s="26" t="e">
-        <f>SUM(D30:D36)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="26" t="e">
-        <f>SUM(E30:E36)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F29" s="26" t="e">
-        <f>SUM(F30:F36)</f>
+    <row r="29" spans="1:7" ht="15" customHeight="1">
+      <c r="A29" s="24">
+        <v>20</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="10" t="e">
+        <f>VLOOKUP($B29,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="10" t="e">
+        <f>VLOOKUP($B29,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="10" t="e">
+        <f>VLOOKUP($B29,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="10" t="e">
+        <f>VLOOKUP($B29,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="38" t="e">
+        <f>VLOOKUP($B29,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -15738,7 +17347,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C30" s="10" t="e">
         <f>VLOOKUP($B30,'part 05'!$D:$J, 3, 0)</f>
@@ -15766,7 +17375,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="10" t="e">
         <f>VLOOKUP($B31,'part 05'!$D:$J, 3, 0)</f>
@@ -15794,7 +17403,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="C32" s="10" t="e">
         <f>VLOOKUP($B32,'part 05'!$D:$J, 3, 0)</f>
@@ -15818,39 +17427,33 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1">
-      <c r="A33" s="24">
-        <v>24</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="38" t="e">
-        <f>VLOOKUP($B33,'part 01'!$D:$K, 8, 0)</f>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="26" t="e">
+        <f t="shared" ref="C33:E33" si="2">SUM(C34:C37)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D33" s="26" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="26" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F33" s="26" t="e">
+        <f>SUM(F34:F37)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34" s="24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C34" s="10" t="e">
         <f>VLOOKUP($B34,'part 05'!$D:$J, 3, 0)</f>
@@ -15875,10 +17478,10 @@
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C35" s="10" t="e">
         <f>VLOOKUP($B35,'part 05'!$D:$J, 3, 0)</f>
@@ -15901,12 +17504,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="36" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C36" s="10" t="e">
         <f>VLOOKUP($B36,'part 05'!$D:$J, 3, 0)</f>
@@ -15930,61 +17533,61 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="26" t="e">
-        <f>SUM(C38+C39+C40)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D37" s="26" t="e">
-        <f>SUM(D38:D40)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E37" s="26" t="e">
-        <f>SUM(E38:E40)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F37" s="26" t="e">
-        <f>SUM(F38:F40)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="24">
-        <v>28</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G38" s="38" t="e">
-        <f>VLOOKUP($B38,'part 01'!$D:$K, 8, 0)</f>
+      <c r="A37" s="24">
+        <v>27</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="10" t="e">
+        <f>VLOOKUP($B37,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D37" s="10" t="e">
+        <f>VLOOKUP($B37,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="10" t="e">
+        <f>VLOOKUP($B37,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F37" s="10" t="e">
+        <f>VLOOKUP($B37,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="38" t="e">
+        <f>VLOOKUP($B37,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="36" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="22" t="e">
+        <f>SUM(C39:C41)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D38" s="22" t="e">
+        <f>SUM(D39:D41)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="22" t="e">
+        <f>SUM(E39:E41)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F38" s="22" t="e">
+        <f>SUM(F39:F41)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C39" s="10" t="e">
         <f>VLOOKUP($B39,'part 05'!$D:$J, 3, 0)</f>
@@ -16009,10 +17612,10 @@
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C40" s="10" t="e">
         <f>VLOOKUP($B40,'part 05'!$D:$J, 3, 0)</f>
@@ -16035,62 +17638,62 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="36" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="22" t="e">
-        <f>SUM(C42+C43+C44)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D41" s="22" t="e">
-        <f>SUM(D42:D44)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E41" s="22" t="e">
-        <f>SUM(E42:E44)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F41" s="22" t="e">
-        <f>SUM(F42:F44)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
-      <c r="A42" s="24">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
+      <c r="A41" s="24">
+        <v>30</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="10" t="e">
+        <f>VLOOKUP($B41,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D41" s="10" t="e">
+        <f>VLOOKUP($B41,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="10" t="e">
+        <f>VLOOKUP($B41,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F41" s="10" t="e">
+        <f>VLOOKUP($B41,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G41" s="38" t="e">
+        <f>VLOOKUP($B41,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="22" t="e">
+        <f>SUM(C43)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D42" s="22" t="e">
+        <f>SUM(D43)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="22" t="e">
+        <f>SUM(E43)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F42" s="22" t="e">
+        <f>SUM(F43)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15">
+      <c r="A43" s="24">
         <v>31</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G42" s="38" t="e">
-        <f>VLOOKUP($B42,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
-      <c r="A43" s="24">
-        <v>32</v>
-      </c>
       <c r="B43" s="25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C43" s="10" t="e">
         <f>VLOOKUP($B43,'part 05'!$D:$J, 3, 0)</f>
@@ -16114,111 +17717,111 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="A44" s="24">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="22" t="e">
+        <f>SUM(C45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D44" s="22" t="e">
+        <f>SUM(D45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="22" t="e">
+        <f>SUM(E45)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F44" s="22" t="e">
+        <f>SUM(F45)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1">
+      <c r="A45" s="24">
+        <v>32</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="10" t="e">
+        <f>VLOOKUP($B45,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D45" s="10" t="e">
+        <f>VLOOKUP($B45,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="10" t="e">
+        <f>VLOOKUP($B45,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F45" s="10" t="e">
+        <f>VLOOKUP($B45,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G45" s="38" t="e">
+        <f>VLOOKUP($B45,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="22" t="e">
+        <f>SUM(C47:C49)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D46" s="22" t="e">
+        <f t="shared" ref="D46:F46" si="3">SUM(D47:D49)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E46" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F46" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" customHeight="1">
+      <c r="A47" s="24">
         <v>33</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G44" s="38" t="e">
-        <f>VLOOKUP($B44,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="22" t="e">
-        <f>SUM(C46)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D45" s="22" t="e">
-        <f>SUM(D46)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="22" t="e">
-        <f>SUM(E46)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F45" s="22" t="e">
-        <f>SUM(F46)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1">
-      <c r="A46" s="24">
-        <v>34</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G46" s="38" t="e">
-        <f>VLOOKUP($B46,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="22" t="e">
-        <f>SUM(C48)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D47" s="22" t="e">
-        <f>SUM(D48)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="22" t="e">
-        <f>SUM(E48)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F47" s="22" t="e">
-        <f>SUM(F48)</f>
+      <c r="B47" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="10" t="e">
+        <f>VLOOKUP($B47,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D47" s="10" t="e">
+        <f>VLOOKUP($B47,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E47" s="10" t="e">
+        <f>VLOOKUP($B47,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F47" s="10" t="e">
+        <f>VLOOKUP($B47,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G47" s="38" t="e">
+        <f>VLOOKUP($B47,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1">
       <c r="A48" s="24">
+        <v>34</v>
+      </c>
+      <c r="B48" s="25" t="s">
         <v>35</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>13</v>
       </c>
       <c r="C48" s="10" t="e">
         <f>VLOOKUP($B48,'part 05'!$D:$J, 3, 0)</f>
@@ -16241,75 +17844,81 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="22" t="e">
-        <f>SUM(C50)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D49" s="22" t="e">
-        <f>SUM(D50)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E49" s="22" t="e">
-        <f>SUM(E50)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F49" s="22" t="e">
-        <f>SUM(F50)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1">
-      <c r="A50" s="24">
+    <row r="49" spans="1:7" ht="18" customHeight="1">
+      <c r="A49" s="24">
+        <v>35</v>
+      </c>
+      <c r="B49" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="C49" s="10" t="e">
+        <f>VLOOKUP($B49,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D49" s="10" t="e">
+        <f>VLOOKUP($B49,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E49" s="10" t="e">
+        <f>VLOOKUP($B49,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F49" s="10" t="e">
+        <f>VLOOKUP($B49,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G49" s="38" t="e">
+        <f>VLOOKUP($B49,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="26" t="e">
+        <f>SUM(C51:C55)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D50" s="26" t="e">
+        <f>SUM(D51:D55)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="26" t="e">
+        <f>SUM(E51:E55)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F50" s="26" t="e">
+        <f>SUM(F51:F55)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1">
+      <c r="A51" s="24">
         <v>36</v>
       </c>
-      <c r="C50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G50" s="38" t="e">
-        <f>VLOOKUP($B50,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="26" t="e">
-        <f>SUM(C52+C53+C54+C55+C56+C57+C58+C59+C60)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D51" s="26" t="e">
-        <f>SUM(D52:D60)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E51" s="26" t="e">
-        <f>SUM(E52:E60)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F51" s="26" t="e">
-        <f>SUM(F52:F60)</f>
+      <c r="B51" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="10" t="e">
+        <f>VLOOKUP($B51,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D51" s="10" t="e">
+        <f>VLOOKUP($B51,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E51" s="10" t="e">
+        <f>VLOOKUP($B51,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F51" s="10" t="e">
+        <f>VLOOKUP($B51,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G51" s="38" t="e">
+        <f>VLOOKUP($B51,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16318,7 +17927,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C52" s="10" t="e">
         <f>VLOOKUP($B52,'part 05'!$D:$J, 3, 0)</f>
@@ -16341,12 +17950,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1">
+    <row r="53" spans="1:7" ht="31.5" customHeight="1">
       <c r="A53" s="24">
         <v>38</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="C53" s="10" t="e">
         <f>VLOOKUP($B53,'part 05'!$D:$J, 3, 0)</f>
@@ -16369,12 +17978,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1">
+    <row r="54" spans="1:7" ht="15" customHeight="1">
       <c r="A54" s="24">
         <v>39</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C54" s="10" t="e">
         <f>VLOOKUP($B54,'part 05'!$D:$J, 3, 0)</f>
@@ -16402,7 +18011,7 @@
         <v>40</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C55" s="10" t="e">
         <f>VLOOKUP($B55,'part 05'!$D:$J, 3, 0)</f>
@@ -16426,39 +18035,33 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="A56" s="24">
-        <v>41</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G56" s="38" t="e">
-        <f>VLOOKUP($B56,'part 01'!$D:$K, 8, 0)</f>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="26" t="e">
+        <f>SUM(C57:C60)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D56" s="26" t="e">
+        <f>SUM(D57:D60)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E56" s="26" t="e">
+        <f>SUM(E57:E60)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F56" s="26" t="e">
+        <f>SUM(F57:F60)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1">
       <c r="A57" s="24">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="C57" s="10" t="e">
         <f>VLOOKUP($B57,'part 05'!$D:$J, 3, 0)</f>
@@ -16481,12 +18084,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1">
+    <row r="58" spans="1:7" ht="15">
       <c r="A58" s="24">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="C58" s="10" t="e">
         <f>VLOOKUP($B58,'part 05'!$D:$J, 3, 0)</f>
@@ -16509,12 +18112,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1">
+    <row r="59" spans="1:7" ht="15">
       <c r="A59" s="24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C59" s="10" t="e">
         <f>VLOOKUP($B59,'part 05'!$D:$J, 3, 0)</f>
@@ -16537,12 +18140,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1">
+    <row r="60" spans="1:7" ht="15">
       <c r="A60" s="24">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C60" s="10" t="e">
         <f>VLOOKUP($B60,'part 05'!$D:$J, 3, 0)</f>
@@ -16565,34 +18168,34 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1">
+    <row r="61" spans="1:7" ht="18" customHeight="1">
       <c r="A61" s="22"/>
       <c r="B61" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C61" s="26" t="e">
-        <f>SUM(C62+C63+C64)</f>
+        <f>SUM(C62:C63)</f>
         <v>#N/A</v>
       </c>
       <c r="D61" s="26" t="e">
-        <f>SUM(D62:D64)</f>
+        <f>SUM(D62:D63)</f>
         <v>#N/A</v>
       </c>
       <c r="E61" s="26" t="e">
-        <f>SUM(E62:E64)</f>
+        <f>SUM(E62:E63)</f>
         <v>#N/A</v>
       </c>
       <c r="F61" s="26" t="e">
-        <f>SUM(F62:F64)</f>
+        <f>SUM(F62:F63)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1">
       <c r="A62" s="24">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="C62" s="10" t="e">
         <f>VLOOKUP($B62,'part 05'!$D:$J, 3, 0)</f>
@@ -16615,12 +18218,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="36" customHeight="1">
+    <row r="63" spans="1:7" ht="31.5" customHeight="1">
       <c r="A63" s="24">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C63" s="10" t="e">
         <f>VLOOKUP($B63,'part 05'!$D:$J, 3, 0)</f>
@@ -16644,89 +18247,83 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="30" customHeight="1">
-      <c r="A64" s="24">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="26" t="e">
+        <f>SUM(C65)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D64" s="26" t="e">
+        <f>SUM(D65)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E64" s="26" t="e">
+        <f>SUM(E65)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F64" s="26" t="e">
+        <f>SUM(F65)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" customHeight="1">
+      <c r="A65" s="24">
+        <v>47</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="10" t="e">
+        <f>VLOOKUP($B65,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D65" s="10" t="e">
+        <f>VLOOKUP($B65,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="10" t="e">
+        <f>VLOOKUP($B65,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F65" s="10" t="e">
+        <f>VLOOKUP($B65,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G65" s="38" t="e">
+        <f>VLOOKUP($B65,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" customHeight="1">
+      <c r="A66" s="22"/>
+      <c r="B66" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="22" t="e">
+        <f>SUM(C67:C68)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D66" s="22" t="e">
+        <f>SUM(D67:D68)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E66" s="22" t="e">
+        <f>SUM(E67:E68)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F66" s="22" t="e">
+        <f>SUM(F67:F68)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15">
+      <c r="A67" s="24">
         <v>48</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G64" s="38" t="e">
-        <f>VLOOKUP($B64,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="18" customHeight="1">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="26" t="e">
-        <f>SUM(C66+C67)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D65" s="26" t="e">
-        <f>SUM(D66:D67)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="26" t="e">
-        <f>SUM(E66:E67)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F65" s="26" t="e">
-        <f>SUM(F66:F67)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" s="24">
-        <v>49</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G66" s="38" t="e">
-        <f>VLOOKUP($B66,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="18" customHeight="1">
-      <c r="A67" s="24">
-        <v>50</v>
-      </c>
       <c r="B67" s="25" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C67" s="10" t="e">
         <f>VLOOKUP($B67,'part 05'!$D:$J, 3, 0)</f>
@@ -16749,84 +18346,90 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" customHeight="1">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="26" t="e">
-        <f>SUM(C69)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D68" s="26" t="e">
-        <f>SUM(D69)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="26" t="e">
-        <f>SUM(E69)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F68" s="26" t="e">
-        <f>SUM(F69)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1">
-      <c r="A69" s="24">
+    <row r="68" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A68" s="24">
+        <v>49</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="10" t="e">
+        <f>VLOOKUP($B68,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D68" s="10" t="e">
+        <f>VLOOKUP($B68,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E68" s="10" t="e">
+        <f>VLOOKUP($B68,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="10" t="e">
+        <f>VLOOKUP($B68,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G68" s="38" t="e">
+        <f>VLOOKUP($B68,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="22" t="e">
+        <f>SUM(C70:C74)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D69" s="22" t="e">
+        <f>SUM(D70:D74)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E69" s="22" t="e">
+        <f>SUM(E70:E74)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F69" s="22" t="e">
+        <f>SUM(F70:F74)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" customHeight="1">
+      <c r="A70" s="24">
+        <v>50</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="10" t="e">
+        <f>VLOOKUP($B70,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D70" s="10" t="e">
+        <f>VLOOKUP($B70,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="10" t="e">
+        <f>VLOOKUP($B70,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F70" s="10" t="e">
+        <f>VLOOKUP($B70,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G70" s="38" t="e">
+        <f>VLOOKUP($B70,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1">
+      <c r="A71" s="24">
         <v>51</v>
       </c>
-      <c r="B69" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="10" t="e">
-        <f>VLOOKUP($B69,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D69" s="10" t="e">
-        <f>VLOOKUP($B69,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="10" t="e">
-        <f>VLOOKUP($B69,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F69" s="10" t="e">
-        <f>VLOOKUP($B69,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G69" s="38" t="e">
-        <f>VLOOKUP($B69,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="22" t="e">
-        <f>SUM(C71:C72)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D70" s="22" t="e">
-        <f>SUM(D71:D72)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="22" t="e">
-        <f>SUM(E71:E72)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F70" s="22" t="e">
-        <f>SUM(F71:F72)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="18" customHeight="1">
-      <c r="A71" s="24">
-        <v>52</v>
-      </c>
       <c r="B71" s="25" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C71" s="10" t="e">
         <f>VLOOKUP($B71,'part 05'!$D:$J, 3, 0)</f>
@@ -16851,10 +18454,10 @@
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1">
       <c r="A72" s="24">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C72" s="10" t="e">
         <f>VLOOKUP($B72,'part 05'!$D:$J, 3, 0)</f>
@@ -16877,25 +18480,31 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="22" t="e">
-        <f>SUM(C74:C78)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D73" s="22" t="e">
-        <f>SUM(D74:D78)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="22" t="e">
-        <f>SUM(E74:E78)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F73" s="22" t="e">
-        <f>SUM(F74:F78)</f>
+    <row r="73" spans="1:7" ht="18" customHeight="1">
+      <c r="A73" s="24">
+        <v>53</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="10" t="e">
+        <f>VLOOKUP($B73,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D73" s="10" t="e">
+        <f>VLOOKUP($B73,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="10" t="e">
+        <f>VLOOKUP($B73,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F73" s="10" t="e">
+        <f>VLOOKUP($B73,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G73" s="38" t="e">
+        <f>VLOOKUP($B73,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16904,7 +18513,7 @@
         <v>54</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C74" s="10" t="e">
         <f>VLOOKUP($B74,'part 05'!$D:$J, 3, 0)</f>
@@ -16928,39 +18537,33 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1">
-      <c r="A75" s="24">
-        <v>55</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="10" t="e">
-        <f>VLOOKUP($B75,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D75" s="10" t="e">
-        <f>VLOOKUP($B75,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="10" t="e">
-        <f>VLOOKUP($B75,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F75" s="10" t="e">
-        <f>VLOOKUP($B75,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G75" s="38" t="e">
-        <f>VLOOKUP($B75,'part 01'!$D:$K, 8, 0)</f>
+      <c r="A75" s="22"/>
+      <c r="B75" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="22" t="e">
+        <f>SUM(C76:C78)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D75" s="22" t="e">
+        <f>SUM(D76:D78)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="22" t="e">
+        <f>SUM(E76:E78)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F75" s="22" t="e">
+        <f>SUM(F76:F78)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1">
       <c r="A76" s="24">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C76" s="10" t="e">
         <f>VLOOKUP($B76,'part 05'!$D:$J, 3, 0)</f>
@@ -16983,12 +18586,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18" customHeight="1">
+    <row r="77" spans="1:7" ht="15" customHeight="1">
       <c r="A77" s="24">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C77" s="10" t="e">
         <f>VLOOKUP($B77,'part 05'!$D:$J, 3, 0)</f>
@@ -17011,12 +18614,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1">
+    <row r="78" spans="1:7" ht="15">
       <c r="A78" s="24">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C78" s="10" t="e">
         <f>VLOOKUP($B78,'part 05'!$D:$J, 3, 0)</f>
@@ -17042,31 +18645,31 @@
     <row r="79" spans="1:7" ht="15" customHeight="1">
       <c r="A79" s="22"/>
       <c r="B79" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C79" s="22" t="e">
-        <f>SUM(C80:C82)</f>
+        <f>SUM(C80:C120)</f>
         <v>#N/A</v>
       </c>
       <c r="D79" s="22" t="e">
-        <f>SUM(D80:D82)</f>
+        <f>SUM(D80:D120)</f>
         <v>#N/A</v>
       </c>
       <c r="E79" s="22" t="e">
-        <f>SUM(E80:E82)</f>
+        <f>SUM(E80:E120)</f>
         <v>#N/A</v>
       </c>
       <c r="F79" s="22" t="e">
-        <f>SUM(F80:F82)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1">
+        <f>SUM(F80:F120)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15">
       <c r="A80" s="24">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="C80" s="10" t="e">
         <f>VLOOKUP($B80,'part 05'!$D:$J, 3, 0)</f>
@@ -17089,12 +18692,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1">
+    <row r="81" spans="1:7" ht="15">
       <c r="A81" s="24">
-        <v>60</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>31</v>
+        <v>59</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="C81" s="10" t="e">
         <f>VLOOKUP($B81,'part 05'!$D:$J, 3, 0)</f>
@@ -17117,12 +18720,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="36" customHeight="1">
+    <row r="82" spans="1:7" ht="30">
       <c r="A82" s="24">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C82" s="10" t="e">
         <f>VLOOKUP($B82,'part 05'!$D:$J, 3, 0)</f>
@@ -17145,34 +18748,40 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" s="22" t="e">
-        <f>SUM(C84:C133)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D83" s="22" t="e">
-        <f t="shared" ref="D83:F83" si="0">SUM(D84:D133)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="22" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F83" s="22" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1">
+    <row r="83" spans="1:7" ht="15">
+      <c r="A83" s="24">
+        <v>61</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="10" t="e">
+        <f>VLOOKUP($B83,'part 05'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D83" s="10" t="e">
+        <f>VLOOKUP($B83,'part 05'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E83" s="10" t="e">
+        <f>VLOOKUP($B83,'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F83" s="10" t="e">
+        <f>VLOOKUP($B83,'part 05'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G83" s="38" t="e">
+        <f>VLOOKUP($B83,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15">
       <c r="A84" s="24">
         <v>62</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C84" s="10" t="e">
         <f>VLOOKUP($B84,'part 05'!$D:$J, 3, 0)</f>
@@ -17195,12 +18804,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="45" customHeight="1">
+    <row r="85" spans="1:7" ht="15">
       <c r="A85" s="24">
         <v>63</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C85" s="10" t="e">
         <f>VLOOKUP($B85,'part 05'!$D:$J, 3, 0)</f>
@@ -17223,12 +18832,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1">
+    <row r="86" spans="1:7" ht="30">
       <c r="A86" s="24">
         <v>64</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="C86" s="10" t="e">
         <f>VLOOKUP($B86,'part 05'!$D:$J, 3, 0)</f>
@@ -17251,12 +18860,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1">
+    <row r="87" spans="1:7" ht="15">
       <c r="A87" s="24">
         <v>65</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C87" s="10" t="e">
         <f>VLOOKUP($B87,'part 05'!$D:$J, 3, 0)</f>
@@ -17279,12 +18888,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" customHeight="1">
+    <row r="88" spans="1:7" ht="15">
       <c r="A88" s="24">
         <v>66</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C88" s="10" t="e">
         <f>VLOOKUP($B88,'part 05'!$D:$J, 3, 0)</f>
@@ -17307,12 +18916,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1">
+    <row r="89" spans="1:7" ht="15">
       <c r="A89" s="24">
         <v>67</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C89" s="10" t="e">
         <f>VLOOKUP($B89,'part 05'!$D:$J, 3, 0)</f>
@@ -17335,12 +18944,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" customHeight="1">
+    <row r="90" spans="1:7" ht="15">
       <c r="A90" s="24">
         <v>68</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C90" s="10" t="e">
         <f>VLOOKUP($B90,'part 05'!$D:$J, 3, 0)</f>
@@ -17363,12 +18972,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1">
+    <row r="91" spans="1:7" ht="15">
       <c r="A91" s="24">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C91" s="10" t="e">
         <f>VLOOKUP($B91,'part 05'!$D:$J, 3, 0)</f>
@@ -17391,12 +19000,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" customHeight="1">
+    <row r="92" spans="1:7" ht="15">
       <c r="A92" s="24">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C92" s="10" t="e">
         <f>VLOOKUP($B92,'part 05'!$D:$J, 3, 0)</f>
@@ -17419,12 +19028,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30" customHeight="1">
+    <row r="93" spans="1:7" ht="30">
       <c r="A93" s="24">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C93" s="10" t="e">
         <f>VLOOKUP($B93,'part 05'!$D:$J, 3, 0)</f>
@@ -17447,12 +19056,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1">
+    <row r="94" spans="1:7" ht="30">
       <c r="A94" s="24">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C94" s="10" t="e">
         <f>VLOOKUP($B94,'part 05'!$D:$J, 3, 0)</f>
@@ -17475,12 +19084,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1">
+    <row r="95" spans="1:7" ht="30">
       <c r="A95" s="24">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C95" s="10" t="e">
         <f>VLOOKUP($B95,'part 05'!$D:$J, 3, 0)</f>
@@ -17503,12 +19112,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1">
+    <row r="96" spans="1:7" ht="15">
       <c r="A96" s="24">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C96" s="10" t="e">
         <f>VLOOKUP($B96,'part 05'!$D:$J, 3, 0)</f>
@@ -17531,12 +19140,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1">
+    <row r="97" spans="1:7" ht="30">
       <c r="A97" s="24">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C97" s="10" t="e">
         <f>VLOOKUP($B97,'part 05'!$D:$J, 3, 0)</f>
@@ -17559,12 +19168,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1">
+    <row r="98" spans="1:7" ht="30">
       <c r="A98" s="24">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="C98" s="10" t="e">
         <f>VLOOKUP($B98,'part 05'!$D:$J, 3, 0)</f>
@@ -17587,12 +19196,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" customHeight="1">
+    <row r="99" spans="1:7" ht="30">
       <c r="A99" s="24">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C99" s="10" t="e">
         <f>VLOOKUP($B99,'part 05'!$D:$J, 3, 0)</f>
@@ -17615,12 +19224,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1">
+    <row r="100" spans="1:7" ht="15">
       <c r="A100" s="24">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C100" s="10" t="e">
         <f>VLOOKUP($B100,'part 05'!$D:$J, 3, 0)</f>
@@ -17643,12 +19252,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15">
+    <row r="101" spans="1:7" ht="30">
       <c r="A101" s="24">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C101" s="10" t="e">
         <f>VLOOKUP($B101,'part 05'!$D:$J, 3, 0)</f>
@@ -17673,10 +19282,10 @@
     </row>
     <row r="102" spans="1:7" ht="15">
       <c r="A102" s="24">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C102" s="10" t="e">
         <f>VLOOKUP($B102,'part 05'!$D:$J, 3, 0)</f>
@@ -17701,10 +19310,10 @@
     </row>
     <row r="103" spans="1:7" ht="30">
       <c r="A103" s="24">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="C103" s="10" t="e">
         <f>VLOOKUP($B103,'part 05'!$D:$J, 3, 0)</f>
@@ -17727,12 +19336,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30">
+    <row r="104" spans="1:7" ht="15">
       <c r="A104" s="24">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="C104" s="10" t="e">
         <f>VLOOKUP($B104,'part 05'!$D:$J, 3, 0)</f>
@@ -17755,12 +19364,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30">
+    <row r="105" spans="1:7" ht="15">
       <c r="A105" s="24">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="C105" s="10" t="e">
         <f>VLOOKUP($B105,'part 05'!$D:$J, 3, 0)</f>
@@ -17783,12 +19392,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="30">
+    <row r="106" spans="1:7" ht="15">
       <c r="A106" s="24">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="C106" s="10" t="e">
         <f>VLOOKUP($B106,'part 05'!$D:$J, 3, 0)</f>
@@ -17811,12 +19420,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="30">
+    <row r="107" spans="1:7" ht="15">
       <c r="A107" s="24">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C107" s="10" t="e">
         <f>VLOOKUP($B107,'part 05'!$D:$J, 3, 0)</f>
@@ -17839,12 +19448,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="30">
+    <row r="108" spans="1:7" ht="15">
       <c r="A108" s="24">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="C108" s="10" t="e">
         <f>VLOOKUP($B108,'part 05'!$D:$J, 3, 0)</f>
@@ -17867,12 +19476,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="30">
+    <row r="109" spans="1:7" ht="45">
       <c r="A109" s="24">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="C109" s="10" t="e">
         <f>VLOOKUP($B109,'part 05'!$D:$J, 3, 0)</f>
@@ -17895,12 +19504,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="30">
+    <row r="110" spans="1:7" ht="15">
       <c r="A110" s="24">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C110" s="10" t="e">
         <f>VLOOKUP($B110,'part 05'!$D:$J, 3, 0)</f>
@@ -17925,10 +19534,10 @@
     </row>
     <row r="111" spans="1:7" ht="15">
       <c r="A111" s="24">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="C111" s="10" t="e">
         <f>VLOOKUP($B111,'part 05'!$D:$J, 3, 0)</f>
@@ -17951,12 +19560,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15">
+    <row r="112" spans="1:7" ht="30">
       <c r="A112" s="24">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C112" s="10" t="e">
         <f>VLOOKUP($B112,'part 05'!$D:$J, 3, 0)</f>
@@ -17979,12 +19588,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="30">
+    <row r="113" spans="1:7" ht="15">
       <c r="A113" s="24">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="C113" s="10" t="e">
         <f>VLOOKUP($B113,'part 05'!$D:$J, 3, 0)</f>
@@ -18009,10 +19618,10 @@
     </row>
     <row r="114" spans="1:7" ht="15">
       <c r="A114" s="24">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C114" s="10" t="e">
         <f>VLOOKUP($B114,'part 05'!$D:$J, 3, 0)</f>
@@ -18035,12 +19644,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="30">
+    <row r="115" spans="1:7" ht="15">
       <c r="A115" s="24">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C115" s="10" t="e">
         <f>VLOOKUP($B115,'part 05'!$D:$J, 3, 0)</f>
@@ -18065,10 +19674,10 @@
     </row>
     <row r="116" spans="1:7" ht="15">
       <c r="A116" s="24">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C116" s="10" t="e">
         <f>VLOOKUP($B116,'part 05'!$D:$J, 3, 0)</f>
@@ -18091,12 +19700,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15">
+    <row r="117" spans="1:7" ht="30">
       <c r="A117" s="24">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="C117" s="10" t="e">
         <f>VLOOKUP($B117,'part 05'!$D:$J, 3, 0)</f>
@@ -18121,10 +19730,10 @@
     </row>
     <row r="118" spans="1:7" ht="15">
       <c r="A118" s="24">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="C118" s="10" t="e">
         <f>VLOOKUP($B118,'part 05'!$D:$J, 3, 0)</f>
@@ -18147,12 +19756,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15">
+    <row r="119" spans="1:7" ht="30">
       <c r="A119" s="24">
-        <v>101</v>
-      </c>
-      <c r="B119" s="25" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="C119" s="10" t="e">
         <f>VLOOKUP($B119,'part 05'!$D:$J, 3, 0)</f>
@@ -18177,10 +19786,10 @@
     </row>
     <row r="120" spans="1:7" ht="15">
       <c r="A120" s="24">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="C120" s="10" t="e">
         <f>VLOOKUP($B120,'part 05'!$D:$J, 3, 0)</f>
@@ -18203,378 +19812,23 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15">
-      <c r="A121" s="24">
-        <v>103</v>
-      </c>
-      <c r="B121" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="10" t="e">
-        <f>VLOOKUP($B121,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D121" s="10" t="e">
-        <f>VLOOKUP($B121,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E121" s="10" t="e">
-        <f>VLOOKUP($B121,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F121" s="10" t="e">
-        <f>VLOOKUP($B121,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G121" s="38" t="e">
-        <f>VLOOKUP($B121,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="45">
-      <c r="A122" s="24">
-        <v>104</v>
-      </c>
-      <c r="B122" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C122" s="10" t="e">
-        <f>VLOOKUP($B122,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D122" s="10" t="e">
-        <f>VLOOKUP($B122,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E122" s="10" t="e">
-        <f>VLOOKUP($B122,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F122" s="10" t="e">
-        <f>VLOOKUP($B122,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G122" s="38" t="e">
-        <f>VLOOKUP($B122,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15">
-      <c r="A123" s="24">
-        <v>105</v>
-      </c>
-      <c r="B123" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C123" s="10" t="e">
-        <f>VLOOKUP($B123,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D123" s="10" t="e">
-        <f>VLOOKUP($B123,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E123" s="10" t="e">
-        <f>VLOOKUP($B123,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F123" s="10" t="e">
-        <f>VLOOKUP($B123,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G123" s="38" t="e">
-        <f>VLOOKUP($B123,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15">
-      <c r="A124" s="24">
-        <v>106</v>
-      </c>
-      <c r="B124" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" s="10" t="e">
-        <f>VLOOKUP($B124,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D124" s="10" t="e">
-        <f>VLOOKUP($B124,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E124" s="10" t="e">
-        <f>VLOOKUP($B124,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F124" s="10" t="e">
-        <f>VLOOKUP($B124,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G124" s="38" t="e">
-        <f>VLOOKUP($B124,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="30">
-      <c r="A125" s="24">
-        <v>107</v>
-      </c>
-      <c r="B125" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C125" s="10" t="e">
-        <f>VLOOKUP($B125,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D125" s="10" t="e">
-        <f>VLOOKUP($B125,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E125" s="10" t="e">
-        <f>VLOOKUP($B125,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F125" s="10" t="e">
-        <f>VLOOKUP($B125,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G125" s="38" t="e">
-        <f>VLOOKUP($B125,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15">
-      <c r="A126" s="24">
-        <v>108</v>
-      </c>
-      <c r="B126" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C126" s="10" t="e">
-        <f>VLOOKUP($B126,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D126" s="10" t="e">
-        <f>VLOOKUP($B126,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E126" s="10" t="e">
-        <f>VLOOKUP($B126,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F126" s="10" t="e">
-        <f>VLOOKUP($B126,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G126" s="38" t="e">
-        <f>VLOOKUP($B126,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="30">
-      <c r="A127" s="24">
-        <v>109</v>
-      </c>
-      <c r="B127" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C127" s="10" t="e">
-        <f>VLOOKUP($B127,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D127" s="10" t="e">
-        <f>VLOOKUP($B127,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E127" s="10" t="e">
-        <f>VLOOKUP($B127,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F127" s="10" t="e">
-        <f>VLOOKUP($B127,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G127" s="38" t="e">
-        <f>VLOOKUP($B127,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15">
-      <c r="A128" s="24">
-        <v>110</v>
-      </c>
-      <c r="B128" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C128" s="10" t="e">
-        <f>VLOOKUP($B128,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D128" s="10" t="e">
-        <f>VLOOKUP($B128,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E128" s="10" t="e">
-        <f>VLOOKUP($B128,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F128" s="10" t="e">
-        <f>VLOOKUP($B128,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G128" s="38" t="e">
-        <f>VLOOKUP($B128,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15">
-      <c r="A129" s="24">
-        <v>112</v>
-      </c>
-      <c r="B129" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C129" s="10" t="e">
-        <f>VLOOKUP($B129,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D129" s="10" t="e">
-        <f>VLOOKUP($B129,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E129" s="10" t="e">
-        <f>VLOOKUP($B129,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F129" s="10" t="e">
-        <f>VLOOKUP($B129,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G129" s="38" t="e">
-        <f>VLOOKUP($B129,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15">
-      <c r="A130" s="24">
-        <v>113</v>
-      </c>
-      <c r="B130" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="10" t="e">
-        <f>VLOOKUP($B130,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D130" s="10" t="e">
-        <f>VLOOKUP($B130,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E130" s="10" t="e">
-        <f>VLOOKUP($B130,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F130" s="10" t="e">
-        <f>VLOOKUP($B130,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G130" s="38" t="e">
-        <f>VLOOKUP($B130,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="30">
-      <c r="A131" s="24">
-        <v>114</v>
-      </c>
-      <c r="B131" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C131" s="10" t="e">
-        <f>VLOOKUP($B131,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D131" s="10" t="e">
-        <f>VLOOKUP($B131,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E131" s="10" t="e">
-        <f>VLOOKUP($B131,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F131" s="10" t="e">
-        <f>VLOOKUP($B131,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G131" s="38" t="e">
-        <f>VLOOKUP($B131,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15">
-      <c r="A132" s="24">
-        <v>115</v>
-      </c>
-      <c r="B132" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G132" s="38" t="e">
-        <f>VLOOKUP($B132,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15">
-      <c r="A133" s="24">
-        <v>116</v>
-      </c>
-      <c r="B133" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 05'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 05'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 05'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G133" s="38" t="e">
-        <f>VLOOKUP($B133,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A2:G2"/>
+  <conditionalFormatting sqref="B81">
+    <cfRule type="duplicateValues" dxfId="201" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119">
+    <cfRule type="duplicateValues" dxfId="199" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист16"/>
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22189,6 +23443,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист17"/>
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25803,6 +27058,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист18"/>
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29417,6 +30673,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист19"/>
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33049,8 +34306,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.59055554866790805" right="0.59055554866790805" top="0.59055554866790805" bottom="0.59055554866790805" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
@@ -33059,6 +34316,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист20"/>
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -36673,10 +37931,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA132"/>
+  <sheetPr codeName="Лист21"/>
+  <dimension ref="A1:AA136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB49" sqref="AB49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="12.75"/>
@@ -36692,9 +37951,9 @@
     <col min="9" max="9" width="13.140625" style="36" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="41" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="36" customWidth="1"/>
     <col min="13" max="13" width="13.140625" style="41" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="36" customWidth="1"/>
     <col min="15" max="15" width="13.140625" style="36" customWidth="1"/>
     <col min="16" max="16" width="13.140625" style="41" customWidth="1"/>
     <col min="17" max="17" width="12.140625" style="36" customWidth="1"/>
@@ -36712,61 +37971,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="47" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="47" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="47" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="47" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="47" t="s">
+      <c r="S1" s="55"/>
+      <c r="T1" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="47" t="s">
+      <c r="U1" s="55"/>
+      <c r="V1" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="47" t="s">
+      <c r="W1" s="55"/>
+      <c r="X1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="47" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="49"/>
+      <c r="AA1" s="55"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="31" t="s">
         <v>104</v>
       </c>
@@ -36898,17 +38157,14 @@
         <f>VLOOKUP($B3, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B3, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B3, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O3" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B3, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P3" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B3, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B3, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" s="35" t="e">
-        <f>VLOOKUP($B3, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B3, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B3, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O3" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R3" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B3, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -37006,17 +38262,14 @@
         <f>VLOOKUP($B4, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B4, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B4, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O4" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B4, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P4" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B4, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B4, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q4" s="35" t="e">
-        <f>VLOOKUP($B4, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B4, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B4, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O4" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R4" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B4, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -37105,14 +38358,17 @@
       <c r="N5" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O5" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P5" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>169</v>
+      <c r="O5" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B5, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B5, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B5, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" s="35" t="e">
+        <f>VLOOKUP($B5, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B5, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B5, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R5" s="34" t="s">
         <v>169</v>
@@ -37385,14 +38641,17 @@
       <c r="N8" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O8" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P8" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q8" s="34" t="s">
-        <v>169</v>
+      <c r="O8" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B8, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B8, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B8, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="35" t="e">
+        <f>VLOOKUP($B8, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B8, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B8, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R8" s="34" t="s">
         <v>169</v>
@@ -37471,14 +38730,17 @@
       <c r="N9" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O9" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P9" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>169</v>
+      <c r="O9" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B9, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B9, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B9, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" s="35" t="e">
+        <f>VLOOKUP($B9, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B9, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B9, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R9" s="34" t="s">
         <v>169</v>
@@ -38214,17 +39476,14 @@
         <f>VLOOKUP($B16, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B16, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B16, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B16, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P16" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B16, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B16, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q16" s="35" t="e">
-        <f>VLOOKUP($B16, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B16, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B16, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O16" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R16" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B16, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -38313,14 +39572,17 @@
       <c r="N17" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O17" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P17" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>169</v>
+      <c r="O17" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B17, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B17, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B17, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" s="35" t="e">
+        <f>VLOOKUP($B17, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B17, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B17, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R17" s="34" t="s">
         <v>169</v>
@@ -38408,17 +39670,14 @@
         <f>VLOOKUP($B18, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B18, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B18, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O18" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B18, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B18, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B18, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" s="35" t="e">
-        <f>VLOOKUP($B18, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B18, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B18, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O18" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R18" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B18, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -38948,17 +40207,14 @@
         <f>VLOOKUP($B23, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B23, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B23, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O23" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B23, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B23, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B23, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q23" s="35" t="e">
-        <f>VLOOKUP($B23, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B23, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B23, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O23" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R23" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B23, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -39695,14 +40951,17 @@
       <c r="N30" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O30" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P30" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q30" s="34" t="s">
-        <v>169</v>
+      <c r="O30" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B30, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B30, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B30, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="35" t="e">
+        <f>VLOOKUP($B30, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B30, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B30, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R30" s="34" t="s">
         <v>169</v>
@@ -40330,17 +41589,14 @@
         <f>VLOOKUP($B36, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B36, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B36, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O36" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B36, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P36" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B36, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B36, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q36" s="35" t="e">
-        <f>VLOOKUP($B36, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B36, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B36, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O36" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q36" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R36" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B36, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -40645,14 +41901,17 @@
       <c r="N39" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O39" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P39" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q39" s="34" t="s">
-        <v>169</v>
+      <c r="O39" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B39, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P39" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B39, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B39, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" s="35" t="e">
+        <f>VLOOKUP($B39, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B39, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B39, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R39" s="34" t="s">
         <v>169</v>
@@ -40731,14 +41990,17 @@
       <c r="N40" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O40" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P40" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q40" s="34" t="s">
-        <v>169</v>
+      <c r="O40" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B40, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P40" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B40, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B40, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q40" s="35" t="e">
+        <f>VLOOKUP($B40, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B40, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B40, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R40" s="34" t="s">
         <v>169</v>
@@ -41042,17 +42304,14 @@
         <f>VLOOKUP($B43, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B43, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B43, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O43" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B43, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P43" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B43, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B43, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q43" s="35" t="e">
-        <f>VLOOKUP($B43, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B43, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B43, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O43" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P43" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q43" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R43" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B43, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -41150,17 +42409,14 @@
         <f>VLOOKUP($B44, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B44, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B44, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O44" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B44, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P44" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B44, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B44, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q44" s="35" t="e">
-        <f>VLOOKUP($B44, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B44, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B44, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O44" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P44" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q44" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R44" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B44, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -41573,14 +42829,17 @@
       <c r="N48" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O48" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P48" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q48" s="34" t="s">
-        <v>169</v>
+      <c r="O48" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B48, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P48" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B48, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B48, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q48" s="35" t="e">
+        <f>VLOOKUP($B48, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B48, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B48, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R48" s="34" t="s">
         <v>169</v>
@@ -41659,14 +42918,17 @@
       <c r="N49" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O49" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P49" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q49" s="34" t="s">
-        <v>169</v>
+      <c r="O49" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B49, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P49" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B49, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B49, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q49" s="35" t="e">
+        <f>VLOOKUP($B49, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B49, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B49, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R49" s="34" t="s">
         <v>169</v>
@@ -41970,17 +43232,14 @@
         <f>VLOOKUP($B52, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B52, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B52, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O52" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B52, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P52" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B52, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B52, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q52" s="35" t="e">
-        <f>VLOOKUP($B52, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B52, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B52, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O52" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P52" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q52" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R52" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B52, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -42069,14 +43328,17 @@
       <c r="N53" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O53" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P53" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q53" s="34" t="s">
-        <v>169</v>
+      <c r="O53" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B53, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P53" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B53, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B53, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q53" s="35" t="e">
+        <f>VLOOKUP($B53, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B53, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B53, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R53" s="34" t="s">
         <v>169</v>
@@ -42803,14 +44065,17 @@
       <c r="N60" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O60" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P60" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q60" s="34" t="s">
-        <v>169</v>
+      <c r="O60" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B60, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P60" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B60, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B60, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q60" s="35" t="e">
+        <f>VLOOKUP($B60, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B60, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B60, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R60" s="34" t="s">
         <v>169</v>
@@ -42898,17 +44163,14 @@
         <f>VLOOKUP($B61, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B61, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B61, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O61" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B61, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P61" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B61, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B61, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q61" s="35" t="e">
-        <f>VLOOKUP($B61, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B61, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B61, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O61" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P61" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q61" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R61" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B61, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -43413,17 +44675,14 @@
         <f>VLOOKUP($B66, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B66, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B66, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O66" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B66, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P66" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B66, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B66, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q66" s="35" t="e">
-        <f>VLOOKUP($B66, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B66, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B66, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O66" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P66" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q66" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R66" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B66, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -43574,7 +44833,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="15">
+    <row r="68" spans="1:27" ht="30">
       <c r="A68" s="13">
         <v>66</v>
       </c>
@@ -43845,17 +45104,14 @@
         <f>VLOOKUP($B70, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B70, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B70, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O70" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B70, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P70" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B70, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B70, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q70" s="35" t="e">
-        <f>VLOOKUP($B70, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B70, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B70, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O70" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P70" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q70" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R70" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B70, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -44789,14 +46045,17 @@
       <c r="N79" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O79" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P79" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q79" s="34" t="s">
-        <v>169</v>
+      <c r="O79" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B79, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P79" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B79, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B79, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q79" s="35" t="e">
+        <f>VLOOKUP($B79, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B79, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B79, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R79" s="34" t="s">
         <v>169</v>
@@ -44989,17 +46248,14 @@
         <f>VLOOKUP($B81, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B81, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B81, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O81" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B81, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P81" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B81, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B81, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q81" s="35" t="e">
-        <f>VLOOKUP($B81, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B81, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B81, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O81" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P81" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q81" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R81" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B81, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -45094,17 +46350,14 @@
         <f>VLOOKUP($B82, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B82, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B82, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O82" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B82, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P82" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B82, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B82, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q82" s="35" t="e">
-        <f>VLOOKUP($B82, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B82, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B82, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O82" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P82" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q82" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R82" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B82, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -45304,17 +46557,14 @@
         <f>VLOOKUP($B84, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B84, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B84, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O84" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B84, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P84" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B84, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B84, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q84" s="35" t="e">
-        <f>VLOOKUP($B84, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B84, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B84, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O84" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P84" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q84" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R84" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B84, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -45409,17 +46659,14 @@
         <f>VLOOKUP($B85, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B85, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B85, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O85" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B85, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P85" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B85, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B85, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q85" s="35" t="e">
-        <f>VLOOKUP($B85, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B85, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B85, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O85" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P85" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q85" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R85" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B85, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -45619,17 +46866,14 @@
         <f>VLOOKUP($B87, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B87, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B87, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O87" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B87, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P87" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B87, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B87, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q87" s="35" t="e">
-        <f>VLOOKUP($B87, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B87, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B87, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O87" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P87" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q87" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R87" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B87, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -45829,17 +47073,14 @@
         <f>VLOOKUP($B89, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B89, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B89, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O89" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B89, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P89" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B89, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B89, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q89" s="35" t="e">
-        <f>VLOOKUP($B89, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B89, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B89, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O89" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P89" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q89" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R89" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B89, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -46249,17 +47490,14 @@
         <f>VLOOKUP($B93, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B93, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B93, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O93" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B93, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P93" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B93, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B93, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q93" s="35" t="e">
-        <f>VLOOKUP($B93, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B93, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B93, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O93" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P93" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q93" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R93" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B93, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -46459,17 +47697,14 @@
         <f>VLOOKUP($B95, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B95, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B95, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O95" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B95, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P95" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B95, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B95, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q95" s="35" t="e">
-        <f>VLOOKUP($B95, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B95, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B95, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O95" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P95" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q95" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R95" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B95, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -47083,14 +48318,17 @@
       <c r="N101" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O101" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P101" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q101" s="34" t="s">
-        <v>169</v>
+      <c r="O101" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B101, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P101" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B101, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B101, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q101" s="35" t="e">
+        <f>VLOOKUP($B101, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B101, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B101, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R101" s="34" t="s">
         <v>169</v>
@@ -48015,17 +49253,14 @@
         <f>VLOOKUP($B110, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B110, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B110, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O110" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B110, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P110" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B110, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B110, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q110" s="35" t="e">
-        <f>VLOOKUP($B110, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B110, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B110, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O110" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P110" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q110" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R110" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B110, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -48410,14 +49645,17 @@
       <c r="N114" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="O114" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P114" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q114" s="34" t="s">
-        <v>169</v>
+      <c r="O114" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B114, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P114" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B114, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B114, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q114" s="35" t="e">
+        <f>VLOOKUP($B114, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B114, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B114, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="R114" s="34" t="s">
         <v>169</v>
@@ -48502,17 +49740,14 @@
         <f>VLOOKUP($B115, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B115, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B115, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O115" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B115, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P115" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B115, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B115, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q115" s="35" t="e">
-        <f>VLOOKUP($B115, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B115, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B115, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O115" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P115" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q115" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R115" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B115, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -48607,17 +49842,14 @@
         <f>VLOOKUP($B116, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B116, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B116, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O116" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B116, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P116" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B116, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B116, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q116" s="35" t="e">
-        <f>VLOOKUP($B116, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B116, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B116, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O116" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P116" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q116" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R116" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B116, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -48817,17 +50049,14 @@
         <f>VLOOKUP($B118, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B118, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B118, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O118" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B118, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P118" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B118, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B118, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q118" s="35" t="e">
-        <f>VLOOKUP($B118, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B118, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B118, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O118" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P118" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q118" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R118" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B118, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -48922,17 +50151,14 @@
         <f>VLOOKUP($B119, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B119, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B119, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O119" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B119, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P119" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B119, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B119, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q119" s="35" t="e">
-        <f>VLOOKUP($B119, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B119, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B119, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O119" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P119" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q119" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R119" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B119, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -49132,17 +50358,14 @@
         <f>VLOOKUP($B121, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B121, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B121, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O121" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B121, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P121" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B121, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B121, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q121" s="35" t="e">
-        <f>VLOOKUP($B121, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B121, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B121, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O121" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P121" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q121" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R121" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B121, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -49237,17 +50460,14 @@
         <f>VLOOKUP($B122, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B122, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B122, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O122" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B122, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P122" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B122, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B122, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q122" s="35" t="e">
-        <f>VLOOKUP($B122, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B122, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B122, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O122" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P122" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q122" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R122" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B122, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -49638,17 +50858,14 @@
         <f>VLOOKUP($B126, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B126, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B126, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O126" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B126, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P126" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B126, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B126, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q126" s="35" t="e">
-        <f>VLOOKUP($B126, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B126, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B126, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O126" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P126" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q126" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R126" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B126, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -49953,17 +51170,14 @@
         <f>VLOOKUP($B129, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B129, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B129, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O129" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B129, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P129" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B129, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B129, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q129" s="35" t="e">
-        <f>VLOOKUP($B129, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B129, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B129, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O129" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P129" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q129" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R129" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B129, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -50055,17 +51269,14 @@
         <f>VLOOKUP($B130, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B130, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B130, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O130" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B130, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P130" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B130, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B130, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q130" s="35" t="e">
-        <f>VLOOKUP($B130, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B130, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B130, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O130" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P130" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q130" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R130" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B130, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -50157,17 +51368,14 @@
         <f>VLOOKUP($B131, 'part 04'!$D:$J, 4, 0)-VLOOKUP($B131, 'part 04'!$D:$J, 5, 0)-VLOOKUP($B131, 'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O131" s="35" t="e">
-        <f ca="1">IF(VLOOKUP($B131, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P131" s="40" t="e">
-        <f ca="1">IF(VLOOKUP($B131, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B131, 'part 05'!$D:$K, 8, 0),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q131" s="35" t="e">
-        <f>VLOOKUP($B131, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B131, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B131, 'part 05'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
+      <c r="O131" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P131" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q131" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="R131" s="33" t="e">
         <f ca="1">IF(VLOOKUP($B131, 'part 06'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
@@ -50309,9 +51517,278 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="133" spans="1:27" ht="15">
+      <c r="A133" s="15">
+        <v>131</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D133" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E133" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F133" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G133" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H133" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="I133" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="J133" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="K133" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L133" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M133" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="N133" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="O133" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B133, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P133" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B133, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B133, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q133" s="35" t="e">
+        <f>VLOOKUP($B133, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B133, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B133, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R133" s="33"/>
+      <c r="S133" s="33"/>
+      <c r="T133" s="33"/>
+      <c r="U133" s="33"/>
+      <c r="V133" s="33"/>
+      <c r="W133" s="33"/>
+      <c r="X133" s="33"/>
+      <c r="Y133" s="33"/>
+      <c r="Z133" s="33"/>
+      <c r="AA133" s="33"/>
+    </row>
+    <row r="134" spans="1:27" ht="15">
+      <c r="A134" s="15">
+        <v>132</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E134" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F134" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G134" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H134" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="I134" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="J134" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="K134" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L134" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M134" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="N134" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="O134" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B134, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P134" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B134, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B134, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q134" s="35" t="e">
+        <f>VLOOKUP($B134, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B134, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B134, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R134" s="33"/>
+      <c r="S134" s="33"/>
+      <c r="T134" s="33"/>
+      <c r="U134" s="33"/>
+      <c r="V134" s="33"/>
+      <c r="W134" s="33"/>
+      <c r="X134" s="33"/>
+      <c r="Y134" s="33"/>
+      <c r="Z134" s="33"/>
+      <c r="AA134" s="33"/>
+    </row>
+    <row r="135" spans="1:27" ht="15">
+      <c r="A135" s="15">
+        <v>133</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D135" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E135" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F135" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G135" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H135" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="I135" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="J135" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="K135" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L135" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M135" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="N135" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="O135" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B135, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P135" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B135, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B135, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q135" s="35" t="e">
+        <f>VLOOKUP($B135, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B135, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B135, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R135" s="33"/>
+      <c r="S135" s="33"/>
+      <c r="T135" s="33"/>
+      <c r="U135" s="33"/>
+      <c r="V135" s="33"/>
+      <c r="W135" s="33"/>
+      <c r="X135" s="33"/>
+      <c r="Y135" s="33"/>
+      <c r="Z135" s="33"/>
+      <c r="AA135" s="33"/>
+    </row>
+    <row r="136" spans="1:27" ht="15">
+      <c r="A136" s="15">
+        <v>134</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D136" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F136" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G136" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H136" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="I136" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="J136" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="K136" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L136" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M136" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="N136" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="O136" s="35" t="e">
+        <f ca="1">IF(VLOOKUP($B136, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),"должник","сдал")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P136" s="40" t="e">
+        <f ca="1">IF(VLOOKUP($B136, 'part 05'!$D:$K, 8, 0) &lt;&gt; TODAY(),VLOOKUP($B136, 'part 05'!$D:$K, 8, 0),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q136" s="35" t="e">
+        <f>VLOOKUP($B136, 'part 05'!$D:$J, 4, 0)-VLOOKUP($B136, 'part 05'!$D:$J, 5, 0)-VLOOKUP($B136, 'part 05'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R136" s="33"/>
+      <c r="S136" s="33"/>
+      <c r="T136" s="33"/>
+      <c r="U136" s="33"/>
+      <c r="V136" s="33"/>
+      <c r="W136" s="33"/>
+      <c r="X136" s="33"/>
+      <c r="Y136" s="33"/>
+      <c r="Z136" s="33"/>
+      <c r="AA136" s="33"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Q132"/>
+  <autoFilter ref="A2:Q136"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="I1:K1"/>
@@ -50319,69 +51796,983 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E133:E149 H133:H149 K133:K149 N133:N149 Q133:Q149 S133:S149 U133:U149 W133:W149 Y133:Y149 C81:E81 E82:E129 F5:H6 F8:H9 F17:H17 F30:H30 F39:H40 F48:H49 F53:H53 F60:H60 F63:H63 F66:H66 F72:H72 E130:H132 C3:D132 F3:G4 F7:G7 F10:G16 F18:G29 F31:G38 F41:G47 F50:G52 F54:G59 F61:G62 F64:G65 F67:G71 F73:G129 I3:J4 I7:J7 I10:J16 I18:J29 I31:J38 I41:J47 I50:J52 I54:J59 I61:J62 I64:J71 I73:J78 I80:J100 I102:J112 I115:J123 I125:J131 L3:M4 L7:M7 L10:M16 L18:M29 L31:M38 L41:M47 L50:M52 L54:M59 L61:M62 L64:M71 L73:M78 L80:M100 L102:M112 L115:M123 L125:M132 O3:P4 O7:P7 O10:P16 O18:P29 O31:P38 O41:P47 O50:P52 O54:P59 O61:P62 O64:P71 O73:P78 O80:P100 O102:P112 O115:P123 O125:P132 R3:R4 R7 R10:R16 R18:R29 R31:R38 R41:R47 R50:R52 R54:R59 R61:R62 R64:R71 R73:R78 R80:R100 R102:R112 R115:R123 R125:R132 T3:T4 T7 T10:T16 T18:T29 T31:T38 T41:T47 T50:T52 T54:T59 T61:T62 T64:T71 T73:T78 T80:T100 T102:T112 T115:T123 T125:T132 V3:V4 V7 V10:V16 V18:V29 V31:V38 V41:V47 V50:V52 V54:V59 V61:V62 V64:V71 V73:V78 V80:V100 V102:V112 V115:V123 V125:V132 X3:X4 X7 X10:X16 X18:X29 X31:X38 X41:X47 X50:X52 X54:X59 X61:X62 X64:X71 X73:X78 X80:X100 X102:X112 X115:X123 X125:X132 Z3:Z4 Z7 Z10:Z16 Z18:Z29 Z31:Z38 Z41:Z47 Z50:Z52 Z54:Z59 Z61:Z62 Z64:Z71 Z73:Z78 Z80:Z100 Z102:Z112 Z115:Z123 Z125:Z132">
-    <cfRule type="containsText" dxfId="12" priority="57" operator="containsText" text="Должник">
+  <conditionalFormatting sqref="C81:E81 E82:E129 F5:H6 F8:H9 F17:H17 F30:H30 F39:H40 F48:H49 F53:H53 F60:H60 F63:H63 F66:H66 F72:H72 E130:H132 C3:D132 F3:G4 F7:G7 F10:G16 F18:G29 F31:G38 F41:G47 F50:G52 F54:G59 F61:G62 F64:G65 F67:G71 F73:G129 I3:J4 I7:J7 I10:J16 I18:J29 I31:J38 I41:J47 I50:J52 I54:J59 I61:J62 I64:J71 I73:J78 I80:J100 I102:J112 I115:J123 I125:J131 L3:M4 L7:M7 L10:M16 L18:M29 L31:M38 L41:M47 L50:M52 L54:M59 L61:M62 L64:M71 L73:M78 L80:M100 L102:M112 L115:M123 L125:M132 R3:R4 R7 R10:R16 R18:R29 R31:R38 R41:R47 R50:R52 R54:R59 R61:R62 R64:R71 R73:R78 R80:R100 R102:R112 R115:R123 R125:R132 T3:T4 T7 T10:T16 T18:T29 T31:T38 T41:T47 T50:T52 T54:T59 T61:T62 T64:T71 T73:T78 T80:T100 T102:T112 T115:T123 T125:T132 V3:V4 V7 V10:V16 V18:V29 V31:V38 V41:V47 V50:V52 V54:V59 V61:V62 V64:V71 V73:V78 V80:V100 V102:V112 V115:V123 V125:V132 X3:X4 X7 X10:X16 X18:X29 X31:X38 X41:X47 X50:X52 X54:X59 X61:X62 X64:X71 X73:X78 X80:X100 X102:X112 X115:X123 X125:X132 Z3:Z4 Z7 Z10:Z16 Z18:Z29 Z31:Z38 Z41:Z47 Z50:Z52 Z54:Z59 Z61:Z62 Z64:Z71 Z73:Z78 Z80:Z100 Z102:Z112 Z115:Z123 Z125:Z132 L124:N124 R124:AA124 O3:Q3">
+    <cfRule type="containsText" dxfId="197" priority="250" operator="containsText" text="Должник">
       <formula>NOT(ISERROR(SEARCH("Должник",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C260:D1048576 F260:G1048576 I260:J1048576 L260:M1048576 O260:P1048576 R260:R1048576 T260:T1048576 V260:V1048576 X260:X1048576 Z260:Z1048576 E133:E259 H133:H259 K133:K259 N133:N259 Q133:Q259 S133:S259 U133:U259 W133:W259 Y133:Y259 C81:E81 E82:E129 F5:H6 F8:H9 F17:H17 F30:H30 F39:H40 F48:H49 F53:H53 F60:H60 F63:H63 F66:H66 F72:H72 E130:H132 C2:D132 F2:G4 F7:G7 F10:G16 F18:G29 F31:G38 F41:G47 F50:G52 F54:G59 F61:G62 F64:G65 F67:G71 F73:G129 I2:J4 I7:J7 I10:J16 I18:J29 I31:J38 I41:J47 I50:J52 I54:J59 I61:J62 I64:J71 I73:J78 I80:J100 I102:J112 I115:J123 I125:J131 L2:M4 L7:M7 L10:M16 L18:M29 L31:M38 L41:M47 L50:M52 L54:M59 L61:M62 L64:M71 L73:M78 L80:M100 L102:M112 L115:M123 L125:M132 O2:P4 O7:P7 O10:P16 O18:P29 O31:P38 O41:P47 O50:P52 O54:P59 O61:P62 O64:P71 O73:P78 O80:P100 O102:P112 O115:P123 O125:P132 R2:R4 R7 R10:R16 R18:R29 R31:R38 R41:R47 R50:R52 R54:R59 R61:R62 R64:R71 R73:R78 R80:R100 R102:R112 R115:R123 R125:R132 T2:T4 T7 T10:T16 T18:T29 T31:T38 T41:T47 T50:T52 T54:T59 T61:T62 T64:T71 T73:T78 T80:T100 T102:T112 T115:T123 T125:T132 V2:V4 V7 V10:V16 V18:V29 V31:V38 V41:V47 V50:V52 V54:V59 V61:V62 V64:V71 V73:V78 V80:V100 V102:V112 V115:V123 V125:V132 X2:X4 X7 X10:X16 X18:X29 X31:X38 X41:X47 X50:X52 X54:X59 X61:X62 X64:X71 X73:X78 X80:X100 X102:X112 X115:X123 X125:X132 Z2:Z4 Z7 Z10:Z16 Z18:Z29 Z31:Z38 Z41:Z47 Z50:Z52 Z54:Z59 Z61:Z62 Z64:Z71 Z73:Z78 Z80:Z100 Z102:Z112 Z115:Z123 Z125:Z132">
-    <cfRule type="cellIs" dxfId="11" priority="56" operator="equal">
+  <conditionalFormatting sqref="C147:D1048576 F147:G1048576 I147:J1048576 L147:M1048576 O147:P1048576 R147:R1048576 T147:T1048576 V147:V1048576 X147:X1048576 Z147:Z1048576 C81:E81 E82:E129 F5:H6 F8:H9 F17:H17 F30:H30 F39:H40 F48:H49 F53:H53 F60:H60 F63:H63 F66:H66 F72:H72 E130:H132 C2:D132 F2:G4 F7:G7 F10:G16 F18:G29 F31:G38 F41:G47 F50:G52 F54:G59 F61:G62 F64:G65 F67:G71 F73:G129 I2:J4 I7:J7 I10:J16 I18:J29 I31:J38 I41:J47 I50:J52 I54:J59 I61:J62 I64:J71 I73:J78 I80:J100 I102:J112 I115:J123 I125:J131 L2:M4 L7:M7 L10:M16 L18:M29 L31:M38 L41:M47 L50:M52 L54:M59 L61:M62 L64:M71 L73:M78 L80:M100 L102:M112 L115:M123 L125:M132 O2:P2 R2:R4 R7 R10:R16 R18:R29 R31:R38 R41:R47 R50:R52 R54:R59 R61:R62 R64:R71 R73:R78 R80:R100 R102:R112 R115:R123 R125:R132 T2:T4 T7 T10:T16 T18:T29 T31:T38 T41:T47 T50:T52 T54:T59 T61:T62 T64:T71 T73:T78 T80:T100 T102:T112 T115:T123 T125:T132 V2:V4 V7 V10:V16 V18:V29 V31:V38 V41:V47 V50:V52 V54:V59 V61:V62 V64:V71 V73:V78 V80:V100 V102:V112 V115:V123 V125:V132 X2:X4 X7 X10:X16 X18:X29 X31:X38 X41:X47 X50:X52 X54:X59 X61:X62 X64:X71 X73:X78 X80:X100 X102:X112 X115:X123 X125:X132 Z2:Z4 Z7 Z10:Z16 Z18:Z29 Z31:Z38 Z41:Z47 Z50:Z52 Z54:Z59 Z61:Z62 Z64:Z71 Z73:Z78 Z80:Z100 Z102:Z112 Z115:Z123 Z125:Z132 L124:N124 R124:AA124 O3:Q3 E137:E146 H137:H146 K137:K146 N137:N146 Q137:Q146 S137:S146 U137:U146 W137:W146 Y137:Y146">
+    <cfRule type="cellIs" dxfId="196" priority="249" operator="equal">
       <formula>"сдал"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C133:D149 I133:J149 L133:M149 O133:P149 R133:R149 T133:T149 V133:V149 X133:X149 Z133:Z149 F133:G149 E3:E80 K3:K4 K7 K10:K16 K18:K29 K31:K38 K41:K47 K50:K52 K54:K59 K61:K62 K73:K78 K80:K100 K102:K112 K115:K123 N3:N4 N7 N10:N16 N18:N29 N31:N38 N41:N47 N50:N52 N54:N59 N61:N62 N73:N78 N80:N100 N102:N112 N115:N123 Q3:Q4 Q7 Q10:Q16 Q18:Q29 Q31:Q38 Q41:Q47 Q50:Q52 Q54:Q59 Q61:Q62 Q73:Q78 Q80:Q100 Q102:Q112 Q115:Q123 S3:S4 S7 S10:S16 S18:S29 S31:S38 S41:S47 S50:S52 S54:S59 S61:S62 S73:S78 S80:S100 S102:S112 S115:S123 U3:U4 U7 U10:U16 U18:U29 U31:U38 U41:U47 U50:U52 U54:U59 U61:U62 U73:U78 U80:U100 U102:U112 U115:U123 W3:W4 W7 W10:W16 W18:W29 W31:W38 W41:W47 W50:W52 W54:W59 W61:W62 W73:W78 W80:W100 W102:W112 W115:W123 Y3:Y4 Y7 Y10:Y16 Y18:Y29 Y31:Y38 Y41:Y47 Y50:Y52 Y54:Y59 Y61:Y62 Y73:Y78 Y80:Y100 Y102:Y112 Y115:Y123 AA3:AA4 AA7 AA10:AA16 AA18:AA29 AA31:AA38 AA41:AA47 AA50:AA52 AA54:AA59 AA61:AA62 AA73:AA78 AA80:AA100 AA102:AA112 AA115:AA123 K64:K71 N64:N71 Q64:Q71 S64:S71 U64:U71 W64:W71 Y64:Y71 AA64:AA71 K125:K131 N125:N132 Q125:Q132 S125:S132 U125:U132 W125:W132 Y125:Y132 AA125:AA132">
-    <cfRule type="cellIs" dxfId="10" priority="55" operator="notEqual">
+  <conditionalFormatting sqref="E3:E80 K3:K4 K7 K10:K16 K18:K29 K31:K38 K41:K47 K50:K52 K54:K59 K61:K62 K73:K78 K80:K100 K102:K112 K115:K123 N3:N4 N7 N10:N16 N18:N29 N31:N38 N41:N47 N50:N52 N54:N59 N61:N62 N73:N78 N80:N100 N102:N112 N115:N123 S3:S4 S7 S10:S16 S18:S29 S31:S38 S41:S47 S50:S52 S54:S59 S61:S62 S73:S78 S80:S100 S102:S112 S115:S123 U3:U4 U7 U10:U16 U18:U29 U31:U38 U41:U47 U50:U52 U54:U59 U61:U62 U73:U78 U80:U100 U102:U112 U115:U123 W3:W4 W7 W10:W16 W18:W29 W31:W38 W41:W47 W50:W52 W54:W59 W61:W62 W73:W78 W80:W100 W102:W112 W115:W123 Y3:Y4 Y7 Y10:Y16 Y18:Y29 Y31:Y38 Y41:Y47 Y50:Y52 Y54:Y59 Y61:Y62 Y73:Y78 Y80:Y100 Y102:Y112 Y115:Y123 AA3:AA4 AA7 AA10:AA16 AA18:AA29 AA31:AA38 AA41:AA47 AA50:AA52 AA54:AA59 AA61:AA62 AA73:AA78 AA80:AA100 AA102:AA112 AA115:AA123 K64:K71 N64:N71 S64:S71 U64:U71 W64:W71 Y64:Y71 AA64:AA71 K125:K131 N125:N132 S125:S132 U125:U132 W125:W132 Y125:Y132 AA125:AA132">
+    <cfRule type="cellIs" dxfId="195" priority="248" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H4 H7 H10:H16 H18:H29 H31:H38 H41:H47 H50:H52 H54:H59 H61:H62 H64:H65 H67:H71 H73:H129">
-    <cfRule type="cellIs" dxfId="9" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="194" priority="235" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1 F1:G1 I1:J1 L1:M1 O1:P1 R1 T1 V1 X1 Z1">
-    <cfRule type="cellIs" dxfId="8" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="231" operator="equal">
       <formula>"сдал"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+  <conditionalFormatting sqref="B1:B132 B137:B1048576">
+    <cfRule type="duplicateValues" dxfId="192" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Должник">
+    <cfRule type="containsText" dxfId="190" priority="206" operator="containsText" text="Должник">
       <formula>NOT(ISERROR(SEARCH("Должник",E81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="205" operator="equal">
       <formula>"сдал"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:K6 I8:K9 I17:K17 I30:K30 I39:K40 I48:K49 I53:K53 I60:K60 I63:K63 I72:K72 I79:K79 I101:K101 I113:K114 I124:K124 I132:K132">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Должник">
+    <cfRule type="containsText" dxfId="188" priority="198" operator="containsText" text="Должник">
       <formula>NOT(ISERROR(SEARCH("Должник",I5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:K6 I8:K9 I17:K17 I30:K30 I39:K40 I48:K49 I53:K53 I60:K60 I63:K63 I72:K72 I79:K79 I101:K101 I113:K114 I124:K124 I132:K132">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="197" operator="equal">
       <formula>"сдал"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:AA6 L8:AA9 L17:AA17 L30:AA30 L39:AA40 L48:AA49 L53:AA53 L60:AA60 L63:AA63 L72:AA72 L79:AA79 L101:AA101 L113:AA114 L124:AA124">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Должник">
+  <conditionalFormatting sqref="L5:N6 L8:N9 L17:N17 L30:N30 L39:N40 L48:N49 L53:N53 L60:N60 L63:N63 L72:N72 L79:N79 L101:N101 L113:N114 R113:AA114 R101:AA101 R79:AA79 R72:AA72 R63:AA63 R60:AA60 R53:AA53 R48:AA49 R39:AA40 R30:AA30 R17:AA17 R8:AA9 R5:AA6">
+    <cfRule type="containsText" dxfId="186" priority="196" operator="containsText" text="Должник">
       <formula>NOT(ISERROR(SEARCH("Должник",L5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:AA6 L8:AA9 L17:AA17 L30:AA30 L39:AA40 L48:AA49 L53:AA53 L60:AA60 L63:AA63 L72:AA72 L79:AA79 L101:AA101 L113:AA114 L124:AA124">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="L5:N6 L8:N9 L17:N17 L30:N30 L39:N40 L48:N49 L53:N53 L60:N60 L63:N63 L72:N72 L79:N79 L101:N101 L113:N114 R113:AA114 R101:AA101 R79:AA79 R72:AA72 R63:AA63 R60:AA60 R53:AA53 R48:AA49 R39:AA40 R30:AA30 R17:AA17 R8:AA9 R5:AA6">
+    <cfRule type="cellIs" dxfId="185" priority="195" operator="equal">
       <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="containsText" dxfId="184" priority="193" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="cellIs" dxfId="183" priority="192" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="cellIs" dxfId="182" priority="191" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:Q4">
+    <cfRule type="containsText" dxfId="181" priority="187" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:Q4">
+    <cfRule type="cellIs" dxfId="180" priority="186" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:P7">
+    <cfRule type="containsText" dxfId="179" priority="185" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:P7">
+    <cfRule type="cellIs" dxfId="178" priority="184" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="cellIs" dxfId="177" priority="183" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:P13">
+    <cfRule type="containsText" dxfId="176" priority="182" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:P13">
+    <cfRule type="cellIs" dxfId="175" priority="181" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10:Q13">
+    <cfRule type="cellIs" dxfId="174" priority="180" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:P8">
+    <cfRule type="containsText" dxfId="173" priority="179" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:P8">
+    <cfRule type="cellIs" dxfId="172" priority="178" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="cellIs" dxfId="171" priority="177" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:P9">
+    <cfRule type="containsText" dxfId="170" priority="176" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:P9">
+    <cfRule type="cellIs" dxfId="169" priority="175" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="cellIs" dxfId="168" priority="174" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:P14">
+    <cfRule type="containsText" dxfId="167" priority="173" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:P14">
+    <cfRule type="cellIs" dxfId="166" priority="172" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" dxfId="165" priority="171" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:P15">
+    <cfRule type="containsText" dxfId="164" priority="170" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:P15">
+    <cfRule type="cellIs" dxfId="163" priority="169" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q15">
+    <cfRule type="cellIs" dxfId="162" priority="168" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19:P19">
+    <cfRule type="containsText" dxfId="161" priority="167" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19:P19">
+    <cfRule type="cellIs" dxfId="160" priority="166" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="cellIs" dxfId="159" priority="165" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:P17">
+    <cfRule type="containsText" dxfId="158" priority="164" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:P17">
+    <cfRule type="cellIs" dxfId="157" priority="163" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="cellIs" dxfId="156" priority="162" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:P22">
+    <cfRule type="containsText" dxfId="155" priority="161" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:P22">
+    <cfRule type="cellIs" dxfId="154" priority="160" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20:Q22">
+    <cfRule type="cellIs" dxfId="153" priority="159" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24:P24">
+    <cfRule type="containsText" dxfId="152" priority="158" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24:P24">
+    <cfRule type="cellIs" dxfId="151" priority="157" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24">
+    <cfRule type="cellIs" dxfId="150" priority="156" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:P25">
+    <cfRule type="containsText" dxfId="149" priority="155" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:P25">
+    <cfRule type="cellIs" dxfId="148" priority="154" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25">
+    <cfRule type="cellIs" dxfId="147" priority="153" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:P26">
+    <cfRule type="containsText" dxfId="146" priority="152" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:P26">
+    <cfRule type="cellIs" dxfId="145" priority="151" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26">
+    <cfRule type="cellIs" dxfId="144" priority="150" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:P28">
+    <cfRule type="containsText" dxfId="143" priority="149" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:P28">
+    <cfRule type="cellIs" dxfId="142" priority="148" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q28">
+    <cfRule type="cellIs" dxfId="141" priority="147" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O86:P86">
+    <cfRule type="containsText" dxfId="140" priority="146" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O86)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O86:P86">
+    <cfRule type="cellIs" dxfId="139" priority="145" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q86">
+    <cfRule type="cellIs" dxfId="138" priority="144" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O83:P83">
+    <cfRule type="containsText" dxfId="137" priority="143" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O83:P83">
+    <cfRule type="cellIs" dxfId="136" priority="142" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q83">
+    <cfRule type="cellIs" dxfId="135" priority="141" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29:P32">
+    <cfRule type="containsText" dxfId="134" priority="140" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29:P32">
+    <cfRule type="cellIs" dxfId="133" priority="139" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q29:Q32">
+    <cfRule type="cellIs" dxfId="132" priority="138" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34:P34">
+    <cfRule type="containsText" dxfId="131" priority="137" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34:P34">
+    <cfRule type="cellIs" dxfId="130" priority="136" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="cellIs" dxfId="129" priority="135" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35:P35">
+    <cfRule type="containsText" dxfId="128" priority="134" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35:P35">
+    <cfRule type="cellIs" dxfId="127" priority="133" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
+    <cfRule type="cellIs" dxfId="126" priority="132" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33:P33">
+    <cfRule type="containsText" dxfId="125" priority="131" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33:P33">
+    <cfRule type="cellIs" dxfId="124" priority="130" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33">
+    <cfRule type="cellIs" dxfId="123" priority="129" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:P37">
+    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:P37">
+    <cfRule type="cellIs" dxfId="121" priority="127" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q37">
+    <cfRule type="cellIs" dxfId="120" priority="126" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38:P38">
+    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38:P38">
+    <cfRule type="cellIs" dxfId="118" priority="124" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q38">
+    <cfRule type="cellIs" dxfId="117" priority="123" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O39:P41">
+    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O39:P41">
+    <cfRule type="cellIs" dxfId="115" priority="121" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q39:Q41">
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:P42">
+    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:P42">
+    <cfRule type="cellIs" dxfId="112" priority="118" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q42">
+    <cfRule type="cellIs" dxfId="111" priority="117" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O88:P88">
+    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O88:P88">
+    <cfRule type="cellIs" dxfId="109" priority="115" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q88">
+    <cfRule type="cellIs" dxfId="108" priority="114" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O90:P90">
+    <cfRule type="containsText" dxfId="107" priority="113" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O90:P90">
+    <cfRule type="cellIs" dxfId="106" priority="112" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q90">
+    <cfRule type="cellIs" dxfId="105" priority="111" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O91:P91">
+    <cfRule type="containsText" dxfId="104" priority="110" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O91)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O91:P91">
+    <cfRule type="cellIs" dxfId="103" priority="109" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q91">
+    <cfRule type="cellIs" dxfId="102" priority="108" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O92:P92">
+    <cfRule type="containsText" dxfId="101" priority="107" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O92:P92">
+    <cfRule type="cellIs" dxfId="100" priority="106" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q92">
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O45:P45">
+    <cfRule type="containsText" dxfId="98" priority="104" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O45:P45">
+    <cfRule type="cellIs" dxfId="97" priority="103" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q45">
+    <cfRule type="cellIs" dxfId="96" priority="102" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46:P46">
+    <cfRule type="containsText" dxfId="95" priority="101" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46:P46">
+    <cfRule type="cellIs" dxfId="94" priority="100" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q46">
+    <cfRule type="cellIs" dxfId="93" priority="99" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O47:P47">
+    <cfRule type="containsText" dxfId="92" priority="98" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O47:P47">
+    <cfRule type="cellIs" dxfId="91" priority="97" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q47">
+    <cfRule type="cellIs" dxfId="90" priority="96" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O48:P48">
+    <cfRule type="containsText" dxfId="89" priority="95" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O48:P48">
+    <cfRule type="cellIs" dxfId="88" priority="94" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q48">
+    <cfRule type="cellIs" dxfId="87" priority="93" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O94:P94">
+    <cfRule type="containsText" dxfId="86" priority="92" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O94:P94">
+    <cfRule type="cellIs" dxfId="85" priority="91" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q94">
+    <cfRule type="cellIs" dxfId="84" priority="90" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O50:P50">
+    <cfRule type="containsText" dxfId="83" priority="89" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O50:P50">
+    <cfRule type="cellIs" dxfId="82" priority="88" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q50">
+    <cfRule type="cellIs" dxfId="81" priority="87" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O51:P51">
+    <cfRule type="containsText" dxfId="80" priority="86" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O51:P51">
+    <cfRule type="cellIs" dxfId="79" priority="85" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q51">
+    <cfRule type="cellIs" dxfId="78" priority="84" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O54:P59">
+    <cfRule type="containsText" dxfId="77" priority="83" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O54:P59">
+    <cfRule type="cellIs" dxfId="76" priority="82" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q54:Q59">
+    <cfRule type="cellIs" dxfId="75" priority="81" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O62:P62">
+    <cfRule type="containsText" dxfId="74" priority="80" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O62:P62">
+    <cfRule type="cellIs" dxfId="73" priority="79" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q62">
+    <cfRule type="cellIs" dxfId="72" priority="78" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O64:P65">
+    <cfRule type="containsText" dxfId="71" priority="77" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O64:P65">
+    <cfRule type="cellIs" dxfId="70" priority="76" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q64:Q65">
+    <cfRule type="cellIs" dxfId="69" priority="75" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O67:P69">
+    <cfRule type="containsText" dxfId="68" priority="74" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O67:P69">
+    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q67:Q69">
+    <cfRule type="cellIs" dxfId="66" priority="72" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O71:P71">
+    <cfRule type="containsText" dxfId="65" priority="71" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O71:P71">
+    <cfRule type="cellIs" dxfId="64" priority="70" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q71">
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O73:P78">
+    <cfRule type="containsText" dxfId="62" priority="68" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O73:P78">
+    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q73:Q78">
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O80:P80">
+    <cfRule type="containsText" dxfId="59" priority="65" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O80:P80">
+    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q80">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O96:P109">
+    <cfRule type="containsText" dxfId="56" priority="62" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O96:P109">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q96:Q109">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O111:P112">
+    <cfRule type="containsText" dxfId="53" priority="59" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O111:P112">
+    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q111:Q112">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O114:P114">
+    <cfRule type="containsText" dxfId="50" priority="56" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O114:P114">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q114">
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O117:P117">
+    <cfRule type="containsText" dxfId="47" priority="53" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O117:P117">
+    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q117">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:P120">
+    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O120:P120">
+    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q120">
+    <cfRule type="cellIs" dxfId="42" priority="48" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O123:P123">
+    <cfRule type="containsText" dxfId="41" priority="47" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O123:P123">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q123">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O125:P125">
+    <cfRule type="containsText" dxfId="38" priority="44" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O125:P125">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q125">
+    <cfRule type="cellIs" dxfId="36" priority="42" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O127:P128">
+    <cfRule type="containsText" dxfId="35" priority="41" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O127:P128">
+    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q127:Q128">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O129:Q131 O126:Q126 O124:Q124 O121:Q122 O118:Q119 O115:Q116 O113:Q113 O110:Q110 O95:Q95 O93:Q93 O89:Q89 O87:Q87 O84:Q85 O81:Q82 O72:Q72 O70:Q70 O66:Q66 O63:Q63 O61:Q61 O52:Q52 O43:Q44 O36:Q36 O23:Q23 O18:Q18 O16:Q16 O6:Q6">
+    <cfRule type="containsText" dxfId="32" priority="38" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O129:Q131 O126:Q126 O124:Q124 O121:Q122 O118:Q119 O115:Q116 O113:Q113 O110:Q110 O95:Q95 O93:Q93 O89:Q89 O87:Q87 O84:Q85 O81:Q82 O72:Q72 O70:Q70 O66:Q66 O63:Q63 O61:Q61 O52:Q52 O43:Q44 O36:Q36 O23:Q23 O18:Q18 O16:Q16 O6:Q6">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O49:P49">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O49:P49">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53:P53">
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53:P53">
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q53">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O79:P79">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O79:P79">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q79">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O132:P132">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O132:P132">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q132">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R133:R136 T133:T136 V133:V136 X133:X136 Z133:Z136">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",R133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R133:R136 T133:T136 V133:V136 X133:X136 Z133:Z136">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S133:S136 U133:U136 W133:W136 Y133:Y136 AA133:AA136">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B133:B136">
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133:E136">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",C133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133:E136">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F133:H136">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",F133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F133:H136">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I133:K136">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",I133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I133:K136">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L133:N136">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",L133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L133:N136">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O133:P136">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O133:P136">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q133:Q136">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O60:P60">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Должник">
+      <formula>NOT(ISERROR(SEARCH("Должник",O60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O60:P60">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"сдал"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q60">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
@@ -50389,8 +52780,135 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист22"/>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="41.25" thickBot="1">
+      <c r="A1" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="50">
+        <f>IFERROR('Партия 1'!$D$3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="51">
+        <f>IFERROR('Партия 2'!$D$3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="51">
+        <f>IFERROR('Партия 3'!$D$3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="51">
+        <f>IFERROR('Партия 4'!$D$3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="51">
+        <f>IFERROR('Партия 5'!$D$3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="51">
+        <f>IFERROR('Партия 6'!$D$3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="51">
+        <f>IFERROR('Партия 7'!$D$3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="51">
+        <f>IFERROR('Партия 8'!$D$3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="51">
+        <f>IFERROR('Партия 9'!$D$3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" thickBot="1">
+      <c r="A11" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="52">
+        <f>IFERROR('Партия 10'!$D$3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" thickBot="1">
+      <c r="A12" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="44">
+        <f>SUM(B2:B11)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50409,6 +52927,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50427,6 +52946,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50445,6 +52965,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50463,6 +52984,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист7"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50481,6 +53003,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист8"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50499,6 +53022,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист9"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/help/54_COVID_19_new.xlsx
+++ b/help/54_COVID_19_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MedovikovOE\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки_временные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="186">
   <si>
     <t>№ п/п</t>
   </si>
@@ -7984,10 +7984,3595 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист13"/>
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
+    <col min="3" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="6" width="44.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17">
+        <v>3</v>
+      </c>
+      <c r="D2" s="18">
+        <v>4</v>
+      </c>
+      <c r="E2" s="17">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="21" t="e">
+        <f>SUM(C4+C7+C9+C19+C25+C29+C37+C41+C45+C47+C49+C51+C61+C65+C67+C69+C72+C78+C82)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="21" t="e">
+        <f>SUM(D4+D7+D9+D19+D25+D29+D37+D41+D45+D47+D49+D51+D61+D65+D67+D69+D72+D78+D82)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="21" t="e">
+        <f>SUM(E4+E7+E9+E19+E25+E29+E37+E41+E45+E47+E49+E51+E61+E65+E67+E69+E72+E78+E82)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="21" t="e">
+        <f>SUM(F4+F7+F9+F19+F25+F29+F37+F41+F45+F47+F49+F51+F61+F65+F67+F69+F72+F78+F82)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="36" customHeight="1">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="22" t="e">
+        <f>SUM(C5:C6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="22" t="e">
+        <f>SUM(D5:D6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="22" t="e">
+        <f>SUM(E5:E6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="22" t="e">
+        <f>SUM(F5:F6)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="24">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="e">
+        <f>VLOOKUP($B5,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="10" t="e">
+        <f>VLOOKUP($B5,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="10" t="e">
+        <f>VLOOKUP($B5,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="10" t="e">
+        <f>VLOOKUP($B5,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="35" t="e">
+        <f>VLOOKUP($B5,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="24">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="e">
+        <f>VLOOKUP($B6,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="10" t="e">
+        <f>VLOOKUP($B6,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="10" t="e">
+        <f>VLOOKUP($B6,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="10" t="e">
+        <f>VLOOKUP($B6,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="35" t="e">
+        <f>VLOOKUP($B6,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="26" t="e">
+        <f>SUM(C8)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="26" t="e">
+        <f>SUM(D8)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="26" t="e">
+        <f>SUM(E8)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="26" t="e">
+        <f>SUM(F8)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1">
+      <c r="A8" s="24">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="e">
+        <f>VLOOKUP($B8,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="10" t="e">
+        <f>VLOOKUP($B8,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="10" t="e">
+        <f>VLOOKUP($B8,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="10" t="e">
+        <f>VLOOKUP($B8,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="35" t="e">
+        <f>VLOOKUP($B8,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="22" t="e">
+        <f>SUM(C10:C18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="22" t="e">
+        <f>SUM(D10:D18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="22" t="e">
+        <f>SUM(E10:E18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="22" t="e">
+        <f>SUM(F10:F18)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="24">
+        <v>4</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10" t="e">
+        <f>VLOOKUP($B10,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="10" t="e">
+        <f>VLOOKUP($B10,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="10" t="e">
+        <f>VLOOKUP($B10,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="10" t="e">
+        <f>VLOOKUP($B10,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="35" t="e">
+        <f>VLOOKUP($B10,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1">
+      <c r="A11" s="24">
+        <v>5</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="e">
+        <f>VLOOKUP($B11,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="10" t="e">
+        <f>VLOOKUP($B11,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="10" t="e">
+        <f>VLOOKUP($B11,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="10" t="e">
+        <f>VLOOKUP($B11,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="35" t="e">
+        <f>VLOOKUP($B11,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="24">
+        <v>6</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="10" t="e">
+        <f>VLOOKUP($B12,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="10" t="e">
+        <f>VLOOKUP($B12,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="10" t="e">
+        <f>VLOOKUP($B12,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="10" t="e">
+        <f>VLOOKUP($B12,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="35" t="e">
+        <f>VLOOKUP($B12,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="A13" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="10" t="e">
+        <f>VLOOKUP($B13,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="10" t="e">
+        <f>VLOOKUP($B13,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="10" t="e">
+        <f>VLOOKUP($B13,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="10" t="e">
+        <f>VLOOKUP($B13,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="35" t="e">
+        <f>VLOOKUP($B13,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1">
+      <c r="A14" s="24">
+        <v>8</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="10" t="e">
+        <f>VLOOKUP($B14,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="10" t="e">
+        <f>VLOOKUP($B14,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="10" t="e">
+        <f>VLOOKUP($B14,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="10" t="e">
+        <f>VLOOKUP($B14,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="35" t="e">
+        <f>VLOOKUP($B14,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="A15" s="24">
+        <v>9</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="10" t="e">
+        <f>VLOOKUP($B15,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="10" t="e">
+        <f>VLOOKUP($B15,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="10" t="e">
+        <f>VLOOKUP($B15,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="10" t="e">
+        <f>VLOOKUP($B15,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="35" t="e">
+        <f>VLOOKUP($B15,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="A16" s="24">
+        <v>10</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="10" t="e">
+        <f>VLOOKUP($B16,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="10" t="e">
+        <f>VLOOKUP($B16,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="10" t="e">
+        <f>VLOOKUP($B16,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="10" t="e">
+        <f>VLOOKUP($B16,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" s="35" t="e">
+        <f>VLOOKUP($B16,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1">
+      <c r="A17" s="24">
+        <v>11</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="10" t="e">
+        <f>VLOOKUP($B17,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="10" t="e">
+        <f>VLOOKUP($B17,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="10" t="e">
+        <f>VLOOKUP($B17,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="10" t="e">
+        <f>VLOOKUP($B17,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="35" t="e">
+        <f>VLOOKUP($B17,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1">
+      <c r="A18" s="24">
+        <v>12</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10" t="e">
+        <f>VLOOKUP($B18,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="10" t="e">
+        <f>VLOOKUP($B18,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="10" t="e">
+        <f>VLOOKUP($B18,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="10" t="e">
+        <f>VLOOKUP($B18,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="35" t="e">
+        <f>VLOOKUP($B18,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="22" t="e">
+        <f>SUM(C20:C24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="22" t="e">
+        <f>SUM(D20:D24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="22" t="e">
+        <f>SUM(E20:E24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="22" t="e">
+        <f>SUM(F20:F24)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1">
+      <c r="A20" s="24">
+        <v>13</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10" t="e">
+        <f>VLOOKUP($B20,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="10" t="e">
+        <f>VLOOKUP($B20,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="10" t="e">
+        <f>VLOOKUP($B20,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="10" t="e">
+        <f>VLOOKUP($B20,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="35" t="e">
+        <f>VLOOKUP($B20,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1">
+      <c r="A21" s="24">
+        <v>14</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="10" t="e">
+        <f>VLOOKUP($B21,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="10" t="e">
+        <f>VLOOKUP($B21,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="10" t="e">
+        <f>VLOOKUP($B21,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="10" t="e">
+        <f>VLOOKUP($B21,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="35" t="e">
+        <f>VLOOKUP($B21,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1">
+      <c r="A22" s="24">
+        <v>15</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="10" t="e">
+        <f>VLOOKUP($B22,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="10" t="e">
+        <f>VLOOKUP($B22,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="10" t="e">
+        <f>VLOOKUP($B22,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="10" t="e">
+        <f>VLOOKUP($B22,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="35" t="e">
+        <f>VLOOKUP($B22,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1">
+      <c r="A23" s="24">
+        <v>16</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="10" t="e">
+        <f>VLOOKUP($B23,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="10" t="e">
+        <f>VLOOKUP($B23,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="10" t="e">
+        <f>VLOOKUP($B23,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F23" s="10" t="e">
+        <f>VLOOKUP($B23,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" s="35" t="e">
+        <f>VLOOKUP($B23,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1">
+      <c r="A24" s="24">
+        <v>17</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="10" t="e">
+        <f>VLOOKUP($B24,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="10" t="e">
+        <f>VLOOKUP($B24,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="10" t="e">
+        <f>VLOOKUP($B24,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F24" s="10" t="e">
+        <f>VLOOKUP($B24,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="35" t="e">
+        <f>VLOOKUP($B24,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="22" t="e">
+        <f>SUM(C26+C27+C28)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="22" t="e">
+        <f>SUM(D26+D27+D28)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="22" t="e">
+        <f>SUM(E26+E27+E28)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="22" t="e">
+        <f>SUM(F26+F27+F28)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1">
+      <c r="A26" s="24">
+        <v>18</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10" t="e">
+        <f>VLOOKUP($B26,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="10" t="e">
+        <f>VLOOKUP($B26,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="10" t="e">
+        <f>VLOOKUP($B26,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F26" s="10" t="e">
+        <f>VLOOKUP($B26,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="35" t="e">
+        <f>VLOOKUP($B26,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1">
+      <c r="A27" s="24">
+        <v>19</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="10" t="e">
+        <f>VLOOKUP($B27,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="10" t="e">
+        <f>VLOOKUP($B27,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="10" t="e">
+        <f>VLOOKUP($B27,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F27" s="10" t="e">
+        <f>VLOOKUP($B27,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="35" t="e">
+        <f>VLOOKUP($B27,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1">
+      <c r="A28" s="24">
+        <v>20</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="10" t="e">
+        <f>VLOOKUP($B28,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D28" s="10" t="e">
+        <f>VLOOKUP($B28,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="10" t="e">
+        <f>VLOOKUP($B28,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F28" s="10" t="e">
+        <f>VLOOKUP($B28,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" s="35" t="e">
+        <f>VLOOKUP($B28,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="26" t="e">
+        <f>SUM(C30:C36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="26" t="e">
+        <f>SUM(D30:D36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="26" t="e">
+        <f>SUM(E30:E36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="26" t="e">
+        <f>SUM(F30:F36)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1">
+      <c r="A30" s="24">
+        <v>21</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="10" t="e">
+        <f>VLOOKUP($B30,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D30" s="10" t="e">
+        <f>VLOOKUP($B30,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="10" t="e">
+        <f>VLOOKUP($B30,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="10" t="e">
+        <f>VLOOKUP($B30,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="35" t="e">
+        <f>VLOOKUP($B30,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1">
+      <c r="A31" s="24">
+        <v>22</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="10" t="e">
+        <f>VLOOKUP($B31,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D31" s="10" t="e">
+        <f>VLOOKUP($B31,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="10" t="e">
+        <f>VLOOKUP($B31,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F31" s="10" t="e">
+        <f>VLOOKUP($B31,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="35" t="e">
+        <f>VLOOKUP($B31,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1">
+      <c r="A32" s="24">
+        <v>23</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="10" t="e">
+        <f>VLOOKUP($B32,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D32" s="10" t="e">
+        <f>VLOOKUP($B32,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="10" t="e">
+        <f>VLOOKUP($B32,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F32" s="10" t="e">
+        <f>VLOOKUP($B32,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="35" t="e">
+        <f>VLOOKUP($B32,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1">
+      <c r="A33" s="24">
+        <v>24</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="10" t="e">
+        <f>VLOOKUP($B33,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D33" s="10" t="e">
+        <f>VLOOKUP($B33,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="10" t="e">
+        <f>VLOOKUP($B33,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F33" s="10" t="e">
+        <f>VLOOKUP($B33,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G33" s="35" t="e">
+        <f>VLOOKUP($B33,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1">
+      <c r="A34" s="24">
+        <v>25</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="10" t="e">
+        <f>VLOOKUP($B34,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D34" s="10" t="e">
+        <f>VLOOKUP($B34,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="10" t="e">
+        <f>VLOOKUP($B34,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F34" s="10" t="e">
+        <f>VLOOKUP($B34,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G34" s="35" t="e">
+        <f>VLOOKUP($B34,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1">
+      <c r="A35" s="24">
+        <v>26</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="10" t="e">
+        <f>VLOOKUP($B35,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D35" s="10" t="e">
+        <f>VLOOKUP($B35,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="10" t="e">
+        <f>VLOOKUP($B35,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F35" s="10" t="e">
+        <f>VLOOKUP($B35,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G35" s="35" t="e">
+        <f>VLOOKUP($B35,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="36" customHeight="1">
+      <c r="A36" s="24">
+        <v>27</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="10" t="e">
+        <f>VLOOKUP($B36,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D36" s="10" t="e">
+        <f>VLOOKUP($B36,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="10" t="e">
+        <f>VLOOKUP($B36,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F36" s="10" t="e">
+        <f>VLOOKUP($B36,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G36" s="35" t="e">
+        <f>VLOOKUP($B36,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="26" t="e">
+        <f>SUM(C38:C40)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D37" s="26" t="e">
+        <f>SUM(D38:D40)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="26" t="e">
+        <f>SUM(E38:E40)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F37" s="26" t="e">
+        <f>SUM(F38:F40)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1">
+      <c r="A38" s="24">
+        <v>28</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="10" t="e">
+        <f>VLOOKUP($B38,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D38" s="10" t="e">
+        <f>VLOOKUP($B38,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="10" t="e">
+        <f>VLOOKUP($B38,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F38" s="10" t="e">
+        <f>VLOOKUP($B38,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G38" s="35" t="e">
+        <f>VLOOKUP($B38,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1">
+      <c r="A39" s="24">
+        <v>29</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="10" t="e">
+        <f>VLOOKUP($B39,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D39" s="10" t="e">
+        <f>VLOOKUP($B39,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="10" t="e">
+        <f>VLOOKUP($B39,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F39" s="10" t="e">
+        <f>VLOOKUP($B39,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G39" s="35" t="e">
+        <f>VLOOKUP($B39,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1">
+      <c r="A40" s="24">
+        <v>30</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="10" t="e">
+        <f>VLOOKUP($B40,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D40" s="10" t="e">
+        <f>VLOOKUP($B40,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E40" s="10" t="e">
+        <f>VLOOKUP($B40,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F40" s="10" t="e">
+        <f>VLOOKUP($B40,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G40" s="35" t="e">
+        <f>VLOOKUP($B40,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="36" customHeight="1">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="22" t="e">
+        <f>SUM(C42:C44)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D41" s="22" t="e">
+        <f>SUM(D42:D44)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="22" t="e">
+        <f>SUM(E42:E44)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F41" s="22" t="e">
+        <f>SUM(F42:F44)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1">
+      <c r="A42" s="24">
+        <v>31</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="10" t="e">
+        <f>VLOOKUP($B42,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D42" s="10" t="e">
+        <f>VLOOKUP($B42,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="10" t="e">
+        <f>VLOOKUP($B42,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F42" s="10" t="e">
+        <f>VLOOKUP($B42,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G42" s="35" t="e">
+        <f>VLOOKUP($B42,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1">
+      <c r="A43" s="24">
+        <v>32</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="10" t="e">
+        <f>VLOOKUP($B43,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D43" s="10" t="e">
+        <f>VLOOKUP($B43,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="10" t="e">
+        <f>VLOOKUP($B43,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F43" s="10" t="e">
+        <f>VLOOKUP($B43,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G43" s="35" t="e">
+        <f>VLOOKUP($B43,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1">
+      <c r="A44" s="24">
+        <v>33</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="10" t="e">
+        <f>VLOOKUP($B44,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D44" s="10" t="e">
+        <f>VLOOKUP($B44,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="10" t="e">
+        <f>VLOOKUP($B44,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F44" s="10" t="e">
+        <f>VLOOKUP($B44,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G44" s="35" t="e">
+        <f>VLOOKUP($B44,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="22" t="e">
+        <f>SUM(C46)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D45" s="22" t="e">
+        <f>SUM(D46)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="22" t="e">
+        <f>SUM(E46)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F45" s="22" t="e">
+        <f>SUM(F46)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1">
+      <c r="A46" s="24">
+        <v>34</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="10" t="e">
+        <f>VLOOKUP($B46,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D46" s="10" t="e">
+        <f>VLOOKUP($B46,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E46" s="10" t="e">
+        <f>VLOOKUP($B46,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F46" s="10" t="e">
+        <f>VLOOKUP($B46,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G46" s="35" t="e">
+        <f>VLOOKUP($B46,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="22" t="e">
+        <f>SUM(C48)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D47" s="22" t="e">
+        <f>SUM(D48)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E47" s="22" t="e">
+        <f>SUM(E48)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F47" s="22" t="e">
+        <f>SUM(F48)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" customHeight="1">
+      <c r="A48" s="24">
+        <v>35</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10" t="e">
+        <f>VLOOKUP($B48,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D48" s="10" t="e">
+        <f>VLOOKUP($B48,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E48" s="10" t="e">
+        <f>VLOOKUP($B48,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F48" s="10" t="e">
+        <f>VLOOKUP($B48,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G48" s="35" t="e">
+        <f>VLOOKUP($B48,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="22" t="e">
+        <f>SUM(C50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D49" s="22" t="e">
+        <f>SUM(D50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E49" s="22" t="e">
+        <f>SUM(E50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F49" s="22" t="e">
+        <f>SUM(F50)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" customHeight="1">
+      <c r="A50" s="24">
+        <v>36</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="10" t="e">
+        <f>VLOOKUP($B50,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D50" s="10" t="e">
+        <f>VLOOKUP($B50,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="10" t="e">
+        <f>VLOOKUP($B50,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F50" s="10" t="e">
+        <f>VLOOKUP($B50,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G50" s="35" t="e">
+        <f>VLOOKUP($B50,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="26" t="e">
+        <f>SUM(C52:C60)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D51" s="26" t="e">
+        <f>SUM(D52:D60)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E51" s="26" t="e">
+        <f>SUM(E52:E60)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F51" s="26" t="e">
+        <f>SUM(F52:F60)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1">
+      <c r="A52" s="24">
+        <v>37</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="10" t="e">
+        <f>VLOOKUP($B52,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D52" s="10" t="e">
+        <f>VLOOKUP($B52,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E52" s="10" t="e">
+        <f>VLOOKUP($B52,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F52" s="10" t="e">
+        <f>VLOOKUP($B52,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G52" s="35" t="e">
+        <f>VLOOKUP($B52,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1">
+      <c r="A53" s="24">
+        <v>38</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="10" t="e">
+        <f>VLOOKUP($B53,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D53" s="10" t="e">
+        <f>VLOOKUP($B53,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="10" t="e">
+        <f>VLOOKUP($B53,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F53" s="10" t="e">
+        <f>VLOOKUP($B53,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G53" s="35" t="e">
+        <f>VLOOKUP($B53,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" customHeight="1">
+      <c r="A54" s="24">
+        <v>39</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="10" t="e">
+        <f>VLOOKUP($B54,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D54" s="10" t="e">
+        <f>VLOOKUP($B54,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="10" t="e">
+        <f>VLOOKUP($B54,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F54" s="10" t="e">
+        <f>VLOOKUP($B54,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G54" s="35" t="e">
+        <f>VLOOKUP($B54,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1">
+      <c r="A55" s="24">
+        <v>40</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="10" t="e">
+        <f>VLOOKUP($B55,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D55" s="10" t="e">
+        <f>VLOOKUP($B55,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E55" s="10" t="e">
+        <f>VLOOKUP($B55,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F55" s="10" t="e">
+        <f>VLOOKUP($B55,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G55" s="35" t="e">
+        <f>VLOOKUP($B55,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1">
+      <c r="A56" s="24">
+        <v>41</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="10" t="e">
+        <f>VLOOKUP($B56,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D56" s="10" t="e">
+        <f>VLOOKUP($B56,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E56" s="10" t="e">
+        <f>VLOOKUP($B56,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F56" s="10" t="e">
+        <f>VLOOKUP($B56,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G56" s="35" t="e">
+        <f>VLOOKUP($B56,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1">
+      <c r="A57" s="24">
+        <v>42</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="10" t="e">
+        <f>VLOOKUP($B57,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D57" s="10" t="e">
+        <f>VLOOKUP($B57,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E57" s="10" t="e">
+        <f>VLOOKUP($B57,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F57" s="10" t="e">
+        <f>VLOOKUP($B57,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G57" s="35" t="e">
+        <f>VLOOKUP($B57,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1">
+      <c r="A58" s="24">
+        <v>43</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="10" t="e">
+        <f>VLOOKUP($B58,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D58" s="10" t="e">
+        <f>VLOOKUP($B58,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E58" s="10" t="e">
+        <f>VLOOKUP($B58,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F58" s="10" t="e">
+        <f>VLOOKUP($B58,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G58" s="35" t="e">
+        <f>VLOOKUP($B58,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1">
+      <c r="A59" s="24">
+        <v>44</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="10" t="e">
+        <f>VLOOKUP($B59,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D59" s="10" t="e">
+        <f>VLOOKUP($B59,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E59" s="10" t="e">
+        <f>VLOOKUP($B59,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F59" s="10" t="e">
+        <f>VLOOKUP($B59,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G59" s="35" t="e">
+        <f>VLOOKUP($B59,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1">
+      <c r="A60" s="24">
+        <v>45</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="10" t="e">
+        <f>VLOOKUP($B60,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D60" s="10" t="e">
+        <f>VLOOKUP($B60,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E60" s="10" t="e">
+        <f>VLOOKUP($B60,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F60" s="10" t="e">
+        <f>VLOOKUP($B60,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G60" s="35" t="e">
+        <f>VLOOKUP($B60,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="26" t="e">
+        <f>SUM(C62:C64)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D61" s="26" t="e">
+        <f>SUM(D62:D64)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E61" s="26" t="e">
+        <f>SUM(E62:E64)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F61" s="26" t="e">
+        <f>SUM(F62:F64)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1">
+      <c r="A62" s="24">
+        <v>46</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="10" t="e">
+        <f>VLOOKUP($B62,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D62" s="10" t="e">
+        <f>VLOOKUP($B62,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E62" s="10" t="e">
+        <f>VLOOKUP($B62,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F62" s="10" t="e">
+        <f>VLOOKUP($B62,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G62" s="35" t="e">
+        <f>VLOOKUP($B62,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="36" customHeight="1">
+      <c r="A63" s="24">
+        <v>47</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="10" t="e">
+        <f>VLOOKUP($B63,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D63" s="10" t="e">
+        <f>VLOOKUP($B63,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E63" s="10" t="e">
+        <f>VLOOKUP($B63,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F63" s="10" t="e">
+        <f>VLOOKUP($B63,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G63" s="35" t="e">
+        <f>VLOOKUP($B63,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" customHeight="1">
+      <c r="A64" s="24">
+        <v>48</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="10" t="e">
+        <f>VLOOKUP($B64,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D64" s="10" t="e">
+        <f>VLOOKUP($B64,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E64" s="10" t="e">
+        <f>VLOOKUP($B64,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F64" s="10" t="e">
+        <f>VLOOKUP($B64,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G64" s="35" t="e">
+        <f>VLOOKUP($B64,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18" customHeight="1">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="26" t="e">
+        <f>SUM(C66)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D65" s="26" t="e">
+        <f>SUM(D66)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="26" t="e">
+        <f>SUM(E66)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F65" s="26" t="e">
+        <f>SUM(F66)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1">
+      <c r="A66" s="24">
+        <v>49</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="10" t="e">
+        <f>VLOOKUP($B66,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D66" s="10" t="e">
+        <f>VLOOKUP($B66,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E66" s="10" t="e">
+        <f>VLOOKUP($B66,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F66" s="10" t="e">
+        <f>VLOOKUP($B66,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G66" s="35" t="e">
+        <f>VLOOKUP($B66,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" customHeight="1">
+      <c r="A67" s="22"/>
+      <c r="B67" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="26" t="e">
+        <f>SUM(C68)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D67" s="26" t="e">
+        <f>SUM(D68)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E67" s="26" t="e">
+        <f>SUM(E68)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F67" s="26" t="e">
+        <f>SUM(F68)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" customHeight="1">
+      <c r="A68" s="24">
+        <v>50</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="10" t="e">
+        <f>VLOOKUP($B68,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D68" s="10" t="e">
+        <f>VLOOKUP($B68,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E68" s="10" t="e">
+        <f>VLOOKUP($B68,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="10" t="e">
+        <f>VLOOKUP($B68,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G68" s="35" t="e">
+        <f>VLOOKUP($B68,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" customHeight="1">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="22" t="e">
+        <f>SUM(C70:C71)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D69" s="22" t="e">
+        <f>SUM(D70:D71)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E69" s="22" t="e">
+        <f>SUM(E70:E71)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F69" s="22" t="e">
+        <f>SUM(F70:F71)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" customHeight="1">
+      <c r="A70" s="24">
+        <v>51</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="10" t="e">
+        <f>VLOOKUP($B70,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D70" s="10" t="e">
+        <f>VLOOKUP($B70,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="10" t="e">
+        <f>VLOOKUP($B70,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F70" s="10" t="e">
+        <f>VLOOKUP($B70,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G70" s="35" t="e">
+        <f>VLOOKUP($B70,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" customHeight="1">
+      <c r="A71" s="24">
+        <v>52</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="10" t="e">
+        <f>VLOOKUP($B71,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D71" s="10" t="e">
+        <f>VLOOKUP($B71,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E71" s="10" t="e">
+        <f>VLOOKUP($B71,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F71" s="10" t="e">
+        <f>VLOOKUP($B71,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G71" s="35" t="e">
+        <f>VLOOKUP($B71,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" customHeight="1">
+      <c r="A72" s="22"/>
+      <c r="B72" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="22" t="e">
+        <f>SUM(C73:C77)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D72" s="22" t="e">
+        <f>SUM(D73:D77)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E72" s="22" t="e">
+        <f>SUM(E73:E77)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F72" s="22" t="e">
+        <f>SUM(F73:F77)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" customHeight="1">
+      <c r="A73" s="24">
+        <v>53</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="10" t="e">
+        <f>VLOOKUP($B73,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D73" s="10" t="e">
+        <f>VLOOKUP($B73,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="10" t="e">
+        <f>VLOOKUP($B73,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F73" s="10" t="e">
+        <f>VLOOKUP($B73,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G73" s="35" t="e">
+        <f>VLOOKUP($B73,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" customHeight="1">
+      <c r="A74" s="24">
+        <v>54</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="10" t="e">
+        <f>VLOOKUP($B74,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D74" s="10" t="e">
+        <f>VLOOKUP($B74,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E74" s="10" t="e">
+        <f>VLOOKUP($B74,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F74" s="10" t="e">
+        <f>VLOOKUP($B74,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G74" s="35" t="e">
+        <f>VLOOKUP($B74,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1">
+      <c r="A75" s="24">
+        <v>55</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="10" t="e">
+        <f>VLOOKUP($B75,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D75" s="10" t="e">
+        <f>VLOOKUP($B75,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="10" t="e">
+        <f>VLOOKUP($B75,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F75" s="10" t="e">
+        <f>VLOOKUP($B75,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G75" s="35" t="e">
+        <f>VLOOKUP($B75,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1">
+      <c r="A76" s="24">
+        <v>56</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="10" t="e">
+        <f>VLOOKUP($B76,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D76" s="10" t="e">
+        <f>VLOOKUP($B76,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E76" s="10" t="e">
+        <f>VLOOKUP($B76,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F76" s="10" t="e">
+        <f>VLOOKUP($B76,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G76" s="35" t="e">
+        <f>VLOOKUP($B76,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18" customHeight="1">
+      <c r="A77" s="24">
+        <v>57</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="10" t="e">
+        <f>VLOOKUP($B77,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D77" s="10" t="e">
+        <f>VLOOKUP($B77,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="10" t="e">
+        <f>VLOOKUP($B77,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F77" s="10" t="e">
+        <f>VLOOKUP($B77,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G77" s="35" t="e">
+        <f>VLOOKUP($B77,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1">
+      <c r="A78" s="22"/>
+      <c r="B78" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="22" t="e">
+        <f>SUM(C79:C81)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D78" s="22" t="e">
+        <f>SUM(D79:D81)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E78" s="22" t="e">
+        <f>SUM(E79:E81)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F78" s="22" t="e">
+        <f>SUM(F79:F81)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1">
+      <c r="A79" s="24">
+        <v>58</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="10" t="e">
+        <f>VLOOKUP($B79,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D79" s="10" t="e">
+        <f>VLOOKUP($B79,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E79" s="10" t="e">
+        <f>VLOOKUP($B79,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F79" s="10" t="e">
+        <f>VLOOKUP($B79,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G79" s="35" t="e">
+        <f>VLOOKUP($B79,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1">
+      <c r="A80" s="24">
+        <v>59</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="10" t="e">
+        <f>VLOOKUP($B80,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D80" s="10" t="e">
+        <f>VLOOKUP($B80,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E80" s="10" t="e">
+        <f>VLOOKUP($B80,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F80" s="10" t="e">
+        <f>VLOOKUP($B80,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G80" s="35" t="e">
+        <f>VLOOKUP($B80,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1">
+      <c r="A81" s="24">
+        <v>60</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="10" t="e">
+        <f>VLOOKUP($B81,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D81" s="10" t="e">
+        <f>VLOOKUP($B81,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="10" t="e">
+        <f>VLOOKUP($B81,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F81" s="10" t="e">
+        <f>VLOOKUP($B81,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G81" s="35" t="e">
+        <f>VLOOKUP($B81,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="36" customHeight="1">
+      <c r="A82" s="22"/>
+      <c r="B82" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="22" t="e">
+        <f>SUM(C83:C132)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D82" s="22" t="e">
+        <f>SUM(D83:D132)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E82" s="22" t="e">
+        <f>SUM(E83:E132)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F82" s="22" t="e">
+        <f>SUM(F83:F132)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1">
+      <c r="A83" s="24">
+        <v>61</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="10" t="e">
+        <f>VLOOKUP($B83,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D83" s="10" t="e">
+        <f>VLOOKUP($B83,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E83" s="10" t="e">
+        <f>VLOOKUP($B83,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F83" s="10" t="e">
+        <f>VLOOKUP($B83,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G83" s="35" t="e">
+        <f>VLOOKUP($B83,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1">
+      <c r="A84" s="24">
+        <v>62</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="10" t="e">
+        <f>VLOOKUP($B84,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D84" s="10" t="e">
+        <f>VLOOKUP($B84,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E84" s="10" t="e">
+        <f>VLOOKUP($B84,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F84" s="10" t="e">
+        <f>VLOOKUP($B84,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G84" s="35" t="e">
+        <f>VLOOKUP($B84,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="45" customHeight="1">
+      <c r="A85" s="24">
+        <v>63</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="10" t="e">
+        <f>VLOOKUP($B85,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D85" s="10" t="e">
+        <f>VLOOKUP($B85,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E85" s="10" t="e">
+        <f>VLOOKUP($B85,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F85" s="10" t="e">
+        <f>VLOOKUP($B85,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G85" s="35" t="e">
+        <f>VLOOKUP($B85,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1">
+      <c r="A86" s="24">
+        <v>64</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="10" t="e">
+        <f>VLOOKUP($B86,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D86" s="10" t="e">
+        <f>VLOOKUP($B86,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E86" s="10" t="e">
+        <f>VLOOKUP($B86,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F86" s="10" t="e">
+        <f>VLOOKUP($B86,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G86" s="35" t="e">
+        <f>VLOOKUP($B86,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1">
+      <c r="A87" s="24">
+        <v>65</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="10" t="e">
+        <f>VLOOKUP($B87,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D87" s="10" t="e">
+        <f>VLOOKUP($B87,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E87" s="10" t="e">
+        <f>VLOOKUP($B87,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F87" s="10" t="e">
+        <f>VLOOKUP($B87,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G87" s="35" t="e">
+        <f>VLOOKUP($B87,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" customHeight="1">
+      <c r="A88" s="24">
+        <v>66</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="10" t="e">
+        <f>VLOOKUP($B88,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D88" s="10" t="e">
+        <f>VLOOKUP($B88,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E88" s="10" t="e">
+        <f>VLOOKUP($B88,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F88" s="10" t="e">
+        <f>VLOOKUP($B88,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G88" s="35" t="e">
+        <f>VLOOKUP($B88,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1">
+      <c r="A89" s="24">
+        <v>67</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="10" t="e">
+        <f>VLOOKUP($B89,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D89" s="10" t="e">
+        <f>VLOOKUP($B89,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E89" s="10" t="e">
+        <f>VLOOKUP($B89,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F89" s="10" t="e">
+        <f>VLOOKUP($B89,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G89" s="35" t="e">
+        <f>VLOOKUP($B89,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" customHeight="1">
+      <c r="A90" s="24">
+        <v>68</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="10" t="e">
+        <f>VLOOKUP($B90,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D90" s="10" t="e">
+        <f>VLOOKUP($B90,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E90" s="10" t="e">
+        <f>VLOOKUP($B90,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F90" s="10" t="e">
+        <f>VLOOKUP($B90,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G90" s="35" t="e">
+        <f>VLOOKUP($B90,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1">
+      <c r="A91" s="24">
+        <v>69</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="10" t="e">
+        <f>VLOOKUP($B91,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D91" s="10" t="e">
+        <f>VLOOKUP($B91,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E91" s="10" t="e">
+        <f>VLOOKUP($B91,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F91" s="10" t="e">
+        <f>VLOOKUP($B91,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G91" s="35" t="e">
+        <f>VLOOKUP($B91,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" customHeight="1">
+      <c r="A92" s="24">
+        <v>70</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="10" t="e">
+        <f>VLOOKUP($B92,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D92" s="10" t="e">
+        <f>VLOOKUP($B92,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E92" s="10" t="e">
+        <f>VLOOKUP($B92,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F92" s="10" t="e">
+        <f>VLOOKUP($B92,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G92" s="35" t="e">
+        <f>VLOOKUP($B92,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1">
+      <c r="A93" s="24">
+        <v>71</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="10" t="e">
+        <f>VLOOKUP($B93,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D93" s="10" t="e">
+        <f>VLOOKUP($B93,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E93" s="10" t="e">
+        <f>VLOOKUP($B93,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F93" s="10" t="e">
+        <f>VLOOKUP($B93,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G93" s="35" t="e">
+        <f>VLOOKUP($B93,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1">
+      <c r="A94" s="24">
+        <v>72</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="10" t="e">
+        <f>VLOOKUP($B94,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D94" s="10" t="e">
+        <f>VLOOKUP($B94,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E94" s="10" t="e">
+        <f>VLOOKUP($B94,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F94" s="10" t="e">
+        <f>VLOOKUP($B94,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G94" s="35" t="e">
+        <f>VLOOKUP($B94,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1">
+      <c r="A95" s="24">
+        <v>73</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="10" t="e">
+        <f>VLOOKUP($B95,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D95" s="10" t="e">
+        <f>VLOOKUP($B95,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E95" s="10" t="e">
+        <f>VLOOKUP($B95,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F95" s="10" t="e">
+        <f>VLOOKUP($B95,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G95" s="35" t="e">
+        <f>VLOOKUP($B95,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" customHeight="1">
+      <c r="A96" s="24">
+        <v>74</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="10" t="e">
+        <f>VLOOKUP($B96,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D96" s="10" t="e">
+        <f>VLOOKUP($B96,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E96" s="10" t="e">
+        <f>VLOOKUP($B96,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F96" s="10" t="e">
+        <f>VLOOKUP($B96,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G96" s="35" t="e">
+        <f>VLOOKUP($B96,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1">
+      <c r="A97" s="24">
+        <v>75</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="10" t="e">
+        <f>VLOOKUP($B97,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D97" s="10" t="e">
+        <f>VLOOKUP($B97,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E97" s="10" t="e">
+        <f>VLOOKUP($B97,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F97" s="10" t="e">
+        <f>VLOOKUP($B97,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G97" s="35" t="e">
+        <f>VLOOKUP($B97,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" customHeight="1">
+      <c r="A98" s="24">
+        <v>76</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="10" t="e">
+        <f>VLOOKUP($B98,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D98" s="10" t="e">
+        <f>VLOOKUP($B98,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E98" s="10" t="e">
+        <f>VLOOKUP($B98,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F98" s="10" t="e">
+        <f>VLOOKUP($B98,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G98" s="35" t="e">
+        <f>VLOOKUP($B98,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1">
+      <c r="A99" s="24">
+        <v>77</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="10" t="e">
+        <f>VLOOKUP($B99,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D99" s="10" t="e">
+        <f>VLOOKUP($B99,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E99" s="10" t="e">
+        <f>VLOOKUP($B99,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F99" s="10" t="e">
+        <f>VLOOKUP($B99,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G99" s="35" t="e">
+        <f>VLOOKUP($B99,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30">
+      <c r="A100" s="24">
+        <v>78</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="10" t="e">
+        <f>VLOOKUP($B100,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D100" s="10" t="e">
+        <f>VLOOKUP($B100,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E100" s="10" t="e">
+        <f>VLOOKUP($B100,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F100" s="10" t="e">
+        <f>VLOOKUP($B100,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" s="35" t="e">
+        <f>VLOOKUP($B100,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15">
+      <c r="A101" s="24">
+        <v>79</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="10" t="e">
+        <f>VLOOKUP($B101,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D101" s="10" t="e">
+        <f>VLOOKUP($B101,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E101" s="10" t="e">
+        <f>VLOOKUP($B101,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F101" s="10" t="e">
+        <f>VLOOKUP($B101,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" s="35" t="e">
+        <f>VLOOKUP($B101,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15">
+      <c r="A102" s="24">
+        <v>80</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="10" t="e">
+        <f>VLOOKUP($B102,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D102" s="10" t="e">
+        <f>VLOOKUP($B102,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E102" s="10" t="e">
+        <f>VLOOKUP($B102,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F102" s="10" t="e">
+        <f>VLOOKUP($B102,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G102" s="35" t="e">
+        <f>VLOOKUP($B102,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30">
+      <c r="A103" s="24">
+        <v>81</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="10" t="e">
+        <f>VLOOKUP($B103,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D103" s="10" t="e">
+        <f>VLOOKUP($B103,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E103" s="10" t="e">
+        <f>VLOOKUP($B103,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F103" s="10" t="e">
+        <f>VLOOKUP($B103,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G103" s="35" t="e">
+        <f>VLOOKUP($B103,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30">
+      <c r="A104" s="24">
+        <v>82</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="10" t="e">
+        <f>VLOOKUP($B104,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D104" s="10" t="e">
+        <f>VLOOKUP($B104,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E104" s="10" t="e">
+        <f>VLOOKUP($B104,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F104" s="10" t="e">
+        <f>VLOOKUP($B104,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G104" s="35" t="e">
+        <f>VLOOKUP($B104,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30">
+      <c r="A105" s="24">
+        <v>83</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="10" t="e">
+        <f>VLOOKUP($B105,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D105" s="10" t="e">
+        <f>VLOOKUP($B105,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E105" s="10" t="e">
+        <f>VLOOKUP($B105,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F105" s="10" t="e">
+        <f>VLOOKUP($B105,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G105" s="35" t="e">
+        <f>VLOOKUP($B105,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30">
+      <c r="A106" s="24">
+        <v>84</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="10" t="e">
+        <f>VLOOKUP($B106,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D106" s="10" t="e">
+        <f>VLOOKUP($B106,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E106" s="10" t="e">
+        <f>VLOOKUP($B106,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F106" s="10" t="e">
+        <f>VLOOKUP($B106,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G106" s="35" t="e">
+        <f>VLOOKUP($B106,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30">
+      <c r="A107" s="24">
+        <v>85</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="10" t="e">
+        <f>VLOOKUP($B107,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D107" s="10" t="e">
+        <f>VLOOKUP($B107,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E107" s="10" t="e">
+        <f>VLOOKUP($B107,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F107" s="10" t="e">
+        <f>VLOOKUP($B107,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G107" s="35" t="e">
+        <f>VLOOKUP($B107,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30">
+      <c r="A108" s="24">
+        <v>86</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="10" t="e">
+        <f>VLOOKUP($B108,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D108" s="10" t="e">
+        <f>VLOOKUP($B108,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E108" s="10" t="e">
+        <f>VLOOKUP($B108,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F108" s="10" t="e">
+        <f>VLOOKUP($B108,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G108" s="35" t="e">
+        <f>VLOOKUP($B108,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30">
+      <c r="A109" s="24">
+        <v>87</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C109" s="10" t="e">
+        <f>VLOOKUP($B109,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D109" s="10" t="e">
+        <f>VLOOKUP($B109,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E109" s="10" t="e">
+        <f>VLOOKUP($B109,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F109" s="10" t="e">
+        <f>VLOOKUP($B109,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G109" s="35" t="e">
+        <f>VLOOKUP($B109,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30">
+      <c r="A110" s="24">
+        <v>88</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="10" t="e">
+        <f>VLOOKUP($B110,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D110" s="10" t="e">
+        <f>VLOOKUP($B110,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E110" s="10" t="e">
+        <f>VLOOKUP($B110,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F110" s="10" t="e">
+        <f>VLOOKUP($B110,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G110" s="35" t="e">
+        <f>VLOOKUP($B110,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15">
+      <c r="A111" s="24">
+        <v>89</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" s="10" t="e">
+        <f>VLOOKUP($B111,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D111" s="10" t="e">
+        <f>VLOOKUP($B111,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E111" s="10" t="e">
+        <f>VLOOKUP($B111,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F111" s="10" t="e">
+        <f>VLOOKUP($B111,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G111" s="35" t="e">
+        <f>VLOOKUP($B111,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15">
+      <c r="A112" s="24">
+        <v>90</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="10" t="e">
+        <f>VLOOKUP($B112,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D112" s="10" t="e">
+        <f>VLOOKUP($B112,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E112" s="10" t="e">
+        <f>VLOOKUP($B112,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F112" s="10" t="e">
+        <f>VLOOKUP($B112,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G112" s="35" t="e">
+        <f>VLOOKUP($B112,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30">
+      <c r="A113" s="24">
+        <v>91</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="10" t="e">
+        <f>VLOOKUP($B113,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D113" s="10" t="e">
+        <f>VLOOKUP($B113,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E113" s="10" t="e">
+        <f>VLOOKUP($B113,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F113" s="10" t="e">
+        <f>VLOOKUP($B113,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G113" s="35" t="e">
+        <f>VLOOKUP($B113,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15">
+      <c r="A114" s="24">
+        <v>92</v>
+      </c>
+      <c r="B114" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" s="10" t="e">
+        <f>VLOOKUP($B114,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D114" s="10" t="e">
+        <f>VLOOKUP($B114,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E114" s="10" t="e">
+        <f>VLOOKUP($B114,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F114" s="10" t="e">
+        <f>VLOOKUP($B114,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" s="35" t="e">
+        <f>VLOOKUP($B114,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30">
+      <c r="A115" s="24">
+        <v>93</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="10" t="e">
+        <f>VLOOKUP($B115,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D115" s="10" t="e">
+        <f>VLOOKUP($B115,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E115" s="10" t="e">
+        <f>VLOOKUP($B115,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F115" s="10" t="e">
+        <f>VLOOKUP($B115,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G115" s="35" t="e">
+        <f>VLOOKUP($B115,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15">
+      <c r="A116" s="24">
+        <v>94</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="10" t="e">
+        <f>VLOOKUP($B116,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D116" s="10" t="e">
+        <f>VLOOKUP($B116,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E116" s="10" t="e">
+        <f>VLOOKUP($B116,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F116" s="10" t="e">
+        <f>VLOOKUP($B116,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G116" s="35" t="e">
+        <f>VLOOKUP($B116,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15">
+      <c r="A117" s="24">
+        <v>95</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="10" t="e">
+        <f>VLOOKUP($B117,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D117" s="10" t="e">
+        <f>VLOOKUP($B117,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E117" s="10" t="e">
+        <f>VLOOKUP($B117,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F117" s="10" t="e">
+        <f>VLOOKUP($B117,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G117" s="35" t="e">
+        <f>VLOOKUP($B117,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15">
+      <c r="A118" s="24">
+        <v>96</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="10" t="e">
+        <f>VLOOKUP($B118,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D118" s="10" t="e">
+        <f>VLOOKUP($B118,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E118" s="10" t="e">
+        <f>VLOOKUP($B118,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F118" s="10" t="e">
+        <f>VLOOKUP($B118,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G118" s="35" t="e">
+        <f>VLOOKUP($B118,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15">
+      <c r="A119" s="24">
+        <v>97</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" s="10" t="e">
+        <f>VLOOKUP($B119,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D119" s="10" t="e">
+        <f>VLOOKUP($B119,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E119" s="10" t="e">
+        <f>VLOOKUP($B119,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F119" s="10" t="e">
+        <f>VLOOKUP($B119,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G119" s="35" t="e">
+        <f>VLOOKUP($B119,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15">
+      <c r="A120" s="24">
+        <v>98</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="10" t="e">
+        <f>VLOOKUP($B120,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D120" s="10" t="e">
+        <f>VLOOKUP($B120,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E120" s="10" t="e">
+        <f>VLOOKUP($B120,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F120" s="10" t="e">
+        <f>VLOOKUP($B120,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G120" s="35" t="e">
+        <f>VLOOKUP($B120,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15">
+      <c r="A121" s="24">
+        <v>99</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="10" t="e">
+        <f>VLOOKUP($B121,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D121" s="10" t="e">
+        <f>VLOOKUP($B121,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E121" s="10" t="e">
+        <f>VLOOKUP($B121,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F121" s="10" t="e">
+        <f>VLOOKUP($B121,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G121" s="35" t="e">
+        <f>VLOOKUP($B121,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="45">
+      <c r="A122" s="24">
+        <v>100</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" s="10" t="e">
+        <f>VLOOKUP($B122,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D122" s="10" t="e">
+        <f>VLOOKUP($B122,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E122" s="10" t="e">
+        <f>VLOOKUP($B122,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F122" s="10" t="e">
+        <f>VLOOKUP($B122,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G122" s="35" t="e">
+        <f>VLOOKUP($B122,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15">
+      <c r="A123" s="24">
+        <v>101</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C123" s="10" t="e">
+        <f>VLOOKUP($B123,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D123" s="10" t="e">
+        <f>VLOOKUP($B123,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E123" s="10" t="e">
+        <f>VLOOKUP($B123,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F123" s="10" t="e">
+        <f>VLOOKUP($B123,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G123" s="35" t="e">
+        <f>VLOOKUP($B123,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15">
+      <c r="A124" s="24">
+        <v>102</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="10" t="e">
+        <f>VLOOKUP($B124,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D124" s="10" t="e">
+        <f>VLOOKUP($B124,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E124" s="10" t="e">
+        <f>VLOOKUP($B124,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F124" s="10" t="e">
+        <f>VLOOKUP($B124,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G124" s="35" t="e">
+        <f>VLOOKUP($B124,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30">
+      <c r="A125" s="24">
+        <v>103</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" s="10" t="e">
+        <f>VLOOKUP($B125,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D125" s="10" t="e">
+        <f>VLOOKUP($B125,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E125" s="10" t="e">
+        <f>VLOOKUP($B125,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F125" s="10" t="e">
+        <f>VLOOKUP($B125,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G125" s="35" t="e">
+        <f>VLOOKUP($B125,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15">
+      <c r="A126" s="24">
+        <v>104</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C126" s="10" t="e">
+        <f>VLOOKUP($B126,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D126" s="10" t="e">
+        <f>VLOOKUP($B126,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E126" s="10" t="e">
+        <f>VLOOKUP($B126,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F126" s="10" t="e">
+        <f>VLOOKUP($B126,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G126" s="35" t="e">
+        <f>VLOOKUP($B126,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30">
+      <c r="A127" s="24">
+        <v>105</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" s="10" t="e">
+        <f>VLOOKUP($B127,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D127" s="10" t="e">
+        <f>VLOOKUP($B127,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E127" s="10" t="e">
+        <f>VLOOKUP($B127,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F127" s="10" t="e">
+        <f>VLOOKUP($B127,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G127" s="35" t="e">
+        <f>VLOOKUP($B127,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15">
+      <c r="A128" s="24">
+        <v>106</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="10" t="e">
+        <f>VLOOKUP($B128,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D128" s="10" t="e">
+        <f>VLOOKUP($B128,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E128" s="10" t="e">
+        <f>VLOOKUP($B128,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F128" s="10" t="e">
+        <f>VLOOKUP($B128,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G128" s="35" t="e">
+        <f>VLOOKUP($B128,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15">
+      <c r="A129" s="24">
+        <v>107</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="10" t="e">
+        <f>VLOOKUP($B129,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D129" s="10" t="e">
+        <f>VLOOKUP($B129,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E129" s="10" t="e">
+        <f>VLOOKUP($B129,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F129" s="10" t="e">
+        <f>VLOOKUP($B129,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G129" s="35" t="e">
+        <f>VLOOKUP($B129,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30">
+      <c r="A130" s="24">
+        <v>108</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130" s="10" t="e">
+        <f>VLOOKUP($B130,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D130" s="10" t="e">
+        <f>VLOOKUP($B130,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E130" s="10" t="e">
+        <f>VLOOKUP($B130,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F130" s="10" t="e">
+        <f>VLOOKUP($B130,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G130" s="35" t="e">
+        <f>VLOOKUP($B130,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15">
+      <c r="A131" s="24">
+        <v>109</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C131" s="10" t="e">
+        <f>VLOOKUP($B131,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D131" s="10" t="e">
+        <f>VLOOKUP($B131,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E131" s="10" t="e">
+        <f>VLOOKUP($B131,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F131" s="10" t="e">
+        <f>VLOOKUP($B131,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G131" s="35" t="e">
+        <f>VLOOKUP($B131,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15">
+      <c r="A132" s="24">
+        <v>110</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C132" s="10" t="e">
+        <f>VLOOKUP($B132,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D132" s="10" t="e">
+        <f>VLOOKUP($B132,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E132" s="10" t="e">
+        <f>VLOOKUP($B132,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F132" s="10" t="e">
+        <f>VLOOKUP($B132,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G132" s="35" t="e">
+        <f>VLOOKUP($B132,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:G2"/>
+  <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист14"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="A89" sqref="A89:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="12.75"/>
@@ -8048,19 +11633,19 @@
         <v>84</v>
       </c>
       <c r="C3" s="21" t="e">
-        <f>SUM(C4+C7+C9+C19+C25+C29+C37+C41+C45+C47+C49+C51+C61+C65+C67+C69+C72+C78+C82)</f>
+        <f>C7+C9+C19+C25+C29+C37+C41+C45+C47+C49+C51+C61+C65+C68+C70+C73+C79+C83+C4</f>
         <v>#N/A</v>
       </c>
       <c r="D3" s="21" t="e">
-        <f>SUM(D4+D7+D9+D19+D25+D29+D37+D41+D45+D47+D49+D51+D61+D65+D67+D69+D72+D78+D82)</f>
+        <f>D7+D9+D19+D25+D29+D37+D41+D45+D47+D49+D51+D61+D65+D68+D70+D73+D79+D83+D4</f>
         <v>#N/A</v>
       </c>
       <c r="E3" s="21" t="e">
-        <f>SUM(E4+E7+E9+E19+E25+E29+E37+E41+E45+E47+E49+E51+E61+E65+E67+E69+E72+E78+E82)</f>
+        <f>E7+E9+E19+E25+E29+E37+E41+E45+E47+E49+E51+E61+E65+E68+E70+E73+E79+E83+E4</f>
         <v>#N/A</v>
       </c>
       <c r="F3" s="21" t="e">
-        <f>SUM(F4+F7+F9+F19+F25+F29+F37+F41+F45+F47+F49+F51+F61+F65+F67+F69+F72+F78+F82)</f>
+        <f>F7+F9+F19+F25+F29+F37+F41+F45+F47+F49+F51+F61+F65+F68+F70+F73+F79+F83+F4</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8094,19 +11679,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="10" t="e">
-        <f>VLOOKUP($B5,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B5,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D5" s="10" t="e">
-        <f>VLOOKUP($B5,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B5,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E5" s="10" t="e">
-        <f>VLOOKUP($B5,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B5,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F5" s="10" t="e">
-        <f>VLOOKUP($B5,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B5,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G5" s="35" t="e">
@@ -8122,19 +11707,19 @@
         <v>25</v>
       </c>
       <c r="C6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B6,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B6,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B6,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B6,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G6" s="35" t="e">
@@ -8172,19 +11757,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="10" t="e">
-        <f>VLOOKUP($B8,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B8,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D8" s="10" t="e">
-        <f>VLOOKUP($B8,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B8,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E8" s="10" t="e">
-        <f>VLOOKUP($B8,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B8,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F8" s="10" t="e">
-        <f>VLOOKUP($B8,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B8,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G8" s="35" t="e">
@@ -8222,19 +11807,19 @@
         <v>18</v>
       </c>
       <c r="C10" s="10" t="e">
-        <f>VLOOKUP($B10,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B10,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D10" s="10" t="e">
-        <f>VLOOKUP($B10,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B10,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E10" s="10" t="e">
-        <f>VLOOKUP($B10,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B10,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F10" s="10" t="e">
-        <f>VLOOKUP($B10,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B10,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G10" s="35" t="e">
@@ -8250,19 +11835,19 @@
         <v>37</v>
       </c>
       <c r="C11" s="10" t="e">
-        <f>VLOOKUP($B11,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B11,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D11" s="10" t="e">
-        <f>VLOOKUP($B11,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B11,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E11" s="10" t="e">
-        <f>VLOOKUP($B11,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B11,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F11" s="10" t="e">
-        <f>VLOOKUP($B11,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B11,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G11" s="35" t="e">
@@ -8278,19 +11863,19 @@
         <v>50</v>
       </c>
       <c r="C12" s="10" t="e">
-        <f>VLOOKUP($B12,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B12,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D12" s="10" t="e">
-        <f>VLOOKUP($B12,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B12,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E12" s="10" t="e">
-        <f>VLOOKUP($B12,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B12,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F12" s="10" t="e">
-        <f>VLOOKUP($B12,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B12,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G12" s="35" t="e">
@@ -8306,19 +11891,19 @@
         <v>51</v>
       </c>
       <c r="C13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B13,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B13,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B13,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B13,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G13" s="35" t="e">
@@ -8334,19 +11919,19 @@
         <v>115</v>
       </c>
       <c r="C14" s="10" t="e">
-        <f>VLOOKUP($B14,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B14,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D14" s="10" t="e">
-        <f>VLOOKUP($B14,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B14,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E14" s="10" t="e">
-        <f>VLOOKUP($B14,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B14,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F14" s="10" t="e">
-        <f>VLOOKUP($B14,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B14,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G14" s="35" t="e">
@@ -8362,19 +11947,19 @@
         <v>116</v>
       </c>
       <c r="C15" s="10" t="e">
-        <f>VLOOKUP($B15,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B15,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D15" s="10" t="e">
-        <f>VLOOKUP($B15,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B15,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E15" s="10" t="e">
-        <f>VLOOKUP($B15,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B15,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F15" s="10" t="e">
-        <f>VLOOKUP($B15,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B15,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G15" s="35" t="e">
@@ -8390,19 +11975,19 @@
         <v>117</v>
       </c>
       <c r="C16" s="10" t="e">
-        <f>VLOOKUP($B16,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B16,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D16" s="10" t="e">
-        <f>VLOOKUP($B16,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B16,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E16" s="10" t="e">
-        <f>VLOOKUP($B16,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B16,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F16" s="10" t="e">
-        <f>VLOOKUP($B16,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B16,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G16" s="35" t="e">
@@ -8418,19 +12003,19 @@
         <v>118</v>
       </c>
       <c r="C17" s="10" t="e">
-        <f>VLOOKUP($B17,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B17,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D17" s="10" t="e">
-        <f>VLOOKUP($B17,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B17,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E17" s="10" t="e">
-        <f>VLOOKUP($B17,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B17,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F17" s="10" t="e">
-        <f>VLOOKUP($B17,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B17,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G17" s="35" t="e">
@@ -8446,19 +12031,19 @@
         <v>70</v>
       </c>
       <c r="C18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B18,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B18,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B18,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B18,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G18" s="35" t="e">
@@ -8496,19 +12081,19 @@
         <v>38</v>
       </c>
       <c r="C20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B20,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B20,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B20,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B20,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G20" s="35" t="e">
@@ -8524,19 +12109,19 @@
         <v>119</v>
       </c>
       <c r="C21" s="10" t="e">
-        <f>VLOOKUP($B21,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B21,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D21" s="10" t="e">
-        <f>VLOOKUP($B21,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B21,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E21" s="10" t="e">
-        <f>VLOOKUP($B21,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B21,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F21" s="10" t="e">
-        <f>VLOOKUP($B21,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B21,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G21" s="35" t="e">
@@ -8552,19 +12137,19 @@
         <v>57</v>
       </c>
       <c r="C22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B22,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B22,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B22,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B22,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G22" s="35" t="e">
@@ -8580,19 +12165,19 @@
         <v>66</v>
       </c>
       <c r="C23" s="10" t="e">
-        <f>VLOOKUP($B23,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B23,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D23" s="10" t="e">
-        <f>VLOOKUP($B23,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B23,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E23" s="10" t="e">
-        <f>VLOOKUP($B23,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B23,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F23" s="10" t="e">
-        <f>VLOOKUP($B23,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B23,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G23" s="35" t="e">
@@ -8608,19 +12193,19 @@
         <v>49</v>
       </c>
       <c r="C24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B24,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B24,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B24,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B24,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G24" s="35" t="e">
@@ -8638,15 +12223,15 @@
         <v>#N/A</v>
       </c>
       <c r="D25" s="22" t="e">
-        <f>SUM(D26+D27+D28)</f>
+        <f>SUM(D26:D28)</f>
         <v>#N/A</v>
       </c>
       <c r="E25" s="22" t="e">
-        <f>SUM(E26+E27+E28)</f>
+        <f>SUM(E26:E28)</f>
         <v>#N/A</v>
       </c>
       <c r="F25" s="22" t="e">
-        <f>SUM(F26+F27+F28)</f>
+        <f>SUM(F26:F28)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8658,19 +12243,19 @@
         <v>23</v>
       </c>
       <c r="C26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B26,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B26,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B26,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B26,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G26" s="35" t="e">
@@ -8686,19 +12271,19 @@
         <v>32</v>
       </c>
       <c r="C27" s="10" t="e">
-        <f>VLOOKUP($B27,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B27,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D27" s="10" t="e">
-        <f>VLOOKUP($B27,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B27,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E27" s="10" t="e">
-        <f>VLOOKUP($B27,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B27,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F27" s="10" t="e">
-        <f>VLOOKUP($B27,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B27,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G27" s="35" t="e">
@@ -8714,19 +12299,19 @@
         <v>45</v>
       </c>
       <c r="C28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B28,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B28,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B28,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B28,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G28" s="35" t="e">
@@ -8740,7 +12325,7 @@
         <v>90</v>
       </c>
       <c r="C29" s="26" t="e">
-        <f>SUM(C30:C36)</f>
+        <f>SUM(C30+C31+C32+C33+C34+C35+C36)</f>
         <v>#N/A</v>
       </c>
       <c r="D29" s="26" t="e">
@@ -8760,23 +12345,23 @@
       <c r="A30" s="24">
         <v>21</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="10" t="e">
-        <f>VLOOKUP($B30,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B30,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D30" s="10" t="e">
-        <f>VLOOKUP($B30,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B30,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E30" s="10" t="e">
-        <f>VLOOKUP($B30,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B30,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F30" s="10" t="e">
-        <f>VLOOKUP($B30,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B30,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G30" s="35" t="e">
@@ -8792,19 +12377,19 @@
         <v>41</v>
       </c>
       <c r="C31" s="10" t="e">
-        <f>VLOOKUP($B31,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B31,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D31" s="10" t="e">
-        <f>VLOOKUP($B31,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B31,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E31" s="10" t="e">
-        <f>VLOOKUP($B31,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B31,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F31" s="10" t="e">
-        <f>VLOOKUP($B31,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B31,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G31" s="35" t="e">
@@ -8820,19 +12405,19 @@
         <v>120</v>
       </c>
       <c r="C32" s="10" t="e">
-        <f>VLOOKUP($B32,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B32,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D32" s="10" t="e">
-        <f>VLOOKUP($B32,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B32,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E32" s="10" t="e">
-        <f>VLOOKUP($B32,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B32,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F32" s="10" t="e">
-        <f>VLOOKUP($B32,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B32,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G32" s="35" t="e">
@@ -8848,19 +12433,19 @@
         <v>68</v>
       </c>
       <c r="C33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B33,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B33,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B33,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B33,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G33" s="35" t="e">
@@ -8876,19 +12461,19 @@
         <v>40</v>
       </c>
       <c r="C34" s="10" t="e">
-        <f>VLOOKUP($B34,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B34,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D34" s="10" t="e">
-        <f>VLOOKUP($B34,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B34,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E34" s="10" t="e">
-        <f>VLOOKUP($B34,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B34,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F34" s="10" t="e">
-        <f>VLOOKUP($B34,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B34,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G34" s="35" t="e">
@@ -8904,19 +12489,19 @@
         <v>22</v>
       </c>
       <c r="C35" s="10" t="e">
-        <f>VLOOKUP($B35,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B35,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D35" s="10" t="e">
-        <f>VLOOKUP($B35,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B35,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E35" s="10" t="e">
-        <f>VLOOKUP($B35,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B35,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F35" s="10" t="e">
-        <f>VLOOKUP($B35,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B35,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G35" s="35" t="e">
@@ -8932,19 +12517,19 @@
         <v>48</v>
       </c>
       <c r="C36" s="10" t="e">
-        <f>VLOOKUP($B36,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B36,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D36" s="10" t="e">
-        <f>VLOOKUP($B36,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B36,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E36" s="10" t="e">
-        <f>VLOOKUP($B36,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B36,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F36" s="10" t="e">
-        <f>VLOOKUP($B36,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B36,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G36" s="35" t="e">
@@ -8958,7 +12543,7 @@
         <v>91</v>
       </c>
       <c r="C37" s="26" t="e">
-        <f>SUM(C38:C40)</f>
+        <f>SUM(C38+C39+C40)</f>
         <v>#N/A</v>
       </c>
       <c r="D37" s="26" t="e">
@@ -8982,19 +12567,19 @@
         <v>19</v>
       </c>
       <c r="C38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B38,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B38,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B38,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B38,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G38" s="35" t="e">
@@ -9010,19 +12595,19 @@
         <v>55</v>
       </c>
       <c r="C39" s="10" t="e">
-        <f>VLOOKUP($B39,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B39,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D39" s="10" t="e">
-        <f>VLOOKUP($B39,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B39,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E39" s="10" t="e">
-        <f>VLOOKUP($B39,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B39,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F39" s="10" t="e">
-        <f>VLOOKUP($B39,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B39,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G39" s="35" t="e">
@@ -9038,19 +12623,19 @@
         <v>69</v>
       </c>
       <c r="C40" s="10" t="e">
-        <f>VLOOKUP($B40,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B40,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D40" s="10" t="e">
-        <f>VLOOKUP($B40,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B40,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E40" s="10" t="e">
-        <f>VLOOKUP($B40,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B40,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F40" s="10" t="e">
-        <f>VLOOKUP($B40,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B40,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G40" s="35" t="e">
@@ -9064,7 +12649,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="22" t="e">
-        <f>SUM(C42:C44)</f>
+        <f>SUM(C42+C43+C44)</f>
         <v>#N/A</v>
       </c>
       <c r="D41" s="22" t="e">
@@ -9088,19 +12673,19 @@
         <v>46</v>
       </c>
       <c r="C42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B42,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B42,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B42,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B42,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G42" s="35" t="e">
@@ -9116,19 +12701,19 @@
         <v>47</v>
       </c>
       <c r="C43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B43,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B43,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B43,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B43,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G43" s="35" t="e">
@@ -9144,19 +12729,19 @@
         <v>54</v>
       </c>
       <c r="C44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B44,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B44,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B44,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B44,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G44" s="35" t="e">
@@ -9194,19 +12779,19 @@
         <v>42</v>
       </c>
       <c r="C46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B46,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B46,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B46,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B46,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G46" s="35" t="e">
@@ -9244,19 +12829,19 @@
         <v>13</v>
       </c>
       <c r="C48" s="10" t="e">
-        <f>VLOOKUP($B48,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B48,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D48" s="10" t="e">
-        <f>VLOOKUP($B48,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B48,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E48" s="10" t="e">
-        <f>VLOOKUP($B48,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B48,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F48" s="10" t="e">
-        <f>VLOOKUP($B48,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B48,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G48" s="35" t="e">
@@ -9294,19 +12879,19 @@
         <v>36</v>
       </c>
       <c r="C50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B50,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B50,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B50,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B50,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G50" s="35" t="e">
@@ -9320,7 +12905,7 @@
         <v>96</v>
       </c>
       <c r="C51" s="26" t="e">
-        <f>SUM(C52:C60)</f>
+        <f>SUM(C52+C53+C54+C55+C56+C57+C58+C59+C60)</f>
         <v>#N/A</v>
       </c>
       <c r="D51" s="26" t="e">
@@ -9344,19 +12929,19 @@
         <v>17</v>
       </c>
       <c r="C52" s="10" t="e">
-        <f>VLOOKUP($B52,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B52,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D52" s="10" t="e">
-        <f>VLOOKUP($B52,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B52,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E52" s="10" t="e">
-        <f>VLOOKUP($B52,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B52,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F52" s="10" t="e">
-        <f>VLOOKUP($B52,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B52,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G52" s="35" t="e">
@@ -9372,19 +12957,19 @@
         <v>34</v>
       </c>
       <c r="C53" s="10" t="e">
-        <f>VLOOKUP($B53,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B53,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D53" s="10" t="e">
-        <f>VLOOKUP($B53,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B53,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E53" s="10" t="e">
-        <f>VLOOKUP($B53,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B53,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F53" s="10" t="e">
-        <f>VLOOKUP($B53,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B53,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G53" s="35" t="e">
@@ -9400,19 +12985,19 @@
         <v>121</v>
       </c>
       <c r="C54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B54,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B54,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B54,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B54,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G54" s="35" t="e">
@@ -9428,19 +13013,19 @@
         <v>122</v>
       </c>
       <c r="C55" s="10" t="e">
-        <f>VLOOKUP($B55,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B55,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D55" s="10" t="e">
-        <f>VLOOKUP($B55,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B55,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E55" s="10" t="e">
-        <f>VLOOKUP($B55,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B55,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F55" s="10" t="e">
-        <f>VLOOKUP($B55,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B55,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G55" s="35" t="e">
@@ -9456,19 +13041,19 @@
         <v>123</v>
       </c>
       <c r="C56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B56,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B56,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B56,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B56,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G56" s="35" t="e">
@@ -9484,19 +13069,19 @@
         <v>124</v>
       </c>
       <c r="C57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B57,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B57,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B57,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B57,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G57" s="35" t="e">
@@ -9512,19 +13097,19 @@
         <v>125</v>
       </c>
       <c r="C58" s="10" t="e">
-        <f>VLOOKUP($B58,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B58,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D58" s="10" t="e">
-        <f>VLOOKUP($B58,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B58,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E58" s="10" t="e">
-        <f>VLOOKUP($B58,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B58,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F58" s="10" t="e">
-        <f>VLOOKUP($B58,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B58,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G58" s="35" t="e">
@@ -9540,19 +13125,19 @@
         <v>126</v>
       </c>
       <c r="C59" s="10" t="e">
-        <f>VLOOKUP($B59,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B59,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D59" s="10" t="e">
-        <f>VLOOKUP($B59,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B59,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E59" s="10" t="e">
-        <f>VLOOKUP($B59,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B59,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F59" s="10" t="e">
-        <f>VLOOKUP($B59,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B59,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G59" s="35" t="e">
@@ -9568,19 +13153,19 @@
         <v>71</v>
       </c>
       <c r="C60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B60,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B60,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B60,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B60,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G60" s="35" t="e">
@@ -9594,7 +13179,7 @@
         <v>97</v>
       </c>
       <c r="C61" s="26" t="e">
-        <f>SUM(C62:C64)</f>
+        <f>SUM(C62+C63+C64)</f>
         <v>#N/A</v>
       </c>
       <c r="D61" s="26" t="e">
@@ -9618,19 +13203,19 @@
         <v>27</v>
       </c>
       <c r="C62" s="10" t="e">
-        <f>VLOOKUP($B62,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B62,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D62" s="10" t="e">
-        <f>VLOOKUP($B62,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B62,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E62" s="10" t="e">
-        <f>VLOOKUP($B62,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B62,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F62" s="10" t="e">
-        <f>VLOOKUP($B62,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B62,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G62" s="35" t="e">
@@ -9646,19 +13231,19 @@
         <v>52</v>
       </c>
       <c r="C63" s="10" t="e">
-        <f>VLOOKUP($B63,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B63,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D63" s="10" t="e">
-        <f>VLOOKUP($B63,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B63,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E63" s="10" t="e">
-        <f>VLOOKUP($B63,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B63,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F63" s="10" t="e">
-        <f>VLOOKUP($B63,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B63,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G63" s="35" t="e">
@@ -9674,19 +13259,19 @@
         <v>28</v>
       </c>
       <c r="C64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 03'!$D:$J, 3, 0)</f>
+        <f>VLOOKUP($B64,'part 04'!$D:$J, 3, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="D64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 03'!$D:$J, 5, 0)</f>
+        <f>VLOOKUP($B64,'part 04'!$D:$J, 5, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="E64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 03'!$D:$J, 6, 0)</f>
+        <f>VLOOKUP($B64,'part 04'!$D:$J, 6, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="F64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 03'!$D:$J, 7, 0)</f>
+        <f>VLOOKUP($B64,'part 04'!$D:$J, 7, 0)</f>
         <v>#N/A</v>
       </c>
       <c r="G64" s="35" t="e">
@@ -9700,3621 +13285,6 @@
         <v>98</v>
       </c>
       <c r="C65" s="26" t="e">
-        <f>SUM(C66)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D65" s="26" t="e">
-        <f>SUM(D66)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="26" t="e">
-        <f>SUM(E66)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F65" s="26" t="e">
-        <f>SUM(F66)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" s="24">
-        <v>49</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G66" s="35" t="e">
-        <f>VLOOKUP($B66,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="18" customHeight="1">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="26" t="e">
-        <f>SUM(C68)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D67" s="26" t="e">
-        <f>SUM(D68)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="26" t="e">
-        <f>SUM(E68)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F67" s="26" t="e">
-        <f>SUM(F68)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" customHeight="1">
-      <c r="A68" s="24">
-        <v>50</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="10" t="e">
-        <f>VLOOKUP($B68,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D68" s="10" t="e">
-        <f>VLOOKUP($B68,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="10" t="e">
-        <f>VLOOKUP($B68,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F68" s="10" t="e">
-        <f>VLOOKUP($B68,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G68" s="35" t="e">
-        <f>VLOOKUP($B68,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="22" t="e">
-        <f>SUM(C70:C71)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D69" s="22" t="e">
-        <f>SUM(D70:D71)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="22" t="e">
-        <f>SUM(E70:E71)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F69" s="22" t="e">
-        <f>SUM(F70:F71)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1">
-      <c r="A70" s="24">
-        <v>51</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="10" t="e">
-        <f>VLOOKUP($B70,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D70" s="10" t="e">
-        <f>VLOOKUP($B70,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="10" t="e">
-        <f>VLOOKUP($B70,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F70" s="10" t="e">
-        <f>VLOOKUP($B70,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G70" s="35" t="e">
-        <f>VLOOKUP($B70,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="18" customHeight="1">
-      <c r="A71" s="24">
-        <v>52</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="10" t="e">
-        <f>VLOOKUP($B71,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D71" s="10" t="e">
-        <f>VLOOKUP($B71,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="10" t="e">
-        <f>VLOOKUP($B71,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F71" s="10" t="e">
-        <f>VLOOKUP($B71,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G71" s="35" t="e">
-        <f>VLOOKUP($B71,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="22" t="e">
-        <f>SUM(C73:C77)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D72" s="22" t="e">
-        <f>SUM(D73:D77)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="22" t="e">
-        <f>SUM(E73:E77)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F72" s="22" t="e">
-        <f>SUM(F73:F77)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1">
-      <c r="A73" s="24">
-        <v>53</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="10" t="e">
-        <f>VLOOKUP($B73,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D73" s="10" t="e">
-        <f>VLOOKUP($B73,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="10" t="e">
-        <f>VLOOKUP($B73,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F73" s="10" t="e">
-        <f>VLOOKUP($B73,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G73" s="35" t="e">
-        <f>VLOOKUP($B73,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1">
-      <c r="A74" s="24">
-        <v>54</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="10" t="e">
-        <f>VLOOKUP($B74,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D74" s="10" t="e">
-        <f>VLOOKUP($B74,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E74" s="10" t="e">
-        <f>VLOOKUP($B74,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F74" s="10" t="e">
-        <f>VLOOKUP($B74,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G74" s="35" t="e">
-        <f>VLOOKUP($B74,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1">
-      <c r="A75" s="24">
-        <v>55</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="10" t="e">
-        <f>VLOOKUP($B75,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D75" s="10" t="e">
-        <f>VLOOKUP($B75,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="10" t="e">
-        <f>VLOOKUP($B75,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F75" s="10" t="e">
-        <f>VLOOKUP($B75,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G75" s="35" t="e">
-        <f>VLOOKUP($B75,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1">
-      <c r="A76" s="24">
-        <v>56</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="10" t="e">
-        <f>VLOOKUP($B76,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D76" s="10" t="e">
-        <f>VLOOKUP($B76,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E76" s="10" t="e">
-        <f>VLOOKUP($B76,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F76" s="10" t="e">
-        <f>VLOOKUP($B76,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G76" s="35" t="e">
-        <f>VLOOKUP($B76,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="18" customHeight="1">
-      <c r="A77" s="24">
-        <v>57</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="10" t="e">
-        <f>VLOOKUP($B77,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D77" s="10" t="e">
-        <f>VLOOKUP($B77,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="10" t="e">
-        <f>VLOOKUP($B77,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F77" s="10" t="e">
-        <f>VLOOKUP($B77,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G77" s="35" t="e">
-        <f>VLOOKUP($B77,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78" s="22" t="e">
-        <f>SUM(C79:C81)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D78" s="22" t="e">
-        <f>SUM(D79:D81)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E78" s="22" t="e">
-        <f>SUM(E79:E81)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F78" s="22" t="e">
-        <f>SUM(F79:F81)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1">
-      <c r="A79" s="24">
-        <v>58</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="10" t="e">
-        <f>VLOOKUP($B79,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D79" s="10" t="e">
-        <f>VLOOKUP($B79,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E79" s="10" t="e">
-        <f>VLOOKUP($B79,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F79" s="10" t="e">
-        <f>VLOOKUP($B79,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G79" s="35" t="e">
-        <f>VLOOKUP($B79,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1">
-      <c r="A80" s="24">
-        <v>59</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="10" t="e">
-        <f>VLOOKUP($B80,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D80" s="10" t="e">
-        <f>VLOOKUP($B80,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="10" t="e">
-        <f>VLOOKUP($B80,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F80" s="10" t="e">
-        <f>VLOOKUP($B80,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G80" s="35" t="e">
-        <f>VLOOKUP($B80,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1">
-      <c r="A81" s="24">
-        <v>60</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="10" t="e">
-        <f>VLOOKUP($B81,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D81" s="10" t="e">
-        <f>VLOOKUP($B81,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="10" t="e">
-        <f>VLOOKUP($B81,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F81" s="10" t="e">
-        <f>VLOOKUP($B81,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G81" s="35" t="e">
-        <f>VLOOKUP($B81,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="36" customHeight="1">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="22" t="e">
-        <f>SUM(C83:C133)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D82" s="22" t="e">
-        <f>SUM(D83:D133)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="22" t="e">
-        <f>SUM(E83:E133)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F82" s="22" t="e">
-        <f>SUM(F83:F133)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1">
-      <c r="A83" s="24">
-        <v>61</v>
-      </c>
-      <c r="B83" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" s="10" t="e">
-        <f>VLOOKUP($B83,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D83" s="10" t="e">
-        <f>VLOOKUP($B83,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="10" t="e">
-        <f>VLOOKUP($B83,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F83" s="10" t="e">
-        <f>VLOOKUP($B83,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G83" s="35" t="e">
-        <f>VLOOKUP($B83,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1">
-      <c r="A84" s="24">
-        <v>62</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="10" t="e">
-        <f>VLOOKUP($B84,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D84" s="10" t="e">
-        <f>VLOOKUP($B84,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E84" s="10" t="e">
-        <f>VLOOKUP($B84,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F84" s="10" t="e">
-        <f>VLOOKUP($B84,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G84" s="35" t="e">
-        <f>VLOOKUP($B84,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="45" customHeight="1">
-      <c r="A85" s="24">
-        <v>63</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" s="10" t="e">
-        <f>VLOOKUP($B85,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D85" s="10" t="e">
-        <f>VLOOKUP($B85,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E85" s="10" t="e">
-        <f>VLOOKUP($B85,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F85" s="10" t="e">
-        <f>VLOOKUP($B85,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G85" s="35" t="e">
-        <f>VLOOKUP($B85,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1">
-      <c r="A86" s="24">
-        <v>64</v>
-      </c>
-      <c r="B86" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="10" t="e">
-        <f>VLOOKUP($B86,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D86" s="10" t="e">
-        <f>VLOOKUP($B86,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E86" s="10" t="e">
-        <f>VLOOKUP($B86,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F86" s="10" t="e">
-        <f>VLOOKUP($B86,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G86" s="35" t="e">
-        <f>VLOOKUP($B86,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1">
-      <c r="A87" s="24">
-        <v>65</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C87" s="10" t="e">
-        <f>VLOOKUP($B87,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D87" s="10" t="e">
-        <f>VLOOKUP($B87,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E87" s="10" t="e">
-        <f>VLOOKUP($B87,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F87" s="10" t="e">
-        <f>VLOOKUP($B87,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G87" s="35" t="e">
-        <f>VLOOKUP($B87,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" customHeight="1">
-      <c r="A88" s="24">
-        <v>66</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="10" t="e">
-        <f>VLOOKUP($B88,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D88" s="10" t="e">
-        <f>VLOOKUP($B88,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E88" s="10" t="e">
-        <f>VLOOKUP($B88,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F88" s="10" t="e">
-        <f>VLOOKUP($B88,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G88" s="35" t="e">
-        <f>VLOOKUP($B88,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1">
-      <c r="A89" s="24">
-        <v>67</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C89" s="10" t="e">
-        <f>VLOOKUP($B89,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D89" s="10" t="e">
-        <f>VLOOKUP($B89,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E89" s="10" t="e">
-        <f>VLOOKUP($B89,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F89" s="10" t="e">
-        <f>VLOOKUP($B89,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G89" s="35" t="e">
-        <f>VLOOKUP($B89,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" customHeight="1">
-      <c r="A90" s="24">
-        <v>68</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C90" s="10" t="e">
-        <f>VLOOKUP($B90,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D90" s="10" t="e">
-        <f>VLOOKUP($B90,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E90" s="10" t="e">
-        <f>VLOOKUP($B90,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F90" s="10" t="e">
-        <f>VLOOKUP($B90,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G90" s="35" t="e">
-        <f>VLOOKUP($B90,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1">
-      <c r="A91" s="24">
-        <v>69</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" s="10" t="e">
-        <f>VLOOKUP($B91,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D91" s="10" t="e">
-        <f>VLOOKUP($B91,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E91" s="10" t="e">
-        <f>VLOOKUP($B91,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F91" s="10" t="e">
-        <f>VLOOKUP($B91,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G91" s="35" t="e">
-        <f>VLOOKUP($B91,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="30" customHeight="1">
-      <c r="A92" s="24">
-        <v>70</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C92" s="10" t="e">
-        <f>VLOOKUP($B92,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D92" s="10" t="e">
-        <f>VLOOKUP($B92,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E92" s="10" t="e">
-        <f>VLOOKUP($B92,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F92" s="10" t="e">
-        <f>VLOOKUP($B92,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G92" s="35" t="e">
-        <f>VLOOKUP($B92,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" customHeight="1">
-      <c r="A93" s="24">
-        <v>71</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" s="10" t="e">
-        <f>VLOOKUP($B93,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D93" s="10" t="e">
-        <f>VLOOKUP($B93,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E93" s="10" t="e">
-        <f>VLOOKUP($B93,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F93" s="10" t="e">
-        <f>VLOOKUP($B93,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G93" s="35" t="e">
-        <f>VLOOKUP($B93,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1">
-      <c r="A94" s="24">
-        <v>72</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="10" t="e">
-        <f>VLOOKUP($B94,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D94" s="10" t="e">
-        <f>VLOOKUP($B94,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E94" s="10" t="e">
-        <f>VLOOKUP($B94,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F94" s="10" t="e">
-        <f>VLOOKUP($B94,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G94" s="35" t="e">
-        <f>VLOOKUP($B94,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1">
-      <c r="A95" s="24">
-        <v>73</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="10" t="e">
-        <f>VLOOKUP($B95,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D95" s="10" t="e">
-        <f>VLOOKUP($B95,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E95" s="10" t="e">
-        <f>VLOOKUP($B95,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F95" s="10" t="e">
-        <f>VLOOKUP($B95,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G95" s="35" t="e">
-        <f>VLOOKUP($B95,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1">
-      <c r="A96" s="24">
-        <v>74</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="10" t="e">
-        <f>VLOOKUP($B96,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D96" s="10" t="e">
-        <f>VLOOKUP($B96,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E96" s="10" t="e">
-        <f>VLOOKUP($B96,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F96" s="10" t="e">
-        <f>VLOOKUP($B96,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G96" s="35" t="e">
-        <f>VLOOKUP($B96,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1">
-      <c r="A97" s="24">
-        <v>75</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" s="10" t="e">
-        <f>VLOOKUP($B97,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D97" s="10" t="e">
-        <f>VLOOKUP($B97,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E97" s="10" t="e">
-        <f>VLOOKUP($B97,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F97" s="10" t="e">
-        <f>VLOOKUP($B97,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G97" s="35" t="e">
-        <f>VLOOKUP($B97,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1">
-      <c r="A98" s="24">
-        <v>76</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" s="10" t="e">
-        <f>VLOOKUP($B98,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D98" s="10" t="e">
-        <f>VLOOKUP($B98,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E98" s="10" t="e">
-        <f>VLOOKUP($B98,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F98" s="10" t="e">
-        <f>VLOOKUP($B98,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G98" s="35" t="e">
-        <f>VLOOKUP($B98,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" customHeight="1">
-      <c r="A99" s="24">
-        <v>77</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C99" s="10" t="e">
-        <f>VLOOKUP($B99,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D99" s="10" t="e">
-        <f>VLOOKUP($B99,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E99" s="10" t="e">
-        <f>VLOOKUP($B99,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F99" s="10" t="e">
-        <f>VLOOKUP($B99,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G99" s="35" t="e">
-        <f>VLOOKUP($B99,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1">
-      <c r="A100" s="24">
-        <v>78</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C100" s="10" t="e">
-        <f>VLOOKUP($B100,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D100" s="10" t="e">
-        <f>VLOOKUP($B100,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E100" s="10" t="e">
-        <f>VLOOKUP($B100,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F100" s="10" t="e">
-        <f>VLOOKUP($B100,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G100" s="35" t="e">
-        <f>VLOOKUP($B100,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="30">
-      <c r="A101" s="24">
-        <v>79</v>
-      </c>
-      <c r="B101" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C101" s="10" t="e">
-        <f>VLOOKUP($B101,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D101" s="10" t="e">
-        <f>VLOOKUP($B101,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E101" s="10" t="e">
-        <f>VLOOKUP($B101,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F101" s="10" t="e">
-        <f>VLOOKUP($B101,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G101" s="35" t="e">
-        <f>VLOOKUP($B101,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15">
-      <c r="A102" s="24">
-        <v>80</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C102" s="10" t="e">
-        <f>VLOOKUP($B102,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D102" s="10" t="e">
-        <f>VLOOKUP($B102,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E102" s="10" t="e">
-        <f>VLOOKUP($B102,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F102" s="10" t="e">
-        <f>VLOOKUP($B102,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G102" s="35" t="e">
-        <f>VLOOKUP($B102,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15">
-      <c r="A103" s="24">
-        <v>81</v>
-      </c>
-      <c r="B103" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="10" t="e">
-        <f>VLOOKUP($B103,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D103" s="10" t="e">
-        <f>VLOOKUP($B103,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E103" s="10" t="e">
-        <f>VLOOKUP($B103,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F103" s="10" t="e">
-        <f>VLOOKUP($B103,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G103" s="35" t="e">
-        <f>VLOOKUP($B103,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="30">
-      <c r="A104" s="24">
-        <v>82</v>
-      </c>
-      <c r="B104" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C104" s="10" t="e">
-        <f>VLOOKUP($B104,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D104" s="10" t="e">
-        <f>VLOOKUP($B104,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E104" s="10" t="e">
-        <f>VLOOKUP($B104,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F104" s="10" t="e">
-        <f>VLOOKUP($B104,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G104" s="35" t="e">
-        <f>VLOOKUP($B104,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="30">
-      <c r="A105" s="24">
-        <v>83</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C105" s="10" t="e">
-        <f>VLOOKUP($B105,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D105" s="10" t="e">
-        <f>VLOOKUP($B105,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E105" s="10" t="e">
-        <f>VLOOKUP($B105,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F105" s="10" t="e">
-        <f>VLOOKUP($B105,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G105" s="35" t="e">
-        <f>VLOOKUP($B105,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="30">
-      <c r="A106" s="24">
-        <v>84</v>
-      </c>
-      <c r="B106" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C106" s="10" t="e">
-        <f>VLOOKUP($B106,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D106" s="10" t="e">
-        <f>VLOOKUP($B106,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E106" s="10" t="e">
-        <f>VLOOKUP($B106,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F106" s="10" t="e">
-        <f>VLOOKUP($B106,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G106" s="35" t="e">
-        <f>VLOOKUP($B106,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30">
-      <c r="A107" s="24">
-        <v>85</v>
-      </c>
-      <c r="B107" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" s="10" t="e">
-        <f>VLOOKUP($B107,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D107" s="10" t="e">
-        <f>VLOOKUP($B107,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E107" s="10" t="e">
-        <f>VLOOKUP($B107,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F107" s="10" t="e">
-        <f>VLOOKUP($B107,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G107" s="35" t="e">
-        <f>VLOOKUP($B107,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30">
-      <c r="A108" s="24">
-        <v>86</v>
-      </c>
-      <c r="B108" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C108" s="10" t="e">
-        <f>VLOOKUP($B108,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D108" s="10" t="e">
-        <f>VLOOKUP($B108,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E108" s="10" t="e">
-        <f>VLOOKUP($B108,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F108" s="10" t="e">
-        <f>VLOOKUP($B108,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G108" s="35" t="e">
-        <f>VLOOKUP($B108,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="30">
-      <c r="A109" s="24">
-        <v>87</v>
-      </c>
-      <c r="B109" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C109" s="10" t="e">
-        <f>VLOOKUP($B109,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D109" s="10" t="e">
-        <f>VLOOKUP($B109,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E109" s="10" t="e">
-        <f>VLOOKUP($B109,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F109" s="10" t="e">
-        <f>VLOOKUP($B109,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G109" s="35" t="e">
-        <f>VLOOKUP($B109,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30">
-      <c r="A110" s="24">
-        <v>88</v>
-      </c>
-      <c r="B110" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C110" s="10" t="e">
-        <f>VLOOKUP($B110,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D110" s="10" t="e">
-        <f>VLOOKUP($B110,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E110" s="10" t="e">
-        <f>VLOOKUP($B110,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F110" s="10" t="e">
-        <f>VLOOKUP($B110,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G110" s="35" t="e">
-        <f>VLOOKUP($B110,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="30">
-      <c r="A111" s="24">
-        <v>89</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C111" s="10" t="e">
-        <f>VLOOKUP($B111,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D111" s="10" t="e">
-        <f>VLOOKUP($B111,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E111" s="10" t="e">
-        <f>VLOOKUP($B111,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F111" s="10" t="e">
-        <f>VLOOKUP($B111,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G111" s="35" t="e">
-        <f>VLOOKUP($B111,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15">
-      <c r="A112" s="24">
-        <v>90</v>
-      </c>
-      <c r="B112" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C112" s="10" t="e">
-        <f>VLOOKUP($B112,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D112" s="10" t="e">
-        <f>VLOOKUP($B112,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E112" s="10" t="e">
-        <f>VLOOKUP($B112,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F112" s="10" t="e">
-        <f>VLOOKUP($B112,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G112" s="35" t="e">
-        <f>VLOOKUP($B112,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15">
-      <c r="A113" s="24">
-        <v>91</v>
-      </c>
-      <c r="B113" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="10" t="e">
-        <f>VLOOKUP($B113,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D113" s="10" t="e">
-        <f>VLOOKUP($B113,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E113" s="10" t="e">
-        <f>VLOOKUP($B113,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F113" s="10" t="e">
-        <f>VLOOKUP($B113,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G113" s="35" t="e">
-        <f>VLOOKUP($B113,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="30">
-      <c r="A114" s="24">
-        <v>92</v>
-      </c>
-      <c r="B114" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C114" s="10" t="e">
-        <f>VLOOKUP($B114,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D114" s="10" t="e">
-        <f>VLOOKUP($B114,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E114" s="10" t="e">
-        <f>VLOOKUP($B114,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F114" s="10" t="e">
-        <f>VLOOKUP($B114,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G114" s="35" t="e">
-        <f>VLOOKUP($B114,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15">
-      <c r="A115" s="24">
-        <v>93</v>
-      </c>
-      <c r="B115" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C115" s="10" t="e">
-        <f>VLOOKUP($B115,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D115" s="10" t="e">
-        <f>VLOOKUP($B115,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E115" s="10" t="e">
-        <f>VLOOKUP($B115,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F115" s="10" t="e">
-        <f>VLOOKUP($B115,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G115" s="35" t="e">
-        <f>VLOOKUP($B115,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="30">
-      <c r="A116" s="24">
-        <v>94</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C116" s="10" t="e">
-        <f>VLOOKUP($B116,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D116" s="10" t="e">
-        <f>VLOOKUP($B116,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E116" s="10" t="e">
-        <f>VLOOKUP($B116,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F116" s="10" t="e">
-        <f>VLOOKUP($B116,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G116" s="35" t="e">
-        <f>VLOOKUP($B116,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15">
-      <c r="A117" s="24">
-        <v>95</v>
-      </c>
-      <c r="B117" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="10" t="e">
-        <f>VLOOKUP($B117,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D117" s="10" t="e">
-        <f>VLOOKUP($B117,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E117" s="10" t="e">
-        <f>VLOOKUP($B117,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F117" s="10" t="e">
-        <f>VLOOKUP($B117,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G117" s="35" t="e">
-        <f>VLOOKUP($B117,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15">
-      <c r="A118" s="24">
-        <v>96</v>
-      </c>
-      <c r="B118" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="10" t="e">
-        <f>VLOOKUP($B118,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D118" s="10" t="e">
-        <f>VLOOKUP($B118,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E118" s="10" t="e">
-        <f>VLOOKUP($B118,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F118" s="10" t="e">
-        <f>VLOOKUP($B118,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G118" s="35" t="e">
-        <f>VLOOKUP($B118,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15">
-      <c r="A119" s="24">
-        <v>97</v>
-      </c>
-      <c r="B119" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" s="10" t="e">
-        <f>VLOOKUP($B119,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D119" s="10" t="e">
-        <f>VLOOKUP($B119,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E119" s="10" t="e">
-        <f>VLOOKUP($B119,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F119" s="10" t="e">
-        <f>VLOOKUP($B119,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G119" s="35" t="e">
-        <f>VLOOKUP($B119,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15">
-      <c r="A120" s="24">
-        <v>98</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C120" s="10" t="e">
-        <f>VLOOKUP($B120,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D120" s="10" t="e">
-        <f>VLOOKUP($B120,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E120" s="10" t="e">
-        <f>VLOOKUP($B120,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F120" s="10" t="e">
-        <f>VLOOKUP($B120,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G120" s="35" t="e">
-        <f>VLOOKUP($B120,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15">
-      <c r="A121" s="24">
-        <v>99</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="10" t="e">
-        <f>VLOOKUP($B121,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D121" s="10" t="e">
-        <f>VLOOKUP($B121,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E121" s="10" t="e">
-        <f>VLOOKUP($B121,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F121" s="10" t="e">
-        <f>VLOOKUP($B121,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G121" s="35" t="e">
-        <f>VLOOKUP($B121,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15">
-      <c r="A122" s="24">
-        <v>100</v>
-      </c>
-      <c r="B122" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122" s="10" t="e">
-        <f>VLOOKUP($B122,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D122" s="10" t="e">
-        <f>VLOOKUP($B122,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E122" s="10" t="e">
-        <f>VLOOKUP($B122,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F122" s="10" t="e">
-        <f>VLOOKUP($B122,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G122" s="35" t="e">
-        <f>VLOOKUP($B122,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="45">
-      <c r="A123" s="24">
-        <v>101</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="10" t="e">
-        <f>VLOOKUP($B123,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D123" s="10" t="e">
-        <f>VLOOKUP($B123,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E123" s="10" t="e">
-        <f>VLOOKUP($B123,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F123" s="10" t="e">
-        <f>VLOOKUP($B123,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G123" s="35" t="e">
-        <f>VLOOKUP($B123,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15">
-      <c r="A124" s="24">
-        <v>102</v>
-      </c>
-      <c r="B124" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C124" s="10" t="e">
-        <f>VLOOKUP($B124,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D124" s="10" t="e">
-        <f>VLOOKUP($B124,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E124" s="10" t="e">
-        <f>VLOOKUP($B124,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F124" s="10" t="e">
-        <f>VLOOKUP($B124,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G124" s="35" t="e">
-        <f>VLOOKUP($B124,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15">
-      <c r="A125" s="24">
-        <v>103</v>
-      </c>
-      <c r="B125" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C125" s="10" t="e">
-        <f>VLOOKUP($B125,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D125" s="10" t="e">
-        <f>VLOOKUP($B125,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E125" s="10" t="e">
-        <f>VLOOKUP($B125,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F125" s="10" t="e">
-        <f>VLOOKUP($B125,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G125" s="35" t="e">
-        <f>VLOOKUP($B125,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="30">
-      <c r="A126" s="24">
-        <v>104</v>
-      </c>
-      <c r="B126" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C126" s="10" t="e">
-        <f>VLOOKUP($B126,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D126" s="10" t="e">
-        <f>VLOOKUP($B126,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E126" s="10" t="e">
-        <f>VLOOKUP($B126,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F126" s="10" t="e">
-        <f>VLOOKUP($B126,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G126" s="35" t="e">
-        <f>VLOOKUP($B126,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15">
-      <c r="A127" s="24">
-        <v>105</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="10" t="e">
-        <f>VLOOKUP($B127,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D127" s="10" t="e">
-        <f>VLOOKUP($B127,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E127" s="10" t="e">
-        <f>VLOOKUP($B127,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F127" s="10" t="e">
-        <f>VLOOKUP($B127,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G127" s="35" t="e">
-        <f>VLOOKUP($B127,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="30">
-      <c r="A128" s="24">
-        <v>106</v>
-      </c>
-      <c r="B128" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C128" s="10" t="e">
-        <f>VLOOKUP($B128,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D128" s="10" t="e">
-        <f>VLOOKUP($B128,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E128" s="10" t="e">
-        <f>VLOOKUP($B128,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F128" s="10" t="e">
-        <f>VLOOKUP($B128,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G128" s="35" t="e">
-        <f>VLOOKUP($B128,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15">
-      <c r="A129" s="24">
-        <v>107</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C129" s="10" t="e">
-        <f>VLOOKUP($B129,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D129" s="10" t="e">
-        <f>VLOOKUP($B129,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E129" s="10" t="e">
-        <f>VLOOKUP($B129,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F129" s="10" t="e">
-        <f>VLOOKUP($B129,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G129" s="35" t="e">
-        <f>VLOOKUP($B129,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15">
-      <c r="A130" s="24">
-        <v>108</v>
-      </c>
-      <c r="B130" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="10" t="e">
-        <f>VLOOKUP($B130,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D130" s="10" t="e">
-        <f>VLOOKUP($B130,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E130" s="10" t="e">
-        <f>VLOOKUP($B130,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F130" s="10" t="e">
-        <f>VLOOKUP($B130,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G130" s="35" t="e">
-        <f>VLOOKUP($B130,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="30">
-      <c r="A131" s="24">
-        <v>109</v>
-      </c>
-      <c r="B131" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C131" s="10" t="e">
-        <f>VLOOKUP($B131,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D131" s="10" t="e">
-        <f>VLOOKUP($B131,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E131" s="10" t="e">
-        <f>VLOOKUP($B131,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F131" s="10" t="e">
-        <f>VLOOKUP($B131,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G131" s="35" t="e">
-        <f>VLOOKUP($B131,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15">
-      <c r="A132" s="24">
-        <v>110</v>
-      </c>
-      <c r="B132" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G132" s="35" t="e">
-        <f>VLOOKUP($B132,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15">
-      <c r="A133" s="24">
-        <v>111</v>
-      </c>
-      <c r="B133" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G133" s="35" t="e">
-        <f>VLOOKUP($B133,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:G2"/>
-  <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист14"/>
-  <dimension ref="A1:G133"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" customWidth="1"/>
-    <col min="3" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="6" width="44.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="35" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18">
-        <v>2</v>
-      </c>
-      <c r="C2" s="17">
-        <v>3</v>
-      </c>
-      <c r="D2" s="18">
-        <v>4</v>
-      </c>
-      <c r="E2" s="17">
-        <v>5</v>
-      </c>
-      <c r="F2" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="21" t="e">
-        <f>C7+C9+C19+C25+C29+C37+C41+C45+C47+C49+C51+C61+C65+C68+C70+C73+C79+C83+C4</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D3" s="21" t="e">
-        <f>D7+D9+D19+D25+D29+D37+D41+D45+D47+D49+D51+D61+D65+D68+D70+D73+D79+D83+D4</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E3" s="21" t="e">
-        <f>E7+E9+E19+E25+E29+E37+E41+E45+E47+E49+E51+E61+E65+E68+E70+E73+E79+E83+E4</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F3" s="21" t="e">
-        <f>F7+F9+F19+F25+F29+F37+F41+F45+F47+F49+F51+F61+F65+F68+F70+F73+F79+F83+F4</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="22" t="e">
-        <f>SUM(C5:C6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D4" s="22" t="e">
-        <f>SUM(D5:D6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="22" t="e">
-        <f>SUM(E5:E6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="22" t="e">
-        <f>SUM(F5:F6)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="24">
-        <v>1</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="e">
-        <f>VLOOKUP($B5,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="10" t="e">
-        <f>VLOOKUP($B5,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="10" t="e">
-        <f>VLOOKUP($B5,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="10" t="e">
-        <f>VLOOKUP($B5,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G5" s="35" t="e">
-        <f>VLOOKUP($B5,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="24">
-        <v>2</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="35" t="e">
-        <f>VLOOKUP($B6,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="26" t="e">
-        <f>SUM(C8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="26" t="e">
-        <f>SUM(D8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="26" t="e">
-        <f>SUM(E8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="26" t="e">
-        <f>SUM(F8)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1">
-      <c r="A8" s="24">
-        <v>3</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10" t="e">
-        <f>VLOOKUP($B8,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D8" s="10" t="e">
-        <f>VLOOKUP($B8,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="10" t="e">
-        <f>VLOOKUP($B8,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F8" s="10" t="e">
-        <f>VLOOKUP($B8,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G8" s="35" t="e">
-        <f>VLOOKUP($B8,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="22" t="e">
-        <f>SUM(C10:C18)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="22" t="e">
-        <f>SUM(D10:D18)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="22" t="e">
-        <f>SUM(E10:E18)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F9" s="22" t="e">
-        <f>SUM(F10:F18)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="24">
-        <v>4</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10" t="e">
-        <f>VLOOKUP($B10,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D10" s="10" t="e">
-        <f>VLOOKUP($B10,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="10" t="e">
-        <f>VLOOKUP($B10,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="10" t="e">
-        <f>VLOOKUP($B10,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="35" t="e">
-        <f>VLOOKUP($B10,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="24">
-        <v>5</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="10" t="e">
-        <f>VLOOKUP($B11,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" s="10" t="e">
-        <f>VLOOKUP($B11,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="10" t="e">
-        <f>VLOOKUP($B11,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="10" t="e">
-        <f>VLOOKUP($B11,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="35" t="e">
-        <f>VLOOKUP($B11,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="24">
-        <v>6</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="10" t="e">
-        <f>VLOOKUP($B12,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D12" s="10" t="e">
-        <f>VLOOKUP($B12,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="10" t="e">
-        <f>VLOOKUP($B12,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="10" t="e">
-        <f>VLOOKUP($B12,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="35" t="e">
-        <f>VLOOKUP($B12,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="24">
-        <v>7</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="35" t="e">
-        <f>VLOOKUP($B13,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="A14" s="24">
-        <v>8</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="10" t="e">
-        <f>VLOOKUP($B14,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="10" t="e">
-        <f>VLOOKUP($B14,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="10" t="e">
-        <f>VLOOKUP($B14,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="10" t="e">
-        <f>VLOOKUP($B14,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="35" t="e">
-        <f>VLOOKUP($B14,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="24">
-        <v>9</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="10" t="e">
-        <f>VLOOKUP($B15,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="10" t="e">
-        <f>VLOOKUP($B15,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="10" t="e">
-        <f>VLOOKUP($B15,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F15" s="10" t="e">
-        <f>VLOOKUP($B15,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="35" t="e">
-        <f>VLOOKUP($B15,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="24">
-        <v>10</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="10" t="e">
-        <f>VLOOKUP($B16,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="10" t="e">
-        <f>VLOOKUP($B16,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="10" t="e">
-        <f>VLOOKUP($B16,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F16" s="10" t="e">
-        <f>VLOOKUP($B16,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G16" s="35" t="e">
-        <f>VLOOKUP($B16,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="24">
-        <v>11</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="10" t="e">
-        <f>VLOOKUP($B17,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="10" t="e">
-        <f>VLOOKUP($B17,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="10" t="e">
-        <f>VLOOKUP($B17,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F17" s="10" t="e">
-        <f>VLOOKUP($B17,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" s="35" t="e">
-        <f>VLOOKUP($B17,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="24">
-        <v>12</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" s="10" t="e">
-        <f>VLOOKUP($B18,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="35" t="e">
-        <f>VLOOKUP($B18,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="22" t="e">
-        <f>SUM(C20:C24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="22" t="e">
-        <f>SUM(D20:D24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="22" t="e">
-        <f>SUM(E20:E24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" s="22" t="e">
-        <f>SUM(F20:F24)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1">
-      <c r="A20" s="24">
-        <v>13</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="35" t="e">
-        <f>VLOOKUP($B20,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1">
-      <c r="A21" s="24">
-        <v>14</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="10" t="e">
-        <f>VLOOKUP($B21,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D21" s="10" t="e">
-        <f>VLOOKUP($B21,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="10" t="e">
-        <f>VLOOKUP($B21,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" s="10" t="e">
-        <f>VLOOKUP($B21,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" s="35" t="e">
-        <f>VLOOKUP($B21,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
-      <c r="A22" s="24">
-        <v>15</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="35" t="e">
-        <f>VLOOKUP($B22,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
-      <c r="A23" s="24">
-        <v>16</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="10" t="e">
-        <f>VLOOKUP($B23,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="10" t="e">
-        <f>VLOOKUP($B23,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="10" t="e">
-        <f>VLOOKUP($B23,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" s="10" t="e">
-        <f>VLOOKUP($B23,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" s="35" t="e">
-        <f>VLOOKUP($B23,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
-      <c r="A24" s="24">
-        <v>17</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="35" t="e">
-        <f>VLOOKUP($B24,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="22" t="e">
-        <f>SUM(C26+C27+C28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="22" t="e">
-        <f>SUM(D26:D28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="22" t="e">
-        <f>SUM(E26:E28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F25" s="22" t="e">
-        <f>SUM(F26:F28)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
-      <c r="A26" s="24">
-        <v>18</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" s="35" t="e">
-        <f>VLOOKUP($B26,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
-      <c r="A27" s="24">
-        <v>19</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="10" t="e">
-        <f>VLOOKUP($B27,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="10" t="e">
-        <f>VLOOKUP($B27,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="10" t="e">
-        <f>VLOOKUP($B27,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F27" s="10" t="e">
-        <f>VLOOKUP($B27,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G27" s="35" t="e">
-        <f>VLOOKUP($B27,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="24">
-        <v>20</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" s="35" t="e">
-        <f>VLOOKUP($B28,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="26" t="e">
-        <f>SUM(C30+C31+C32+C33+C34+C35+C36)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D29" s="26" t="e">
-        <f>SUM(D30:D36)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="26" t="e">
-        <f>SUM(E30:E36)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F29" s="26" t="e">
-        <f>SUM(F30:F36)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
-      <c r="A30" s="24">
-        <v>21</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="10" t="e">
-        <f>VLOOKUP($B30,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D30" s="10" t="e">
-        <f>VLOOKUP($B30,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="10" t="e">
-        <f>VLOOKUP($B30,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F30" s="10" t="e">
-        <f>VLOOKUP($B30,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="35" t="e">
-        <f>VLOOKUP($B30,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
-      <c r="A31" s="24">
-        <v>22</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="10" t="e">
-        <f>VLOOKUP($B31,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D31" s="10" t="e">
-        <f>VLOOKUP($B31,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="10" t="e">
-        <f>VLOOKUP($B31,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F31" s="10" t="e">
-        <f>VLOOKUP($B31,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G31" s="35" t="e">
-        <f>VLOOKUP($B31,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
-      <c r="A32" s="24">
-        <v>23</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="10" t="e">
-        <f>VLOOKUP($B32,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D32" s="10" t="e">
-        <f>VLOOKUP($B32,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="10" t="e">
-        <f>VLOOKUP($B32,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F32" s="10" t="e">
-        <f>VLOOKUP($B32,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G32" s="35" t="e">
-        <f>VLOOKUP($B32,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
-      <c r="A33" s="24">
-        <v>24</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="35" t="e">
-        <f>VLOOKUP($B33,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
-      <c r="A34" s="24">
-        <v>25</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="10" t="e">
-        <f>VLOOKUP($B34,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" s="10" t="e">
-        <f>VLOOKUP($B34,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="10" t="e">
-        <f>VLOOKUP($B34,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F34" s="10" t="e">
-        <f>VLOOKUP($B34,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G34" s="35" t="e">
-        <f>VLOOKUP($B34,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" s="24">
-        <v>26</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="10" t="e">
-        <f>VLOOKUP($B35,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D35" s="10" t="e">
-        <f>VLOOKUP($B35,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E35" s="10" t="e">
-        <f>VLOOKUP($B35,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F35" s="10" t="e">
-        <f>VLOOKUP($B35,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G35" s="35" t="e">
-        <f>VLOOKUP($B35,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="36" customHeight="1">
-      <c r="A36" s="24">
-        <v>27</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="10" t="e">
-        <f>VLOOKUP($B36,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D36" s="10" t="e">
-        <f>VLOOKUP($B36,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E36" s="10" t="e">
-        <f>VLOOKUP($B36,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F36" s="10" t="e">
-        <f>VLOOKUP($B36,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G36" s="35" t="e">
-        <f>VLOOKUP($B36,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="26" t="e">
-        <f>SUM(C38+C39+C40)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D37" s="26" t="e">
-        <f>SUM(D38:D40)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E37" s="26" t="e">
-        <f>SUM(E38:E40)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F37" s="26" t="e">
-        <f>SUM(F38:F40)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="24">
-        <v>28</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" s="10" t="e">
-        <f>VLOOKUP($B38,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G38" s="35" t="e">
-        <f>VLOOKUP($B38,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
-      <c r="A39" s="24">
-        <v>29</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="10" t="e">
-        <f>VLOOKUP($B39,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D39" s="10" t="e">
-        <f>VLOOKUP($B39,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E39" s="10" t="e">
-        <f>VLOOKUP($B39,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F39" s="10" t="e">
-        <f>VLOOKUP($B39,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G39" s="35" t="e">
-        <f>VLOOKUP($B39,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
-      <c r="A40" s="24">
-        <v>30</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="10" t="e">
-        <f>VLOOKUP($B40,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D40" s="10" t="e">
-        <f>VLOOKUP($B40,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="10" t="e">
-        <f>VLOOKUP($B40,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F40" s="10" t="e">
-        <f>VLOOKUP($B40,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G40" s="35" t="e">
-        <f>VLOOKUP($B40,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="36" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="22" t="e">
-        <f>SUM(C42+C43+C44)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D41" s="22" t="e">
-        <f>SUM(D42:D44)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E41" s="22" t="e">
-        <f>SUM(E42:E44)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F41" s="22" t="e">
-        <f>SUM(F42:F44)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
-      <c r="A42" s="24">
-        <v>31</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F42" s="10" t="e">
-        <f>VLOOKUP($B42,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G42" s="35" t="e">
-        <f>VLOOKUP($B42,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
-      <c r="A43" s="24">
-        <v>32</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G43" s="35" t="e">
-        <f>VLOOKUP($B43,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="A44" s="24">
-        <v>33</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F44" s="10" t="e">
-        <f>VLOOKUP($B44,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G44" s="35" t="e">
-        <f>VLOOKUP($B44,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="22" t="e">
-        <f>SUM(C46)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D45" s="22" t="e">
-        <f>SUM(D46)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="22" t="e">
-        <f>SUM(E46)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F45" s="22" t="e">
-        <f>SUM(F46)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1">
-      <c r="A46" s="24">
-        <v>34</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F46" s="10" t="e">
-        <f>VLOOKUP($B46,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G46" s="35" t="e">
-        <f>VLOOKUP($B46,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="22" t="e">
-        <f>SUM(C48)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D47" s="22" t="e">
-        <f>SUM(D48)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="22" t="e">
-        <f>SUM(E48)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F47" s="22" t="e">
-        <f>SUM(F48)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1">
-      <c r="A48" s="24">
-        <v>35</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="10" t="e">
-        <f>VLOOKUP($B48,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D48" s="10" t="e">
-        <f>VLOOKUP($B48,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E48" s="10" t="e">
-        <f>VLOOKUP($B48,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F48" s="10" t="e">
-        <f>VLOOKUP($B48,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G48" s="35" t="e">
-        <f>VLOOKUP($B48,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="22" t="e">
-        <f>SUM(C50)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D49" s="22" t="e">
-        <f>SUM(D50)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E49" s="22" t="e">
-        <f>SUM(E50)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F49" s="22" t="e">
-        <f>SUM(F50)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1">
-      <c r="A50" s="24">
-        <v>36</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F50" s="10" t="e">
-        <f>VLOOKUP($B50,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G50" s="35" t="e">
-        <f>VLOOKUP($B50,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="26" t="e">
-        <f>SUM(C52+C53+C54+C55+C56+C57+C58+C59+C60)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D51" s="26" t="e">
-        <f>SUM(D52:D60)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E51" s="26" t="e">
-        <f>SUM(E52:E60)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F51" s="26" t="e">
-        <f>SUM(F52:F60)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1">
-      <c r="A52" s="24">
-        <v>37</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="10" t="e">
-        <f>VLOOKUP($B52,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D52" s="10" t="e">
-        <f>VLOOKUP($B52,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E52" s="10" t="e">
-        <f>VLOOKUP($B52,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F52" s="10" t="e">
-        <f>VLOOKUP($B52,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" s="35" t="e">
-        <f>VLOOKUP($B52,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1">
-      <c r="A53" s="24">
-        <v>38</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="10" t="e">
-        <f>VLOOKUP($B53,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D53" s="10" t="e">
-        <f>VLOOKUP($B53,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E53" s="10" t="e">
-        <f>VLOOKUP($B53,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F53" s="10" t="e">
-        <f>VLOOKUP($B53,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G53" s="35" t="e">
-        <f>VLOOKUP($B53,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1">
-      <c r="A54" s="24">
-        <v>39</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G54" s="35" t="e">
-        <f>VLOOKUP($B54,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1">
-      <c r="A55" s="24">
-        <v>40</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="10" t="e">
-        <f>VLOOKUP($B55,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D55" s="10" t="e">
-        <f>VLOOKUP($B55,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E55" s="10" t="e">
-        <f>VLOOKUP($B55,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F55" s="10" t="e">
-        <f>VLOOKUP($B55,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G55" s="35" t="e">
-        <f>VLOOKUP($B55,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="A56" s="24">
-        <v>41</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F56" s="10" t="e">
-        <f>VLOOKUP($B56,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G56" s="35" t="e">
-        <f>VLOOKUP($B56,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1">
-      <c r="A57" s="24">
-        <v>42</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G57" s="35" t="e">
-        <f>VLOOKUP($B57,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1">
-      <c r="A58" s="24">
-        <v>43</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="10" t="e">
-        <f>VLOOKUP($B58,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D58" s="10" t="e">
-        <f>VLOOKUP($B58,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E58" s="10" t="e">
-        <f>VLOOKUP($B58,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F58" s="10" t="e">
-        <f>VLOOKUP($B58,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G58" s="35" t="e">
-        <f>VLOOKUP($B58,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1">
-      <c r="A59" s="24">
-        <v>44</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="10" t="e">
-        <f>VLOOKUP($B59,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D59" s="10" t="e">
-        <f>VLOOKUP($B59,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E59" s="10" t="e">
-        <f>VLOOKUP($B59,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F59" s="10" t="e">
-        <f>VLOOKUP($B59,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G59" s="35" t="e">
-        <f>VLOOKUP($B59,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1">
-      <c r="A60" s="24">
-        <v>45</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G60" s="35" t="e">
-        <f>VLOOKUP($B60,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="26" t="e">
-        <f>SUM(C62+C63+C64)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D61" s="26" t="e">
-        <f>SUM(D62:D64)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E61" s="26" t="e">
-        <f>SUM(E62:E64)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F61" s="26" t="e">
-        <f>SUM(F62:F64)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1">
-      <c r="A62" s="24">
-        <v>46</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="10" t="e">
-        <f>VLOOKUP($B62,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D62" s="10" t="e">
-        <f>VLOOKUP($B62,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E62" s="10" t="e">
-        <f>VLOOKUP($B62,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F62" s="10" t="e">
-        <f>VLOOKUP($B62,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G62" s="35" t="e">
-        <f>VLOOKUP($B62,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="36" customHeight="1">
-      <c r="A63" s="24">
-        <v>47</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="10" t="e">
-        <f>VLOOKUP($B63,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D63" s="10" t="e">
-        <f>VLOOKUP($B63,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E63" s="10" t="e">
-        <f>VLOOKUP($B63,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F63" s="10" t="e">
-        <f>VLOOKUP($B63,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G63" s="35" t="e">
-        <f>VLOOKUP($B63,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1">
-      <c r="A64" s="24">
-        <v>48</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G64" s="35" t="e">
-        <f>VLOOKUP($B64,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="18" customHeight="1">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="26" t="e">
         <f>SUM(C66+C67)</f>
         <v>#N/A</v>
       </c>
@@ -13789,11 +13759,11 @@
         <v>103</v>
       </c>
       <c r="C83" s="22" t="e">
-        <f>SUM(C84:C133)</f>
+        <f>SUM(C84:C132)</f>
         <v>#N/A</v>
       </c>
       <c r="D83" s="22" t="e">
-        <f t="shared" ref="D83:F83" si="0">SUM(D84:D133)</f>
+        <f t="shared" ref="D83:F83" si="0">SUM(D84:D132)</f>
         <v>#N/A</v>
       </c>
       <c r="E83" s="22" t="e">
@@ -14003,7 +13973,7 @@
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1">
       <c r="A91" s="24">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B91" s="25" t="s">
         <v>136</v>
@@ -14031,10 +14001,10 @@
     </row>
     <row r="92" spans="1:7" ht="30" customHeight="1">
       <c r="A92" s="24">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="C92" s="10" t="e">
         <f>VLOOKUP($B92,'part 04'!$D:$J, 3, 0)</f>
@@ -14057,12 +14027,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30" customHeight="1">
+    <row r="93" spans="1:7" ht="15" customHeight="1">
       <c r="A93" s="24">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C93" s="10" t="e">
         <f>VLOOKUP($B93,'part 04'!$D:$J, 3, 0)</f>
@@ -14087,10 +14057,10 @@
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1">
       <c r="A94" s="24">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C94" s="10" t="e">
         <f>VLOOKUP($B94,'part 04'!$D:$J, 3, 0)</f>
@@ -14115,10 +14085,10 @@
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1">
       <c r="A95" s="24">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C95" s="10" t="e">
         <f>VLOOKUP($B95,'part 04'!$D:$J, 3, 0)</f>
@@ -14141,12 +14111,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1">
+    <row r="96" spans="1:7" ht="30" customHeight="1">
       <c r="A96" s="24">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C96" s="10" t="e">
         <f>VLOOKUP($B96,'part 04'!$D:$J, 3, 0)</f>
@@ -14169,12 +14139,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1">
+    <row r="97" spans="1:7" ht="15" customHeight="1">
       <c r="A97" s="24">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C97" s="10" t="e">
         <f>VLOOKUP($B97,'part 04'!$D:$J, 3, 0)</f>
@@ -14197,12 +14167,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1">
+    <row r="98" spans="1:7" ht="30" customHeight="1">
       <c r="A98" s="24">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="C98" s="10" t="e">
         <f>VLOOKUP($B98,'part 04'!$D:$J, 3, 0)</f>
@@ -14225,12 +14195,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" customHeight="1">
+    <row r="99" spans="1:7" ht="15" customHeight="1">
       <c r="A99" s="24">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C99" s="10" t="e">
         <f>VLOOKUP($B99,'part 04'!$D:$J, 3, 0)</f>
@@ -14253,12 +14223,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1">
+    <row r="100" spans="1:7" ht="15">
       <c r="A100" s="24">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C100" s="10" t="e">
         <f>VLOOKUP($B100,'part 04'!$D:$J, 3, 0)</f>
@@ -14283,10 +14253,10 @@
     </row>
     <row r="101" spans="1:7" ht="15">
       <c r="A101" s="24">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C101" s="10" t="e">
         <f>VLOOKUP($B101,'part 04'!$D:$J, 3, 0)</f>
@@ -14309,12 +14279,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15">
+    <row r="102" spans="1:7" ht="30">
       <c r="A102" s="24">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C102" s="10" t="e">
         <f>VLOOKUP($B102,'part 04'!$D:$J, 3, 0)</f>
@@ -14339,10 +14309,10 @@
     </row>
     <row r="103" spans="1:7" ht="30">
       <c r="A103" s="24">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C103" s="10" t="e">
         <f>VLOOKUP($B103,'part 04'!$D:$J, 3, 0)</f>
@@ -14367,10 +14337,10 @@
     </row>
     <row r="104" spans="1:7" ht="30">
       <c r="A104" s="24">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C104" s="10" t="e">
         <f>VLOOKUP($B104,'part 04'!$D:$J, 3, 0)</f>
@@ -14395,10 +14365,10 @@
     </row>
     <row r="105" spans="1:7" ht="30">
       <c r="A105" s="24">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C105" s="10" t="e">
         <f>VLOOKUP($B105,'part 04'!$D:$J, 3, 0)</f>
@@ -14423,10 +14393,10 @@
     </row>
     <row r="106" spans="1:7" ht="30">
       <c r="A106" s="24">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C106" s="10" t="e">
         <f>VLOOKUP($B106,'part 04'!$D:$J, 3, 0)</f>
@@ -14451,10 +14421,10 @@
     </row>
     <row r="107" spans="1:7" ht="30">
       <c r="A107" s="24">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C107" s="10" t="e">
         <f>VLOOKUP($B107,'part 04'!$D:$J, 3, 0)</f>
@@ -14479,10 +14449,10 @@
     </row>
     <row r="108" spans="1:7" ht="30">
       <c r="A108" s="24">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C108" s="10" t="e">
         <f>VLOOKUP($B108,'part 04'!$D:$J, 3, 0)</f>
@@ -14507,10 +14477,10 @@
     </row>
     <row r="109" spans="1:7" ht="30">
       <c r="A109" s="24">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C109" s="10" t="e">
         <f>VLOOKUP($B109,'part 04'!$D:$J, 3, 0)</f>
@@ -14533,12 +14503,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="30">
+    <row r="110" spans="1:7" ht="15">
       <c r="A110" s="24">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C110" s="10" t="e">
         <f>VLOOKUP($B110,'part 04'!$D:$J, 3, 0)</f>
@@ -14563,10 +14533,10 @@
     </row>
     <row r="111" spans="1:7" ht="15">
       <c r="A111" s="24">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C111" s="10" t="e">
         <f>VLOOKUP($B111,'part 04'!$D:$J, 3, 0)</f>
@@ -14589,12 +14559,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15">
+    <row r="112" spans="1:7" ht="30">
       <c r="A112" s="24">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C112" s="10" t="e">
         <f>VLOOKUP($B112,'part 04'!$D:$J, 3, 0)</f>
@@ -14617,12 +14587,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="30">
+    <row r="113" spans="1:7" ht="15">
       <c r="A113" s="24">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="C113" s="10" t="e">
         <f>VLOOKUP($B113,'part 04'!$D:$J, 3, 0)</f>
@@ -14645,12 +14615,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15">
+    <row r="114" spans="1:7" ht="30">
       <c r="A114" s="24">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C114" s="10" t="e">
         <f>VLOOKUP($B114,'part 04'!$D:$J, 3, 0)</f>
@@ -14673,12 +14643,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="30">
+    <row r="115" spans="1:7" ht="15">
       <c r="A115" s="24">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C115" s="10" t="e">
         <f>VLOOKUP($B115,'part 04'!$D:$J, 3, 0)</f>
@@ -14703,10 +14673,10 @@
     </row>
     <row r="116" spans="1:7" ht="15">
       <c r="A116" s="24">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" s="10" t="e">
         <f>VLOOKUP($B116,'part 04'!$D:$J, 3, 0)</f>
@@ -14731,10 +14701,10 @@
     </row>
     <row r="117" spans="1:7" ht="15">
       <c r="A117" s="24">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C117" s="10" t="e">
         <f>VLOOKUP($B117,'part 04'!$D:$J, 3, 0)</f>
@@ -14759,10 +14729,10 @@
     </row>
     <row r="118" spans="1:7" ht="15">
       <c r="A118" s="24">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C118" s="10" t="e">
         <f>VLOOKUP($B118,'part 04'!$D:$J, 3, 0)</f>
@@ -14787,10 +14757,10 @@
     </row>
     <row r="119" spans="1:7" ht="15">
       <c r="A119" s="24">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="C119" s="10" t="e">
         <f>VLOOKUP($B119,'part 04'!$D:$J, 3, 0)</f>
@@ -14815,10 +14785,10 @@
     </row>
     <row r="120" spans="1:7" ht="15">
       <c r="A120" s="24">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C120" s="10" t="e">
         <f>VLOOKUP($B120,'part 04'!$D:$J, 3, 0)</f>
@@ -14841,12 +14811,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15">
+    <row r="121" spans="1:7" ht="45">
       <c r="A121" s="24">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C121" s="10" t="e">
         <f>VLOOKUP($B121,'part 04'!$D:$J, 3, 0)</f>
@@ -14869,12 +14839,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="45">
+    <row r="122" spans="1:7" ht="15">
       <c r="A122" s="24">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="C122" s="10" t="e">
         <f>VLOOKUP($B122,'part 04'!$D:$J, 3, 0)</f>
@@ -14899,10 +14869,10 @@
     </row>
     <row r="123" spans="1:7" ht="15">
       <c r="A123" s="24">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="C123" s="10" t="e">
         <f>VLOOKUP($B123,'part 04'!$D:$J, 3, 0)</f>
@@ -14925,12 +14895,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15">
+    <row r="124" spans="1:7" ht="30">
       <c r="A124" s="24">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C124" s="10" t="e">
         <f>VLOOKUP($B124,'part 04'!$D:$J, 3, 0)</f>
@@ -14953,12 +14923,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="30">
+    <row r="125" spans="1:7" ht="15">
       <c r="A125" s="24">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="C125" s="10" t="e">
         <f>VLOOKUP($B125,'part 04'!$D:$J, 3, 0)</f>
@@ -14981,12 +14951,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15">
+    <row r="126" spans="1:7" ht="30">
       <c r="A126" s="24">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C126" s="10" t="e">
         <f>VLOOKUP($B126,'part 04'!$D:$J, 3, 0)</f>
@@ -15009,12 +14979,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="30">
+    <row r="127" spans="1:7" ht="15">
       <c r="A127" s="24">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C127" s="10" t="e">
         <f>VLOOKUP($B127,'part 04'!$D:$J, 3, 0)</f>
@@ -15039,10 +15009,10 @@
     </row>
     <row r="128" spans="1:7" ht="15">
       <c r="A128" s="24">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="C128" s="10" t="e">
         <f>VLOOKUP($B128,'part 04'!$D:$J, 3, 0)</f>
@@ -15067,10 +15037,10 @@
     </row>
     <row r="129" spans="1:7" ht="15">
       <c r="A129" s="24">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="C129" s="10" t="e">
         <f>VLOOKUP($B129,'part 04'!$D:$J, 3, 0)</f>
@@ -15093,12 +15063,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15">
+    <row r="130" spans="1:7" ht="30">
       <c r="A130" s="24">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="C130" s="10" t="e">
         <f>VLOOKUP($B130,'part 04'!$D:$J, 3, 0)</f>
@@ -15121,12 +15091,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="30">
+    <row r="131" spans="1:7" ht="15">
       <c r="A131" s="24">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C131" s="10" t="e">
         <f>VLOOKUP($B131,'part 04'!$D:$J, 3, 0)</f>
@@ -15151,10 +15121,10 @@
     </row>
     <row r="132" spans="1:7" ht="15">
       <c r="A132" s="24">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C132" s="10" t="e">
         <f>VLOOKUP($B132,'part 04'!$D:$J, 3, 0)</f>
@@ -15174,34 +15144,6 @@
       </c>
       <c r="G132" s="35" t="e">
         <f>VLOOKUP($B132,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15">
-      <c r="A133" s="24">
-        <v>116</v>
-      </c>
-      <c r="B133" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 04'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 04'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 04'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F133" s="10" t="e">
-        <f>VLOOKUP($B133,'part 04'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G133" s="35" t="e">
-        <f>VLOOKUP($B133,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/help/54_COVID_19_new.xlsx
+++ b/help/54_COVID_19_new.xlsx
@@ -44,7 +44,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Партия 4'!$A$2:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Партия 5'!$A$2:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Партия 6'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Партия 7'!$A$2:$G$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Партия 7'!$A$2:$G$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Партия 8'!$A$2:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Партия 9'!$A$2:$G$2</definedName>
   </definedNames>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="186">
   <si>
     <t>№ п/п</t>
   </si>
@@ -7984,9 +7984,11 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист13"/>
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:A131"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="12.75"/>
   <cols>
@@ -8046,19 +8048,19 @@
         <v>84</v>
       </c>
       <c r="C3" s="21" t="e">
-        <f>SUM(C4+C7+C9+C19+C25+C29+C37+C41+C45+C47+C49+C51+C61+C65+C67+C69+C72+C78+C82)</f>
+        <f>SUM(C4+C7+C9+C19+C25+C29+C37+C41+C45+C47+C49+C51+C60+C64+C66+C68+C71+C77+C81)</f>
         <v>#N/A</v>
       </c>
       <c r="D3" s="21" t="e">
-        <f>SUM(D4+D7+D9+D19+D25+D29+D37+D41+D45+D47+D49+D51+D61+D65+D67+D69+D72+D78+D82)</f>
+        <f>SUM(D4+D7+D9+D19+D25+D29+D37+D41+D45+D47+D49+D51+D60+D64+D66+D68+D71+D77+D81)</f>
         <v>#N/A</v>
       </c>
       <c r="E3" s="21" t="e">
-        <f>SUM(E4+E7+E9+E19+E25+E29+E37+E41+E45+E47+E49+E51+E61+E65+E67+E69+E72+E78+E82)</f>
+        <f>SUM(E4+E7+E9+E19+E25+E29+E37+E41+E45+E47+E49+E51+E60+E64+E66+E68+E71+E77+E81)</f>
         <v>#N/A</v>
       </c>
       <c r="F3" s="21" t="e">
-        <f>SUM(F4+F7+F9+F19+F25+F29+F37+F41+F45+F47+F49+F51+F61+F65+F67+F69+F72+F78+F82)</f>
+        <f>SUM(F4+F7+F9+F19+F25+F29+F37+F41+F45+F47+F49+F51+F60+F64+F66+F68+F71+F77+F81)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9318,19 +9320,19 @@
         <v>96</v>
       </c>
       <c r="C51" s="26" t="e">
-        <f>SUM(C52:C60)</f>
+        <f>SUM(C52:C59)</f>
         <v>#N/A</v>
       </c>
       <c r="D51" s="26" t="e">
-        <f>SUM(D52:D60)</f>
+        <f>SUM(D52:D59)</f>
         <v>#N/A</v>
       </c>
       <c r="E51" s="26" t="e">
-        <f>SUM(E52:E60)</f>
+        <f>SUM(E52:E59)</f>
         <v>#N/A</v>
       </c>
       <c r="F51" s="26" t="e">
-        <f>SUM(F52:F60)</f>
+        <f>SUM(F52:F59)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9339,7 +9341,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C52" s="10" t="e">
         <f>VLOOKUP($B52,'part 03'!$D:$J, 3, 0)</f>
@@ -9362,12 +9364,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1">
+    <row r="53" spans="1:7" ht="18" customHeight="1">
       <c r="A53" s="24">
         <v>38</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C53" s="10" t="e">
         <f>VLOOKUP($B53,'part 03'!$D:$J, 3, 0)</f>
@@ -9390,12 +9392,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1">
+    <row r="54" spans="1:7" ht="15" customHeight="1">
       <c r="A54" s="24">
         <v>39</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="10" t="e">
         <f>VLOOKUP($B54,'part 03'!$D:$J, 3, 0)</f>
@@ -9423,7 +9425,7 @@
         <v>40</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="10" t="e">
         <f>VLOOKUP($B55,'part 03'!$D:$J, 3, 0)</f>
@@ -9451,7 +9453,7 @@
         <v>41</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" s="10" t="e">
         <f>VLOOKUP($B56,'part 03'!$D:$J, 3, 0)</f>
@@ -9474,12 +9476,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1">
+    <row r="57" spans="1:7" ht="18" customHeight="1">
       <c r="A57" s="24">
         <v>42</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C57" s="10" t="e">
         <f>VLOOKUP($B57,'part 03'!$D:$J, 3, 0)</f>
@@ -9502,12 +9504,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1">
+    <row r="58" spans="1:7" ht="15" customHeight="1">
       <c r="A58" s="24">
         <v>43</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C58" s="10" t="e">
         <f>VLOOKUP($B58,'part 03'!$D:$J, 3, 0)</f>
@@ -9535,7 +9537,7 @@
         <v>44</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="C59" s="10" t="e">
         <f>VLOOKUP($B59,'part 03'!$D:$J, 3, 0)</f>
@@ -9559,61 +9561,61 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1">
-      <c r="A60" s="24">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="26" t="e">
+        <f>SUM(C61:C63)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D60" s="26" t="e">
+        <f>SUM(D61:D63)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E60" s="26" t="e">
+        <f>SUM(E61:E63)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F60" s="26" t="e">
+        <f>SUM(F61:F63)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1">
+      <c r="A61" s="24">
         <v>45</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F60" s="10" t="e">
-        <f>VLOOKUP($B60,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G60" s="35" t="e">
-        <f>VLOOKUP($B60,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="26" t="e">
-        <f>SUM(C62:C64)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D61" s="26" t="e">
-        <f>SUM(D62:D64)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E61" s="26" t="e">
-        <f>SUM(E62:E64)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F61" s="26" t="e">
-        <f>SUM(F62:F64)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1">
+      <c r="B61" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="10" t="e">
+        <f>VLOOKUP($B61,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D61" s="10" t="e">
+        <f>VLOOKUP($B61,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E61" s="10" t="e">
+        <f>VLOOKUP($B61,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F61" s="10" t="e">
+        <f>VLOOKUP($B61,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G61" s="35" t="e">
+        <f>VLOOKUP($B61,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="36" customHeight="1">
       <c r="A62" s="24">
         <v>46</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C62" s="10" t="e">
         <f>VLOOKUP($B62,'part 03'!$D:$J, 3, 0)</f>
@@ -9636,12 +9638,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="36" customHeight="1">
+    <row r="63" spans="1:7" ht="30" customHeight="1">
       <c r="A63" s="24">
         <v>47</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C63" s="10" t="e">
         <f>VLOOKUP($B63,'part 03'!$D:$J, 3, 0)</f>
@@ -9664,162 +9666,162 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1">
-      <c r="A64" s="24">
+    <row r="64" spans="1:7" ht="18" customHeight="1">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="26" t="e">
+        <f>SUM(C65)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D64" s="26" t="e">
+        <f>SUM(D65)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E64" s="26" t="e">
+        <f>SUM(E65)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F64" s="26" t="e">
+        <f>SUM(F65)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1">
+      <c r="A65" s="24">
         <v>48</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F64" s="10" t="e">
-        <f>VLOOKUP($B64,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G64" s="35" t="e">
-        <f>VLOOKUP($B64,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="18" customHeight="1">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="26" t="e">
-        <f>SUM(C66)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D65" s="26" t="e">
-        <f>SUM(D66)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="26" t="e">
-        <f>SUM(E66)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F65" s="26" t="e">
-        <f>SUM(F66)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" s="24">
+      <c r="B65" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="10" t="e">
+        <f>VLOOKUP($B65,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D65" s="10" t="e">
+        <f>VLOOKUP($B65,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="10" t="e">
+        <f>VLOOKUP($B65,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F65" s="10" t="e">
+        <f>VLOOKUP($B65,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G65" s="35" t="e">
+        <f>VLOOKUP($B65,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" customHeight="1">
+      <c r="A66" s="22"/>
+      <c r="B66" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="26" t="e">
+        <f>SUM(C67)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D66" s="26" t="e">
+        <f>SUM(D67)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E66" s="26" t="e">
+        <f>SUM(E67)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F66" s="26" t="e">
+        <f>SUM(F67)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" customHeight="1">
+      <c r="A67" s="24">
         <v>49</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F66" s="10" t="e">
-        <f>VLOOKUP($B66,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G66" s="35" t="e">
-        <f>VLOOKUP($B66,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="18" customHeight="1">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="26" t="e">
-        <f>SUM(C68)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D67" s="26" t="e">
-        <f>SUM(D68)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="26" t="e">
-        <f>SUM(E68)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F67" s="26" t="e">
-        <f>SUM(F68)</f>
+      <c r="B67" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="10" t="e">
+        <f>VLOOKUP($B67,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D67" s="10" t="e">
+        <f>VLOOKUP($B67,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E67" s="10" t="e">
+        <f>VLOOKUP($B67,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F67" s="10" t="e">
+        <f>VLOOKUP($B67,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G67" s="35" t="e">
+        <f>VLOOKUP($B67,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30" customHeight="1">
-      <c r="A68" s="24">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="22" t="e">
+        <f>SUM(C69:C70)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D68" s="22" t="e">
+        <f>SUM(D69:D70)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E68" s="22" t="e">
+        <f>SUM(E69:E70)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="22" t="e">
+        <f>SUM(F69:F70)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" customHeight="1">
+      <c r="A69" s="24">
         <v>50</v>
       </c>
-      <c r="B68" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="10" t="e">
-        <f>VLOOKUP($B68,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D68" s="10" t="e">
-        <f>VLOOKUP($B68,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="10" t="e">
-        <f>VLOOKUP($B68,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F68" s="10" t="e">
-        <f>VLOOKUP($B68,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G68" s="35" t="e">
-        <f>VLOOKUP($B68,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="22" t="e">
-        <f>SUM(C70:C71)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D69" s="22" t="e">
-        <f>SUM(D70:D71)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="22" t="e">
-        <f>SUM(E70:E71)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F69" s="22" t="e">
-        <f>SUM(F70:F71)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1">
+      <c r="B69" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="10" t="e">
+        <f>VLOOKUP($B69,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D69" s="10" t="e">
+        <f>VLOOKUP($B69,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E69" s="10" t="e">
+        <f>VLOOKUP($B69,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F69" s="10" t="e">
+        <f>VLOOKUP($B69,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G69" s="35" t="e">
+        <f>VLOOKUP($B69,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18" customHeight="1">
       <c r="A70" s="24">
         <v>51</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C70" s="10" t="e">
         <f>VLOOKUP($B70,'part 03'!$D:$J, 3, 0)</f>
@@ -9842,53 +9844,53 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18" customHeight="1">
-      <c r="A71" s="24">
+    <row r="71" spans="1:7" ht="15" customHeight="1">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="22" t="e">
+        <f>SUM(C72:C76)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D71" s="22" t="e">
+        <f>SUM(D72:D76)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E71" s="22" t="e">
+        <f>SUM(E72:E76)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F71" s="22" t="e">
+        <f>SUM(F72:F76)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" customHeight="1">
+      <c r="A72" s="24">
         <v>52</v>
       </c>
-      <c r="B71" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="10" t="e">
-        <f>VLOOKUP($B71,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D71" s="10" t="e">
-        <f>VLOOKUP($B71,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="10" t="e">
-        <f>VLOOKUP($B71,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F71" s="10" t="e">
-        <f>VLOOKUP($B71,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G71" s="35" t="e">
-        <f>VLOOKUP($B71,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="22" t="e">
-        <f>SUM(C73:C77)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D72" s="22" t="e">
-        <f>SUM(D73:D77)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="22" t="e">
-        <f>SUM(E73:E77)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F72" s="22" t="e">
-        <f>SUM(F73:F77)</f>
+      <c r="B72" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="10" t="e">
+        <f>VLOOKUP($B72,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D72" s="10" t="e">
+        <f>VLOOKUP($B72,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E72" s="10" t="e">
+        <f>VLOOKUP($B72,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F72" s="10" t="e">
+        <f>VLOOKUP($B72,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G72" s="35" t="e">
+        <f>VLOOKUP($B72,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9897,7 +9899,7 @@
         <v>53</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C73" s="10" t="e">
         <f>VLOOKUP($B73,'part 03'!$D:$J, 3, 0)</f>
@@ -9925,7 +9927,7 @@
         <v>54</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C74" s="10" t="e">
         <f>VLOOKUP($B74,'part 03'!$D:$J, 3, 0)</f>
@@ -9953,7 +9955,7 @@
         <v>55</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C75" s="10" t="e">
         <f>VLOOKUP($B75,'part 03'!$D:$J, 3, 0)</f>
@@ -9976,12 +9978,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1">
+    <row r="76" spans="1:7" ht="18" customHeight="1">
       <c r="A76" s="24">
         <v>56</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C76" s="10" t="e">
         <f>VLOOKUP($B76,'part 03'!$D:$J, 3, 0)</f>
@@ -10004,53 +10006,53 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18" customHeight="1">
-      <c r="A77" s="24">
+    <row r="77" spans="1:7" ht="15" customHeight="1">
+      <c r="A77" s="22"/>
+      <c r="B77" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="22" t="e">
+        <f>SUM(C78:C80)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D77" s="22" t="e">
+        <f>SUM(D78:D80)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="22" t="e">
+        <f>SUM(E78:E80)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F77" s="22" t="e">
+        <f>SUM(F78:F80)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1">
+      <c r="A78" s="24">
         <v>57</v>
       </c>
-      <c r="B77" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="10" t="e">
-        <f>VLOOKUP($B77,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D77" s="10" t="e">
-        <f>VLOOKUP($B77,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="10" t="e">
-        <f>VLOOKUP($B77,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F77" s="10" t="e">
-        <f>VLOOKUP($B77,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G77" s="35" t="e">
-        <f>VLOOKUP($B77,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78" s="22" t="e">
-        <f>SUM(C79:C81)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D78" s="22" t="e">
-        <f>SUM(D79:D81)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E78" s="22" t="e">
-        <f>SUM(E79:E81)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F78" s="22" t="e">
-        <f>SUM(F79:F81)</f>
+      <c r="B78" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="10" t="e">
+        <f>VLOOKUP($B78,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D78" s="10" t="e">
+        <f>VLOOKUP($B78,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E78" s="10" t="e">
+        <f>VLOOKUP($B78,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F78" s="10" t="e">
+        <f>VLOOKUP($B78,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G78" s="35" t="e">
+        <f>VLOOKUP($B78,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10059,7 +10061,7 @@
         <v>58</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C79" s="10" t="e">
         <f>VLOOKUP($B79,'part 03'!$D:$J, 3, 0)</f>
@@ -10087,7 +10089,7 @@
         <v>59</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C80" s="10" t="e">
         <f>VLOOKUP($B80,'part 03'!$D:$J, 3, 0)</f>
@@ -10110,53 +10112,53 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1">
-      <c r="A81" s="24">
+    <row r="81" spans="1:7" ht="36" customHeight="1">
+      <c r="A81" s="22"/>
+      <c r="B81" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="22" t="e">
+        <f>SUM(C82:C131)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D81" s="22" t="e">
+        <f>SUM(D82:D131)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="22" t="e">
+        <f>SUM(E82:E131)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F81" s="22" t="e">
+        <f>SUM(F82:F131)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1">
+      <c r="A82" s="24">
         <v>60</v>
       </c>
-      <c r="B81" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="10" t="e">
-        <f>VLOOKUP($B81,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D81" s="10" t="e">
-        <f>VLOOKUP($B81,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="10" t="e">
-        <f>VLOOKUP($B81,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F81" s="10" t="e">
-        <f>VLOOKUP($B81,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G81" s="35" t="e">
-        <f>VLOOKUP($B81,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="36" customHeight="1">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="22" t="e">
-        <f>SUM(C83:C132)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D82" s="22" t="e">
-        <f>SUM(D83:D132)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="22" t="e">
-        <f>SUM(E83:E132)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F82" s="22" t="e">
-        <f>SUM(F83:F132)</f>
+      <c r="B82" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="10" t="e">
+        <f>VLOOKUP($B82,'part 03'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D82" s="10" t="e">
+        <f>VLOOKUP($B82,'part 03'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E82" s="10" t="e">
+        <f>VLOOKUP($B82,'part 03'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F82" s="10" t="e">
+        <f>VLOOKUP($B82,'part 03'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G82" s="35" t="e">
+        <f>VLOOKUP($B82,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -10165,7 +10167,7 @@
         <v>61</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C83" s="10" t="e">
         <f>VLOOKUP($B83,'part 03'!$D:$J, 3, 0)</f>
@@ -10188,12 +10190,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1">
+    <row r="84" spans="1:7" ht="45" customHeight="1">
       <c r="A84" s="24">
         <v>62</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C84" s="10" t="e">
         <f>VLOOKUP($B84,'part 03'!$D:$J, 3, 0)</f>
@@ -10216,12 +10218,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="45" customHeight="1">
+    <row r="85" spans="1:7" ht="15" customHeight="1">
       <c r="A85" s="24">
         <v>63</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="C85" s="10" t="e">
         <f>VLOOKUP($B85,'part 03'!$D:$J, 3, 0)</f>
@@ -10249,7 +10251,7 @@
         <v>64</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C86" s="10" t="e">
         <f>VLOOKUP($B86,'part 03'!$D:$J, 3, 0)</f>
@@ -10272,12 +10274,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1">
+    <row r="87" spans="1:7" ht="30" customHeight="1">
       <c r="A87" s="24">
         <v>65</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C87" s="10" t="e">
         <f>VLOOKUP($B87,'part 03'!$D:$J, 3, 0)</f>
@@ -10300,12 +10302,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" customHeight="1">
+    <row r="88" spans="1:7" ht="15" customHeight="1">
       <c r="A88" s="24">
         <v>66</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C88" s="10" t="e">
         <f>VLOOKUP($B88,'part 03'!$D:$J, 3, 0)</f>
@@ -10328,12 +10330,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1">
+    <row r="89" spans="1:7" ht="30" customHeight="1">
       <c r="A89" s="24">
         <v>67</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C89" s="10" t="e">
         <f>VLOOKUP($B89,'part 03'!$D:$J, 3, 0)</f>
@@ -10356,12 +10358,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" customHeight="1">
+    <row r="90" spans="1:7" ht="15" customHeight="1">
       <c r="A90" s="24">
         <v>68</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C90" s="10" t="e">
         <f>VLOOKUP($B90,'part 03'!$D:$J, 3, 0)</f>
@@ -10384,12 +10386,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1">
+    <row r="91" spans="1:7" ht="30" customHeight="1">
       <c r="A91" s="24">
         <v>69</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C91" s="10" t="e">
         <f>VLOOKUP($B91,'part 03'!$D:$J, 3, 0)</f>
@@ -10412,12 +10414,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" customHeight="1">
+    <row r="92" spans="1:7" ht="15" customHeight="1">
       <c r="A92" s="24">
         <v>70</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="C92" s="10" t="e">
         <f>VLOOKUP($B92,'part 03'!$D:$J, 3, 0)</f>
@@ -10445,7 +10447,7 @@
         <v>71</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C93" s="10" t="e">
         <f>VLOOKUP($B93,'part 03'!$D:$J, 3, 0)</f>
@@ -10473,7 +10475,7 @@
         <v>72</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C94" s="10" t="e">
         <f>VLOOKUP($B94,'part 03'!$D:$J, 3, 0)</f>
@@ -10496,12 +10498,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1">
+    <row r="95" spans="1:7" ht="30" customHeight="1">
       <c r="A95" s="24">
         <v>73</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C95" s="10" t="e">
         <f>VLOOKUP($B95,'part 03'!$D:$J, 3, 0)</f>
@@ -10524,12 +10526,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="30" customHeight="1">
+    <row r="96" spans="1:7" ht="15" customHeight="1">
       <c r="A96" s="24">
         <v>74</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C96" s="10" t="e">
         <f>VLOOKUP($B96,'part 03'!$D:$J, 3, 0)</f>
@@ -10552,12 +10554,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1">
+    <row r="97" spans="1:7" ht="30" customHeight="1">
       <c r="A97" s="24">
         <v>75</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C97" s="10" t="e">
         <f>VLOOKUP($B97,'part 03'!$D:$J, 3, 0)</f>
@@ -10580,12 +10582,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30" customHeight="1">
+    <row r="98" spans="1:7" ht="15" customHeight="1">
       <c r="A98" s="24">
         <v>76</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="C98" s="10" t="e">
         <f>VLOOKUP($B98,'part 03'!$D:$J, 3, 0)</f>
@@ -10608,12 +10610,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1">
+    <row r="99" spans="1:7" ht="30">
       <c r="A99" s="24">
         <v>77</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C99" s="10" t="e">
         <f>VLOOKUP($B99,'part 03'!$D:$J, 3, 0)</f>
@@ -10636,12 +10638,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30">
+    <row r="100" spans="1:7" ht="15">
       <c r="A100" s="24">
         <v>78</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C100" s="10" t="e">
         <f>VLOOKUP($B100,'part 03'!$D:$J, 3, 0)</f>
@@ -10669,7 +10671,7 @@
         <v>79</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C101" s="10" t="e">
         <f>VLOOKUP($B101,'part 03'!$D:$J, 3, 0)</f>
@@ -10692,12 +10694,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15">
+    <row r="102" spans="1:7" ht="30">
       <c r="A102" s="24">
         <v>80</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C102" s="10" t="e">
         <f>VLOOKUP($B102,'part 03'!$D:$J, 3, 0)</f>
@@ -10725,7 +10727,7 @@
         <v>81</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C103" s="10" t="e">
         <f>VLOOKUP($B103,'part 03'!$D:$J, 3, 0)</f>
@@ -10753,7 +10755,7 @@
         <v>82</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C104" s="10" t="e">
         <f>VLOOKUP($B104,'part 03'!$D:$J, 3, 0)</f>
@@ -10781,7 +10783,7 @@
         <v>83</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C105" s="10" t="e">
         <f>VLOOKUP($B105,'part 03'!$D:$J, 3, 0)</f>
@@ -10809,7 +10811,7 @@
         <v>84</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C106" s="10" t="e">
         <f>VLOOKUP($B106,'part 03'!$D:$J, 3, 0)</f>
@@ -10837,7 +10839,7 @@
         <v>85</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C107" s="10" t="e">
         <f>VLOOKUP($B107,'part 03'!$D:$J, 3, 0)</f>
@@ -10865,7 +10867,7 @@
         <v>86</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C108" s="10" t="e">
         <f>VLOOKUP($B108,'part 03'!$D:$J, 3, 0)</f>
@@ -10893,7 +10895,7 @@
         <v>87</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C109" s="10" t="e">
         <f>VLOOKUP($B109,'part 03'!$D:$J, 3, 0)</f>
@@ -10916,12 +10918,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="30">
+    <row r="110" spans="1:7" ht="15">
       <c r="A110" s="24">
         <v>88</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C110" s="10" t="e">
         <f>VLOOKUP($B110,'part 03'!$D:$J, 3, 0)</f>
@@ -10949,7 +10951,7 @@
         <v>89</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C111" s="10" t="e">
         <f>VLOOKUP($B111,'part 03'!$D:$J, 3, 0)</f>
@@ -10972,12 +10974,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15">
+    <row r="112" spans="1:7" ht="30">
       <c r="A112" s="24">
         <v>90</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C112" s="10" t="e">
         <f>VLOOKUP($B112,'part 03'!$D:$J, 3, 0)</f>
@@ -11000,12 +11002,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="30">
+    <row r="113" spans="1:7" ht="15">
       <c r="A113" s="24">
         <v>91</v>
       </c>
-      <c r="B113" s="25" t="s">
-        <v>159</v>
+      <c r="B113" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="C113" s="10" t="e">
         <f>VLOOKUP($B113,'part 03'!$D:$J, 3, 0)</f>
@@ -11028,12 +11030,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15">
+    <row r="114" spans="1:7" ht="30">
       <c r="A114" s="24">
         <v>92</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C114" s="10" t="e">
         <f>VLOOKUP($B114,'part 03'!$D:$J, 3, 0)</f>
@@ -11056,12 +11058,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="30">
+    <row r="115" spans="1:7" ht="15">
       <c r="A115" s="24">
         <v>93</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C115" s="10" t="e">
         <f>VLOOKUP($B115,'part 03'!$D:$J, 3, 0)</f>
@@ -11089,7 +11091,7 @@
         <v>94</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" s="10" t="e">
         <f>VLOOKUP($B116,'part 03'!$D:$J, 3, 0)</f>
@@ -11117,7 +11119,7 @@
         <v>95</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C117" s="10" t="e">
         <f>VLOOKUP($B117,'part 03'!$D:$J, 3, 0)</f>
@@ -11145,7 +11147,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C118" s="10" t="e">
         <f>VLOOKUP($B118,'part 03'!$D:$J, 3, 0)</f>
@@ -11173,7 +11175,7 @@
         <v>97</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="C119" s="10" t="e">
         <f>VLOOKUP($B119,'part 03'!$D:$J, 3, 0)</f>
@@ -11201,7 +11203,7 @@
         <v>98</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C120" s="10" t="e">
         <f>VLOOKUP($B120,'part 03'!$D:$J, 3, 0)</f>
@@ -11224,12 +11226,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15">
+    <row r="121" spans="1:7" ht="45">
       <c r="A121" s="24">
         <v>99</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C121" s="10" t="e">
         <f>VLOOKUP($B121,'part 03'!$D:$J, 3, 0)</f>
@@ -11252,12 +11254,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="45">
+    <row r="122" spans="1:7" ht="15">
       <c r="A122" s="24">
         <v>100</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="C122" s="10" t="e">
         <f>VLOOKUP($B122,'part 03'!$D:$J, 3, 0)</f>
@@ -11285,7 +11287,7 @@
         <v>101</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="C123" s="10" t="e">
         <f>VLOOKUP($B123,'part 03'!$D:$J, 3, 0)</f>
@@ -11308,12 +11310,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15">
+    <row r="124" spans="1:7" ht="30">
       <c r="A124" s="24">
         <v>102</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C124" s="10" t="e">
         <f>VLOOKUP($B124,'part 03'!$D:$J, 3, 0)</f>
@@ -11336,12 +11338,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="30">
+    <row r="125" spans="1:7" ht="15">
       <c r="A125" s="24">
         <v>103</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="C125" s="10" t="e">
         <f>VLOOKUP($B125,'part 03'!$D:$J, 3, 0)</f>
@@ -11364,12 +11366,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15">
+    <row r="126" spans="1:7" ht="30">
       <c r="A126" s="24">
         <v>104</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C126" s="10" t="e">
         <f>VLOOKUP($B126,'part 03'!$D:$J, 3, 0)</f>
@@ -11392,12 +11394,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="30">
+    <row r="127" spans="1:7" ht="15">
       <c r="A127" s="24">
         <v>105</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C127" s="10" t="e">
         <f>VLOOKUP($B127,'part 03'!$D:$J, 3, 0)</f>
@@ -11425,7 +11427,7 @@
         <v>106</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C128" s="10" t="e">
         <f>VLOOKUP($B128,'part 03'!$D:$J, 3, 0)</f>
@@ -11448,12 +11450,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15">
+    <row r="129" spans="1:7" ht="30">
       <c r="A129" s="24">
         <v>107</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="C129" s="10" t="e">
         <f>VLOOKUP($B129,'part 03'!$D:$J, 3, 0)</f>
@@ -11476,12 +11478,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="30">
+    <row r="130" spans="1:7" ht="15">
       <c r="A130" s="24">
         <v>108</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C130" s="10" t="e">
         <f>VLOOKUP($B130,'part 03'!$D:$J, 3, 0)</f>
@@ -11509,7 +11511,7 @@
         <v>109</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C131" s="10" t="e">
         <f>VLOOKUP($B131,'part 03'!$D:$J, 3, 0)</f>
@@ -11529,34 +11531,6 @@
       </c>
       <c r="G131" s="35" t="e">
         <f>VLOOKUP($B131,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15">
-      <c r="A132" s="24">
-        <v>110</v>
-      </c>
-      <c r="B132" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 03'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 03'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 03'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F132" s="10" t="e">
-        <f>VLOOKUP($B132,'part 03'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G132" s="35" t="e">
-        <f>VLOOKUP($B132,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21186,10 +21160,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист17"/>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="12.75"/>
@@ -21250,19 +21224,19 @@
         <v>84</v>
       </c>
       <c r="C3" s="21" t="e">
-        <f>C7+C10+C14+C21+C23+C25+C27+C29+C34+C38+C42+C44+C46+C52+C55+C4</f>
+        <f>C6+C9+C13+C20+C22+C24+C26+C28+C33+C37+C41+C43+C45+C51+C54+C4</f>
         <v>#N/A</v>
       </c>
       <c r="D3" s="21" t="e">
-        <f t="shared" ref="D3:F3" si="0">D7+D10+D14+D21+D23+D25+D27+D29+D34+D38+D42+D44+D46+D52+D55+D4</f>
+        <f>D6+D9+D13+D20+D22+D24+D26+D28+D33+D37+D41+D43+D45+D51+D54+D4</f>
         <v>#N/A</v>
       </c>
       <c r="E3" s="21" t="e">
-        <f t="shared" si="0"/>
+        <f>E6+E9+E13+E20+E22+E24+E26+E28+E33+E37+E41+E43+E45+E51+E54+E4</f>
         <v>#N/A</v>
       </c>
       <c r="F3" s="21" t="e">
-        <f t="shared" si="0"/>
+        <f>F6+F9+F13+F20+F22+F24+F26+F28+F33+F37+F41+F43+F45+F51+F54+F4</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21272,19 +21246,19 @@
         <v>85</v>
       </c>
       <c r="C4" s="22" t="e">
-        <f>SUM(C5:C6)</f>
+        <f>SUM(C5:C5)</f>
         <v>#N/A</v>
       </c>
       <c r="D4" s="22" t="e">
-        <f>SUM(D5:D6)</f>
+        <f>SUM(D5:D5)</f>
         <v>#N/A</v>
       </c>
       <c r="E4" s="22" t="e">
-        <f>SUM(E5:E6)</f>
+        <f>SUM(E5:E5)</f>
         <v>#N/A</v>
       </c>
       <c r="F4" s="22" t="e">
-        <f>SUM(F5:F6)</f>
+        <f>SUM(F5:F5)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -21293,7 +21267,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="e">
         <f>VLOOKUP($B5,'part 07'!$D:$J, 3, 0)</f>
@@ -21317,61 +21291,63 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="24">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="26" t="e">
+        <f>SUM(C7:C8)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="26" t="e">
+        <f t="shared" ref="D6:F6" si="0">SUM(D7:D8)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="26" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36" customHeight="1">
+      <c r="A7" s="24">
+        <f>IF(A6="",A5+1,A6+1)</f>
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" s="10" t="e">
-        <f>VLOOKUP($B6,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="35" t="e">
-        <f>VLOOKUP($B6,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="26" t="e">
-        <f>SUM(C8:C9)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="26" t="e">
-        <f t="shared" ref="D7:F7" si="1">SUM(D8:D9)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="26" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="26" t="e">
-        <f t="shared" si="1"/>
+      <c r="B7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="e">
+        <f>VLOOKUP($B7,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="10" t="e">
+        <f>VLOOKUP($B7,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="10" t="e">
+        <f>VLOOKUP($B7,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="10" t="e">
+        <f>VLOOKUP($B7,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="35" t="e">
+        <f>VLOOKUP($B7,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="24">
+        <f t="shared" ref="A8:A56" si="1">IF(A7="",A6+1,A7+1)</f>
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C8" s="10" t="e">
         <f>VLOOKUP($B8,'part 07'!$D:$J, 3, 0)</f>
@@ -21394,62 +21370,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="36" customHeight="1">
-      <c r="A9" s="24">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="22" t="e">
+        <f>SUM(C10:C12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="22" t="e">
+        <f>SUM(D10:D12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="22" t="e">
+        <f>SUM(E10:E12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="22" t="e">
+        <f>SUM(F10:F12)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="24">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="10" t="e">
-        <f>VLOOKUP($B9,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="10" t="e">
-        <f>VLOOKUP($B9,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="10" t="e">
-        <f>VLOOKUP($B9,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F9" s="10" t="e">
-        <f>VLOOKUP($B9,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="35" t="e">
-        <f>VLOOKUP($B9,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="22" t="e">
-        <f>SUM(C11:C13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D10" s="22" t="e">
-        <f>SUM(D11:D13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="22" t="e">
-        <f>SUM(E11:E13)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="22" t="e">
-        <f>SUM(F11:F13)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="B10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="10" t="e">
+        <f>VLOOKUP($B10,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="10" t="e">
+        <f>VLOOKUP($B10,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="10" t="e">
+        <f>VLOOKUP($B10,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="10" t="e">
+        <f>VLOOKUP($B10,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="35" t="e">
+        <f>VLOOKUP($B10,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" s="24">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="10" t="e">
         <f>VLOOKUP($B11,'part 07'!$D:$J, 3, 0)</f>
@@ -21472,12 +21450,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="24">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C12" s="10" t="e">
         <f>VLOOKUP($B12,'part 07'!$D:$J, 3, 0)</f>
@@ -21500,62 +21479,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="24">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="22" t="e">
+        <f>SUM(C14:C19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="22" t="e">
+        <f>SUM(D14:D19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="22" t="e">
+        <f>SUM(E14:E19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="22" t="e">
+        <f>SUM(F14:F19)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1">
+      <c r="A14" s="24">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="10" t="e">
-        <f>VLOOKUP($B13,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="35" t="e">
-        <f>VLOOKUP($B13,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="22" t="e">
-        <f>SUM(C15:C20)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="22" t="e">
-        <f>SUM(D15:D20)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="22" t="e">
-        <f>SUM(E15:E20)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="22" t="e">
-        <f>SUM(F15:F20)</f>
+      <c r="B14" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="10" t="e">
+        <f>VLOOKUP($B14,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="10" t="e">
+        <f>VLOOKUP($B14,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="10" t="e">
+        <f>VLOOKUP($B14,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="10" t="e">
+        <f>VLOOKUP($B14,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="35" t="e">
+        <f>VLOOKUP($B14,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="24">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="C15" s="10" t="e">
         <f>VLOOKUP($B15,'part 07'!$D:$J, 3, 0)</f>
@@ -21580,10 +21561,11 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="24">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" s="10" t="e">
         <f>VLOOKUP($B16,'part 07'!$D:$J, 3, 0)</f>
@@ -21608,10 +21590,11 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="24">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C17" s="10" t="e">
         <f>VLOOKUP($B17,'part 07'!$D:$J, 3, 0)</f>
@@ -21636,10 +21619,11 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="24">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C18" s="10" t="e">
         <f>VLOOKUP($B18,'part 07'!$D:$J, 3, 0)</f>
@@ -21664,10 +21648,11 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="24">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C19" s="10" t="e">
         <f>VLOOKUP($B19,'part 07'!$D:$J, 3, 0)</f>
@@ -21690,262 +21675,268 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1">
-      <c r="A20" s="24">
+    <row r="20" spans="1:7" ht="18" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="22" t="e">
+        <f>SUM(C21:C21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="22" t="e">
+        <f>SUM(D21:D21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="22" t="e">
+        <f>SUM(E21:E21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="22" t="e">
+        <f>SUM(F21:F21)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1">
+      <c r="A21" s="24">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="10" t="e">
-        <f>VLOOKUP($B20,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="35" t="e">
-        <f>VLOOKUP($B20,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="22" t="e">
-        <f>SUM(C22:C22)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D21" s="22" t="e">
-        <f>SUM(D22:D22)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="22" t="e">
-        <f>SUM(E22:E22)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" s="22" t="e">
-        <f>SUM(F22:F22)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
-      <c r="A22" s="24">
+      <c r="B21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="10" t="e">
+        <f>VLOOKUP($B21,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="10" t="e">
+        <f>VLOOKUP($B21,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="10" t="e">
+        <f>VLOOKUP($B21,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="10" t="e">
+        <f>VLOOKUP($B21,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="35" t="e">
+        <f>VLOOKUP($B21,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="26" t="e">
+        <f>SUM(C23:C23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="26" t="e">
+        <f>SUM(D23:D23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="26" t="e">
+        <f>SUM(E23:E23)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="26" t="e">
+        <f>SUM(F23:F23)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1">
+      <c r="A23" s="24">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="10" t="e">
-        <f>VLOOKUP($B22,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="35" t="e">
-        <f>VLOOKUP($B22,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="26" t="e">
-        <f>SUM(C24:C24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="26" t="e">
-        <f>SUM(D24:D24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="26" t="e">
-        <f>SUM(E24:E24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" s="26" t="e">
-        <f>SUM(F24:F24)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
-      <c r="A24" s="24">
+      <c r="B23" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="10" t="e">
+        <f>VLOOKUP($B23,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="10" t="e">
+        <f>VLOOKUP($B23,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="10" t="e">
+        <f>VLOOKUP($B23,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F23" s="10" t="e">
+        <f>VLOOKUP($B23,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" s="35" t="e">
+        <f>VLOOKUP($B23,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="36" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="22" t="e">
+        <f>SUM(C25:C25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="22" t="e">
+        <f>SUM(D25:D25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="22" t="e">
+        <f>SUM(E25:E25)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F24" s="22" t="e">
+        <f>SUM(F25:F25)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1">
+      <c r="A25" s="24">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F24" s="10" t="e">
-        <f>VLOOKUP($B24,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="35" t="e">
-        <f>VLOOKUP($B24,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="36" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="22" t="e">
-        <f>SUM(C26:C26)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="22" t="e">
-        <f>SUM(D26:D26)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="22" t="e">
-        <f>SUM(E26:E26)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F25" s="22" t="e">
-        <f>SUM(F26:F26)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
-      <c r="A26" s="24">
+      <c r="B25" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="10" t="e">
+        <f>VLOOKUP($B25,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="10" t="e">
+        <f>VLOOKUP($B25,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="10" t="e">
+        <f>VLOOKUP($B25,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="10" t="e">
+        <f>VLOOKUP($B25,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="35" t="e">
+        <f>VLOOKUP($B25,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="22" t="e">
+        <f>SUM(C27)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="22" t="e">
+        <f>SUM(D27)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="22" t="e">
+        <f>SUM(E27)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F26" s="22" t="e">
+        <f>SUM(F27)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" s="24">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F26" s="10" t="e">
-        <f>VLOOKUP($B26,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" s="35" t="e">
-        <f>VLOOKUP($B26,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="22" t="e">
-        <f>SUM(C28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="22" t="e">
-        <f>SUM(D28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="22" t="e">
-        <f>SUM(E28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F27" s="22" t="e">
-        <f>SUM(F28)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1">
-      <c r="A28" s="24">
+      <c r="B27" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="10" t="e">
+        <f>VLOOKUP($B27,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="10" t="e">
+        <f>VLOOKUP($B27,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="10" t="e">
+        <f>VLOOKUP($B27,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F27" s="10" t="e">
+        <f>VLOOKUP($B27,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="35" t="e">
+        <f>VLOOKUP($B27,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="22" t="e">
+        <f>SUM(C29:C32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D28" s="22" t="e">
+        <f t="shared" ref="D28:F28" si="2">SUM(D29:D32)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F28" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1">
+      <c r="A29" s="24">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F28" s="10" t="e">
-        <f>VLOOKUP($B28,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" s="35" t="e">
-        <f>VLOOKUP($B28,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="22" t="e">
-        <f>SUM(C30:C33)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D29" s="22" t="e">
-        <f t="shared" ref="D29:F29" si="2">SUM(D30:D33)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F29" s="22" t="e">
-        <f t="shared" si="2"/>
+      <c r="B29" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="10" t="e">
+        <f>VLOOKUP($B29,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="10" t="e">
+        <f>VLOOKUP($B29,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="10" t="e">
+        <f>VLOOKUP($B29,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="10" t="e">
+        <f>VLOOKUP($B29,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="35" t="e">
+        <f>VLOOKUP($B29,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1">
       <c r="A30" s="24">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="10" t="e">
         <f>VLOOKUP($B30,'part 07'!$D:$J, 3, 0)</f>
@@ -21970,10 +21961,11 @@
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1">
       <c r="A31" s="24">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="C31" s="10" t="e">
         <f>VLOOKUP($B31,'part 07'!$D:$J, 3, 0)</f>
@@ -21998,10 +21990,11 @@
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1">
       <c r="A32" s="24">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C32" s="10" t="e">
         <f>VLOOKUP($B32,'part 07'!$D:$J, 3, 0)</f>
@@ -22024,62 +22017,64 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1">
-      <c r="A33" s="24">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="26" t="e">
+        <f>SUM(C34:C36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D33" s="26" t="e">
+        <f>SUM(D34:D36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="26" t="e">
+        <f>SUM(E34:E36)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F33" s="26" t="e">
+        <f>SUM(F34:F36)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1">
+      <c r="A34" s="24">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="10" t="e">
-        <f>VLOOKUP($B33,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="35" t="e">
-        <f>VLOOKUP($B33,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="26" t="e">
-        <f>SUM(C35:C37)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" s="26" t="e">
-        <f>SUM(D35:D37)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="26" t="e">
-        <f>SUM(E35:E37)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F34" s="26" t="e">
-        <f>SUM(F35:F37)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+      <c r="B34" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="10" t="e">
+        <f>VLOOKUP($B34,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D34" s="10" t="e">
+        <f>VLOOKUP($B34,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="10" t="e">
+        <f>VLOOKUP($B34,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F34" s="10" t="e">
+        <f>VLOOKUP($B34,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G34" s="35" t="e">
+        <f>VLOOKUP($B34,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="31.5" customHeight="1">
       <c r="A35" s="24">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C35" s="10" t="e">
         <f>VLOOKUP($B35,'part 07'!$D:$J, 3, 0)</f>
@@ -22102,12 +22097,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.5" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="24">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" s="10" t="e">
         <f>VLOOKUP($B36,'part 07'!$D:$J, 3, 0)</f>
@@ -22131,61 +22127,63 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="24">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="26" t="e">
+        <f>SUM(C38+C39+C40)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D37" s="26" t="e">
+        <f>SUM(D38:D40)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="26" t="e">
+        <f>SUM(E38:E40)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F37" s="26" t="e">
+        <f>SUM(F38:F40)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1">
+      <c r="A38" s="24">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="10" t="e">
-        <f>VLOOKUP($B37,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D37" s="10" t="e">
-        <f>VLOOKUP($B37,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E37" s="10" t="e">
-        <f>VLOOKUP($B37,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F37" s="10" t="e">
-        <f>VLOOKUP($B37,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G37" s="35" t="e">
-        <f>VLOOKUP($B37,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="26" t="e">
-        <f>SUM(C39+C40+C41)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" s="26" t="e">
-        <f>SUM(D39:D41)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="26" t="e">
-        <f>SUM(E39:E41)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" s="26" t="e">
-        <f>SUM(F39:F41)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+      <c r="B38" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="10" t="e">
+        <f>VLOOKUP($B38,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D38" s="10" t="e">
+        <f>VLOOKUP($B38,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="10" t="e">
+        <f>VLOOKUP($B38,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F38" s="10" t="e">
+        <f>VLOOKUP($B38,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G38" s="35" t="e">
+        <f>VLOOKUP($B38,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="36" customHeight="1">
       <c r="A39" s="24">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C39" s="10" t="e">
         <f>VLOOKUP($B39,'part 07'!$D:$J, 3, 0)</f>
@@ -22208,12 +22206,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="36" customHeight="1">
+    <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40" s="24">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C40" s="10" t="e">
         <f>VLOOKUP($B40,'part 07'!$D:$J, 3, 0)</f>
@@ -22236,162 +22235,166 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1">
-      <c r="A41" s="24">
+    <row r="41" spans="1:7" ht="18" customHeight="1">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="26" t="e">
+        <f>SUM(C42:C42)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D41" s="26" t="e">
+        <f>SUM(D42:D42)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="26" t="e">
+        <f>SUM(E42:E42)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F41" s="26" t="e">
+        <f>SUM(F42:F42)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1">
+      <c r="A42" s="24">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="10" t="e">
-        <f>VLOOKUP($B41,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D41" s="10" t="e">
-        <f>VLOOKUP($B41,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E41" s="10" t="e">
-        <f>VLOOKUP($B41,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F41" s="10" t="e">
-        <f>VLOOKUP($B41,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G41" s="35" t="e">
-        <f>VLOOKUP($B41,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="26" t="e">
-        <f>SUM(C43:C43)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D42" s="26" t="e">
-        <f>SUM(D43:D43)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E42" s="26" t="e">
-        <f>SUM(E43:E43)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F42" s="26" t="e">
-        <f>SUM(F43:F43)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
-      <c r="A43" s="24">
+      <c r="B42" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="10" t="e">
+        <f>VLOOKUP($B42,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D42" s="10" t="e">
+        <f>VLOOKUP($B42,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="10" t="e">
+        <f>VLOOKUP($B42,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F42" s="10" t="e">
+        <f>VLOOKUP($B42,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G42" s="35" t="e">
+        <f>VLOOKUP($B42,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="26" t="e">
+        <f>SUM(C44)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D43" s="26" t="e">
+        <f>SUM(D44)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="26" t="e">
+        <f>SUM(E44)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F43" s="26" t="e">
+        <f>SUM(F44)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1">
+      <c r="A44" s="24">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F43" s="10" t="e">
-        <f>VLOOKUP($B43,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G43" s="35" t="e">
-        <f>VLOOKUP($B43,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="26" t="e">
-        <f>SUM(C45)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D44" s="26" t="e">
-        <f>SUM(D45)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E44" s="26" t="e">
-        <f>SUM(E45)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F44" s="26" t="e">
-        <f>SUM(F45)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1">
-      <c r="A45" s="24">
+      <c r="B44" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="10" t="e">
+        <f>VLOOKUP($B44,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D44" s="10" t="e">
+        <f>VLOOKUP($B44,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="10" t="e">
+        <f>VLOOKUP($B44,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F44" s="10" t="e">
+        <f>VLOOKUP($B44,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G44" s="35" t="e">
+        <f>VLOOKUP($B44,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="22" t="e">
+        <f>SUM(C46:C50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D45" s="22" t="e">
+        <f>SUM(D46:D50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="22" t="e">
+        <f>SUM(E46:E50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F45" s="22" t="e">
+        <f>SUM(F46:F50)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1">
+      <c r="A46" s="24">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="10" t="e">
-        <f>VLOOKUP($B45,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D45" s="10" t="e">
-        <f>VLOOKUP($B45,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="10" t="e">
-        <f>VLOOKUP($B45,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F45" s="10" t="e">
-        <f>VLOOKUP($B45,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G45" s="35" t="e">
-        <f>VLOOKUP($B45,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="22" t="e">
-        <f>SUM(C47:C51)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D46" s="22" t="e">
-        <f>SUM(D47:D51)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E46" s="22" t="e">
-        <f>SUM(E47:E51)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F46" s="22" t="e">
-        <f>SUM(F47:F51)</f>
+      <c r="B46" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="10" t="e">
+        <f>VLOOKUP($B46,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D46" s="10" t="e">
+        <f>VLOOKUP($B46,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E46" s="10" t="e">
+        <f>VLOOKUP($B46,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F46" s="10" t="e">
+        <f>VLOOKUP($B46,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G46" s="35" t="e">
+        <f>VLOOKUP($B46,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1">
       <c r="A47" s="24">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C47" s="10" t="e">
         <f>VLOOKUP($B47,'part 07'!$D:$J, 3, 0)</f>
@@ -22416,10 +22419,11 @@
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1">
       <c r="A48" s="24">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C48" s="10" t="e">
         <f>VLOOKUP($B48,'part 07'!$D:$J, 3, 0)</f>
@@ -22442,12 +22446,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
+    <row r="49" spans="1:7" ht="18" customHeight="1">
       <c r="A49" s="24">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C49" s="10" t="e">
         <f>VLOOKUP($B49,'part 07'!$D:$J, 3, 0)</f>
@@ -22470,12 +22475,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1">
+    <row r="50" spans="1:7" ht="15" customHeight="1">
       <c r="A50" s="24">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C50" s="10" t="e">
         <f>VLOOKUP($B50,'part 07'!$D:$J, 3, 0)</f>
@@ -22499,61 +22505,63 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1">
-      <c r="A51" s="24">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="22" t="e">
+        <f>SUM(C52:C53)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D51" s="22" t="e">
+        <f>SUM(D52:D53)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E51" s="22" t="e">
+        <f>SUM(E52:E53)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F51" s="22" t="e">
+        <f>SUM(F52:F53)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1">
+      <c r="A52" s="24">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="10" t="e">
-        <f>VLOOKUP($B51,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D51" s="10" t="e">
-        <f>VLOOKUP($B51,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E51" s="10" t="e">
-        <f>VLOOKUP($B51,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F51" s="10" t="e">
-        <f>VLOOKUP($B51,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G51" s="35" t="e">
-        <f>VLOOKUP($B51,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="22" t="e">
-        <f>SUM(C53:C54)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D52" s="22" t="e">
-        <f>SUM(D53:D54)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E52" s="22" t="e">
-        <f>SUM(E53:E54)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F52" s="22" t="e">
-        <f>SUM(F53:F54)</f>
+      <c r="B52" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="10" t="e">
+        <f>VLOOKUP($B52,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D52" s="10" t="e">
+        <f>VLOOKUP($B52,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E52" s="10" t="e">
+        <f>VLOOKUP($B52,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F52" s="10" t="e">
+        <f>VLOOKUP($B52,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G52" s="35" t="e">
+        <f>VLOOKUP($B52,'part 01'!$D:$K, 8, 0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1">
       <c r="A53" s="24">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" s="10" t="e">
         <f>VLOOKUP($B53,'part 07'!$D:$J, 3, 0)</f>
@@ -22577,61 +22585,63 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1">
-      <c r="A54" s="24">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="22" t="e">
+        <f>SUM(C55:C56)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D54" s="22" t="e">
+        <f>SUM(D55:D56)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="22" t="e">
+        <f>SUM(E55:E56)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F54" s="22" t="e">
+        <f>SUM(F55:F56)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45">
+      <c r="A55" s="24">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F54" s="10" t="e">
-        <f>VLOOKUP($B54,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G54" s="35" t="e">
-        <f>VLOOKUP($B54,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="22" t="e">
-        <f>SUM(C56:C57)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D55" s="22" t="e">
-        <f>SUM(D56:D57)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E55" s="22" t="e">
-        <f>SUM(E56:E57)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F55" s="22" t="e">
-        <f>SUM(F56:F57)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="45">
+      <c r="B55" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="10" t="e">
+        <f>VLOOKUP($B55,'part 07'!$D:$J, 3, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D55" s="10" t="e">
+        <f>VLOOKUP($B55,'part 07'!$D:$J, 5, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E55" s="10" t="e">
+        <f>VLOOKUP($B55,'part 07'!$D:$J, 6, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F55" s="10" t="e">
+        <f>VLOOKUP($B55,'part 07'!$D:$J, 7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G55" s="35" t="e">
+        <f>VLOOKUP($B55,'part 01'!$D:$K, 8, 0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15">
       <c r="A56" s="24">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="C56" s="10" t="e">
         <f>VLOOKUP($B56,'part 07'!$D:$J, 3, 0)</f>
@@ -22654,36 +22664,8 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15">
-      <c r="A57" s="24">
-        <v>38</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 07'!$D:$J, 3, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 07'!$D:$J, 5, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 07'!$D:$J, 6, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F57" s="10" t="e">
-        <f>VLOOKUP($B57,'part 07'!$D:$J, 7, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G57" s="35" t="e">
-        <f>VLOOKUP($B57,'part 01'!$D:$K, 8, 0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:G57"/>
+  <autoFilter ref="A2:G56"/>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
 </worksheet>
 </file>
